--- a/poc-professionnel/ig/all-profiles.xlsx
+++ b/poc-professionnel/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T13:28:42+00:00</t>
+    <t>2025-07-16T13:29:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/all-profiles.xlsx
+++ b/poc-professionnel/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T13:29:24+00:00</t>
+    <t>2025-07-16T13:52:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/all-profiles.xlsx
+++ b/poc-professionnel/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T11:52:46+00:00</t>
+    <t>2025-07-21T14:08:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/all-profiles.xlsx
+++ b/poc-professionnel/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T14:08:48+00:00</t>
+    <t>2025-07-22T15:23:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/all-profiles.xlsx
+++ b/poc-professionnel/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T15:23:11+00:00</t>
+    <t>2025-07-23T06:24:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -241,7 +241,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Adresse géopostale. Un emplacement auquel une personne ou une organisation peut être trouvée ou être atteinte, d'après la norme NF Z 10-011.</t>
+    <t>Adresse géopostale. Un emplacement auquel une personne ou une organisation peut être trouvée ou être atteinte, d'après la norme NF Z 10-011.</t>
   </si>
   <si>
     <t>Base</t>
@@ -257,37 +257,37 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Eléments d'identification du destinataire c’est-à-dire la personne physique ou morale à qui un envoi est adressé.1) Le destinataire est une personne physique :* Qualité: civilité ou condition sociale, civile, juridique ou titre sous lequel une partie figure dans un acte juridique.* Prénom* Nom* Titre: désignation honorifique exprimant une distinction de rang, une dignité (titres nobiliaires, religieux, etc.).* Profession, fonctionUne personne physique peut être désignée soit par son nom et éventuellement son prénom, soit par son nom et sa fonction ou sa profession, enfin, dans certains cas particuliers, par ses seuls titres, fonction ou profession.2) Le destinataire est une personne morale :* Forme juridique: Indication du statut juridique de la personne morale : SA, SARL, GIE, Société civile, Mutuelle, Association, Fondation, etc.* Raison ou dénomination sociale* Domaine d'activité* Enseigne commerciale* Nom commercial* Subdivision au sein de l'entreprise (Direction, service, etc.) ou organisation interne de la personne morale (fonctionnelle ou géographique).Une personne morale peut être désignée au moins par sa raison sociale, son enseigne ou nom commercial.</t>
+    <t>Eléments d'identification du destinataire c’est-à-dire la personne physique ou morale à qui un envoi est adressé.1) Le destinataire est une personne physique :* Qualité: civilité ou condition sociale, civile, juridique ou titre sous lequel une partie figure dans un acte juridique.* Prénom* Nom* Titre: désignation honorifique exprimant une distinction de rang, une dignité (titres nobiliaires, religieux, etc.).* Profession, fonctionUne personne physique peut être désignée soit par son nom et éventuellement son prénom, soit par son nom et sa fonction ou sa profession, enfin, dans certains cas particuliers, par ses seuls titres, fonction ou profession.2) Le destinataire est une personne morale :* Forme juridique: Indication du statut juridique de la personne morale : SA, SARL, GIE, Société civile, Mutuelle, Association, Fondation, etc.* Raison ou dénomination sociale* Domaine d'activité* Enseigne commerciale* Nom commercial* Subdivision au sein de l'entreprise (Direction, service, etc.) ou organisation interne de la personne morale (fonctionnelle ou géographique).Une personne morale peut être désignée au moins par sa raison sociale, son enseigne ou nom commercial.</t>
   </si>
   <si>
     <t>Adresse.identificationDomicilie</t>
   </si>
   <si>
-    <t xml:space="preserve"> Eléments d'identification du domicilié c’est-à-dire le titulaire du domicile du destinataire (lieu ordinaire d'habitation, demeure légale et habituelle)1) Le domicilié est une personne physique:* Qualité* Prénom* Nom* Titre* Profession, fonctionLes éléments d'identification du domicilié sont précédés de la mention «chez»2) Le domicilié est une personne morale:* Forme juridique* Dénomination sociale* Activité principale* Enseigne ou nom de l'établissement* Subdivision au sein de l'entreprise (Direction, service,...).</t>
+    <t>Eléments d'identification du domicilié c’est-à-dire le titulaire du domicile du destinataire (lieu ordinaire d'habitation, demeure légale et habituelle)1) Le domicilié est une personne physique:* Qualité* Prénom* Nom* Titre* Profession, fonctionLes éléments d'identification du domicilié sont précédés de la mention «chez»2) Le domicilié est une personne morale:* Forme juridique* Dénomination sociale* Activité principale* Enseigne ou nom de l'établissement* Subdivision au sein de l'entreprise (Direction, service,...).</t>
   </si>
   <si>
     <t>Adresse.pointRemise</t>
   </si>
   <si>
-    <t xml:space="preserve"> Lieu où le destinataire prend possession de son courrier. Il est matérialisé, dans la plupart des cas, par la présence d'une boîte aux lettres; il est constitué des éléments suivants :* Local ou logement : Numéro ou désignation d'appartement, logement, pièce, bureau, local commercial ou industriel* Accès au local ou au logement: indications de couloir, d'étage ou de niveau* Boîte aux lettres : Numéro voire dénomination (éventuellement CIDEX)* Accès à la boîte à lettres: si nécessaire,: identification du couloir d'accès, de la batterie de boîtes s'il en existe plusieurs* Code acheminement interne à l'entreprise (CAIE): Codification identifiant le découpage au sein de l'entreprise en vue du traitement de courrier par les services dédiés internes à l'entreprise. Les informations d'identification du domicilié (Chez M.X) pourraient figurer dans cet attribut.</t>
+    <t>Lieu où le destinataire prend possession de son courrier. Il est matérialisé, dans la plupart des cas, par la présence d'une boîte aux lettres; il est constitué des éléments suivants :* Local ou logement : Numéro ou désignation d'appartement, logement, pièce, bureau, local commercial ou industriel* Accès au local ou au logement: indications de couloir, d'étage ou de niveau* Boîte aux lettres : Numéro voire dénomination (éventuellement CIDEX)* Accès à la boîte à lettres: si nécessaire,: identification du couloir d'accès, de la batterie de boîtes s'il en existe plusieurs* Code acheminement interne à l'entreprise (CAIE): Codification identifiant le découpage au sein de l'entreprise en vue du traitement de courrier par les services dédiés internes à l'entreprise. Les informations d'identification du domicilié (Chez M.X) pourraient figurer dans cet attribut.</t>
   </si>
   <si>
     <t>Adresse.complementPointGeographique</t>
   </si>
   <si>
-    <t xml:space="preserve"> Un complément de l'adresse au point géographique constitué des éléments suivants:* Bâtiment: les bâtiments sont désignés par leur type (bâtiment, immeuble, tour,...), éventuellement des mentions d'orientation (est, ouest,...), une dénomination littérale ou une numérotation; exemple: Tour DELTA* Accès au bâtiment: l'accès au bâtiment est identifié par un numéro, une lettre, une combinaison alphanumérique. Ces éléments identifient une entrée, porte, etc.; exemple: Entrée A* Ensemble immobilier: ensemble d'habitations reliées à la voie publique par un ou plusieurs points d'accès (résidence, zoneindustrielle,...); exemple: Résidence des Fleurs.</t>
+    <t>Un complément de l'adresse au point géographique constitué des éléments suivants:* Bâtiment: les bâtiments sont désignés par leur type (bâtiment, immeuble, tour,...), éventuellement des mentions d'orientation (est, ouest,...), une dénomination littérale ou une numérotation; exemple: Tour DELTA* Accès au bâtiment: l'accès au bâtiment est identifié par un numéro, une lettre, une combinaison alphanumérique. Ces éléments identifient une entrée, porte, etc.; exemple: Entrée A* Ensemble immobilier: ensemble d'habitations reliées à la voie publique par un ou plusieurs points d'accès (résidence, zoneindustrielle,...); exemple: Résidence des Fleurs.</t>
   </si>
   <si>
     <t>Adresse.numeroVoie</t>
   </si>
   <si>
-    <t xml:space="preserve"> Un numéro dans la voie; dans les cas de numérotation sans extension, il est composé de 0 à 4 caractères numériques au maximum.</t>
+    <t>Un numéro dans la voie; dans les cas de numérotation sans extension, il est composé de 0 à 4 caractères numériques au maximum.</t>
   </si>
   <si>
     <t>Adresse.extension</t>
   </si>
   <si>
-    <t xml:space="preserve"> Extension ou indice de répétition: mention bis, ter, quater, ...ou une lettre A, B, C, D, etc. lorsque ce caractère complète une numérotation de voirie.</t>
+    <t>Extension ou indice de répétition: mention bis, ter, quater, ...ou une lettre A, B, C, D, etc. lorsque ce caractère complète une numérotation de voirie.</t>
   </si>
   <si>
     <t>Adresse.typeVoie</t>
@@ -297,7 +297,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Type de voie : rue, avenue, boulevard, etc.Attribut obsolète et non conforme à la norme postale en vigueur NF Z 10-011 qui définit cette information comme faisant partie de l'attribut libelleVoie. Il apparait dans la classe Adresse uniquement parce que des systèmes existants l'utilisent encore.</t>
+    <t>Type de voie : rue, avenue, boulevard, etc.Attribut obsolète et non conforme à la norme postale en vigueur NF Z 10-011 qui définit cette information comme faisant partie de l'attribut libelleVoie. Il apparait dans la classe Adresse uniquement parce que des systèmes existants l'utilisent encore.</t>
   </si>
   <si>
     <t>preferred</t>
@@ -309,37 +309,37 @@
     <t>Adresse.libelleVoie</t>
   </si>
   <si>
-    <t xml:space="preserve"> Appellation qui est donnée à la voie par les municipalités. Ce libellé figure in extenso ou en abrégé sur les plaques aux différents angles de chaque rue.Synonyme: nom de la voie</t>
+    <t>Appellation qui est donnée à la voie par les municipalités. Ce libellé figure in extenso ou en abrégé sur les plaques aux différents angles de chaque rue.Synonyme: nom de la voie</t>
   </si>
   <si>
     <t>Adresse.lieuDit</t>
   </si>
   <si>
-    <t xml:space="preserve"> Lieu qui porte un nom rappelant une particularité topographique ou historique et qui, souvent, constitue un écart d'une commune (un écart est une petite agglomération distincte du centre de la commune à laquelle elle appartient).</t>
+    <t>Lieu qui porte un nom rappelant une particularité topographique ou historique et qui, souvent, constitue un écart d'une commune (un écart est une petite agglomération distincte du centre de la commune à laquelle elle appartient).</t>
   </si>
   <si>
     <t>Adresse.mentionDistribution</t>
   </si>
   <si>
-    <t xml:space="preserve"> Mentions particulières de distribution. Il s'agit de mentions identifiant le service proposé par La Poste au destinataire. Ces mentions sont formées d'un libellé et d'un numéro de séparation (exemple : BP 42534).</t>
+    <t>Mentions particulières de distribution. Il s'agit de mentions identifiant le service proposé par La Poste au destinataire. Ces mentions sont formées d'un libellé et d'un numéro de séparation (exemple : BP 42534).</t>
   </si>
   <si>
     <t>Adresse.codePostal</t>
   </si>
   <si>
-    <t xml:space="preserve"> Code Postal : Code Postal ou code postal spécifique CEDEX* Code postal: Un code à 5 chiffres servant à l'acheminement et/ou à la distribution des envois. Il identifie un bureau distributeur dans la chaîne de traitement du courrier.* Code CEDEX (Courrier d'Entreprise à Distribution Exceptionnelle); le CEDEX est une modalité d'acheminement du courrier associée à des services particuliers de distribution offerts aux entreprises caractérisées par un adressage spécifique; le code postal spécifique CEDEX est un code attribué aux organismes, entreprises, services publics recevant un fort trafic. Il identifie un client ou un ensemble de clients. Il est positionné aux lieu et place du code postal général dans le cas des adresses CEDEX. Ainsi, un code peut être associé à un client (code individuel) ou partagé entre plusieurs clients (code collectif).</t>
+    <t>Code Postal : Code Postal ou code postal spécifique CEDEX* Code postal: Un code à 5 chiffres servant à l'acheminement et/ou à la distribution des envois. Il identifie un bureau distributeur dans la chaîne de traitement du courrier.* Code CEDEX (Courrier d'Entreprise à Distribution Exceptionnelle); le CEDEX est une modalité d'acheminement du courrier associée à des services particuliers de distribution offerts aux entreprises caractérisées par un adressage spécifique; le code postal spécifique CEDEX est un code attribué aux organismes, entreprises, services publics recevant un fort trafic. Il identifie un client ou un ensemble de clients. Il est positionné aux lieu et place du code postal général dans le cas des adresses CEDEX. Ainsi, un code peut être associé à un client (code individuel) ou partagé entre plusieurs clients (code collectif).</t>
   </si>
   <si>
     <t>Adresse.localite</t>
   </si>
   <si>
-    <t xml:space="preserve"> Localité ou Libellé du bureau distributeur CEDEX** Localité: Zone d'habitation, en général la commune d'implantation du destinataire. Elle est identifiée par son libellé INSEE sauf dans quelques cas où le libellé postal diffère du libellé INSEE, généralement pour lever des ambiguïtés.** Libellé du bureau distributeur CEDEX.Libellé du bureau distributeur c'est-à-dire (dans la très grande majorité des cas) le libellé de la commune siège du bureau CEDEX; la mention CEDEX doit obligatoirement suivre le libellé du bureau CEDEX; dans le cas où il existe plusieurs bureaux CEDEX pour une même entité ou commune, chaque bureau CEDEX sera identifié par un numéro (exemple : ROUBAIX CEDEX 2); ce numéro correspond au numéro d'arrondissement dans le cas des villes à arrondissements, à un numéro d'ordre dans les autres cas.</t>
+    <t>Localité ou Libellé du bureau distributeur CEDEX** Localité: Zone d'habitation, en général la commune d'implantation du destinataire. Elle est identifiée par son libellé INSEE sauf dans quelques cas où le libellé postal diffère du libellé INSEE, généralement pour lever des ambiguïtés.** Libellé du bureau distributeur CEDEX.Libellé du bureau distributeur c'est-à-dire (dans la très grande majorité des cas) le libellé de la commune siège du bureau CEDEX; la mention CEDEX doit obligatoirement suivre le libellé du bureau CEDEX; dans le cas où il existe plusieurs bureaux CEDEX pour une même entité ou commune, chaque bureau CEDEX sera identifié par un numéro (exemple : ROUBAIX CEDEX 2); ce numéro correspond au numéro d'arrondissement dans le cas des villes à arrondissements, à un numéro d'ordre dans les autres cas.</t>
   </si>
   <si>
     <t>Adresse.COGCommune</t>
   </si>
   <si>
-    <t xml:space="preserve"> Code officiel géographique (COG), diffusé par l'INSEE, de la commune d'implantation du destinataire. Ce code ne fait pas partie de la norme NF Z 10-011 mais il correspond au libellé de l'attribut "localite" de la classe Adresse qui lui fait partie de la norme.</t>
+    <t>Code officiel géographique (COG), diffusé par l'INSEE, de la commune d'implantation du destinataire. Ce code ne fait pas partie de la norme NF Z 10-011 mais il correspond au libellé de l'attribut "localite" de la classe Adresse qui lui fait partie de la norme.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R13-CommuneOM?vs</t>
@@ -348,61 +348,61 @@
     <t>Adresse.internationalDivisionTerritoriale</t>
   </si>
   <si>
-    <t xml:space="preserve"> Pour les adresses internationales, une subdivision administrative d'un pays. Dans le cas d'une adresse étrangère, il peut être nécessaire d'identifier dans l'adresse l'état fédéré, la région, le canton, etc.</t>
+    <t>Pour les adresses internationales, une subdivision administrative d'un pays. Dans le cas d'une adresse étrangère, il peut être nécessaire d'identifier dans l'adresse l'état fédéré, la région, le canton, etc.</t>
   </si>
   <si>
     <t>Adresse.internationalPays</t>
   </si>
   <si>
-    <t xml:space="preserve"> Pour les adresses internationales, nom du pays du destinataire, de préférence en majuscules et en toutes lettres, dans la langue du pays d’expédition ou dans une langue reconnue par le Comité Européen de Normalisation (CEN) : anglais, français, allemand pour les envois européens.</t>
+    <t>Pour les adresses internationales, nom du pays du destinataire, de préférence en majuscules et en toutes lettres, dans la langue du pays d’expédition ou dans une langue reconnue par le Comité Européen de Normalisation (CEN) : anglais, français, allemand pour les envois européens.</t>
   </si>
   <si>
     <t>Adresse.type</t>
   </si>
   <si>
-    <t xml:space="preserve"> Indique le ou les types d'adresse tel que "Adresse du domicile", "Adresse professionnelle", "Adresse de facturation", "Adresse postale", "Adresse géographique", etc.Cet attribut ne fait pas partie de la norme  NF Z 10-011.</t>
+    <t>Indique le ou les types d'adresse tel que "Adresse du domicile", "Adresse professionnelle", "Adresse de facturation", "Adresse postale", "Adresse géographique", etc.Cet attribut ne fait pas partie de la norme  NF Z 10-011.</t>
   </si>
   <si>
     <t>Adresse.ligneUne</t>
   </si>
   <si>
-    <t xml:space="preserve"> Identité du destinataireLa première ligne de l'adresse de publipostage est obtenue par assemblage des éléments d'identification du destinataire (personne physique ou morale).Cas particulier: pour un  domicilié personne morale, la ligne 1 peut contenir l'identification du domicilié personne morale et la ligne 2 contient l'identification du destinataire personne physique.38 caractères ou espaces par ligne au maximum.</t>
+    <t>Identité du destinataireLa première ligne de l'adresse de publipostage est obtenue par assemblage des éléments d'identification du destinataire (personne physique ou morale).Cas particulier: pour un  domicilié personne morale, la ligne 1 peut contenir l'identification du domicilié personne morale et la ligne 2 contient l'identification du destinataire personne physique.38 caractères ou espaces par ligne au maximum.</t>
   </si>
   <si>
     <t>Adresse.ligneDeux</t>
   </si>
   <si>
-    <t xml:space="preserve"> La deuxième ligne de l'adresse de publipostage est obtenue par assemblage des éléments de:* point de remise* domicilié personne physique (exemple: chez M X)* domicilié personne moraleCas particulier: pour un  domicilié personne morale, la ligne 1 peut contenir l'identification du domicilié personne morale et la ligne 2 contient l'identification du destinataire personne physique.38 caractères ou espaces par ligne au maximum</t>
+    <t>La deuxième ligne de l'adresse de publipostage est obtenue par assemblage des éléments de:* point de remise* domicilié personne physique (exemple: chez M X)* domicilié personne moraleCas particulier: pour un  domicilié personne morale, la ligne 1 peut contenir l'identification du domicilié personne morale et la ligne 2 contient l'identification du destinataire personne physique.38 caractères ou espaces par ligne au maximum</t>
   </si>
   <si>
     <t>Adresse.ligneTrois</t>
   </si>
   <si>
-    <t xml:space="preserve"> La troisième ligne de l'adresse de publipostage est obtenue par assemblage des éléments de complément de l'adresse au point géographique.38 caractères ou espaces par ligne au maximum.</t>
+    <t>La troisième ligne de l'adresse de publipostage est obtenue par assemblage des éléments de complément de l'adresse au point géographique.38 caractères ou espaces par ligne au maximum.</t>
   </si>
   <si>
     <t>Adresse.ligneQuatre</t>
   </si>
   <si>
-    <t xml:space="preserve"> La quatrième ligne de l'adresse de publipostage est obtenue par assemblage des éléments d'adresse: Numéro dans la voie + Extension + Libellé de la voie.38 caractères ou espaces par ligne au maximum.</t>
+    <t>La quatrième ligne de l'adresse de publipostage est obtenue par assemblage des éléments d'adresse: Numéro dans la voie + Extension + Libellé de la voie.38 caractères ou espaces par ligne au maximum.</t>
   </si>
   <si>
     <t>Adresse.ligneCinq</t>
   </si>
   <si>
-    <t xml:space="preserve"> La cinquième ligne de l'adresse de publipostage est obtenue par assemblage des éléments d'adresse:* Mentions particulières de distribution suivies du libellé de la localité de destination dans le cas où celle-ci serait différente du libellé cedex* Lieu-dit.38 caractères ou espaces par ligne au maximum.</t>
+    <t>La cinquième ligne de l'adresse de publipostage est obtenue par assemblage des éléments d'adresse:* Mentions particulières de distribution suivies du libellé de la localité de destination dans le cas où celle-ci serait différente du libellé cedex* Lieu-dit.38 caractères ou espaces par ligne au maximum.</t>
   </si>
   <si>
     <t>Adresse.ligneSix</t>
   </si>
   <si>
-    <t xml:space="preserve"> La sixième ligne de l'adresse de publipostage obtenue par assemblage des éléments d'adresse: Code postal + localité de destination ou code cedex + libellé bureau cedex.38 caractères ou espaces par ligne au maximum.</t>
+    <t>La sixième ligne de l'adresse de publipostage obtenue par assemblage des éléments d'adresse: Code postal + localité de destination ou code cedex + libellé bureau cedex.38 caractères ou espaces par ligne au maximum.</t>
   </si>
   <si>
     <t>Adresse.ligneSept</t>
   </si>
   <si>
-    <t xml:space="preserve"> La septième ligne de l'adresse de publipostage contient, pour les envois à l'international, dans tous les cas, le nom du pays du destinataire, de préférence en majuscules et en toutes lettres, dans la langue du pays d’expédition ou dans une langue reconnue par le Comité Européen de Normalisation (CEN) : anglais, français, allemand pour les envois européens.</t>
+    <t>La septième ligne de l'adresse de publipostage contient, pour les envois à l'international, dans tous les cas, le nom du pays du destinataire, de préférence en majuscules et en toutes lettres, dans la langue du pays d’expédition ou dans une langue reconnue par le Comité Européen de Normalisation (CEN) : anglais, français, allemand pour les envois européens.</t>
   </si>
   <si>
     <t>Attestation</t>
@@ -414,13 +414,13 @@
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Diplome</t>
   </si>
   <si>
-    <t xml:space="preserve"> L’attestation est attribuée au terme d'une formation universitaire. Pour les professions médicales et de la pharmacie, les attestations ont été remplacées par les diplômes universitaires (DU).Dans le cadre du modèle, une attestation est un type de diplôme. La classe Attestation est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe</t>
+    <t>L’attestation est attribuée au terme d'une formation universitaire. Pour les professions médicales et de la pharmacie, les attestations ont été remplacées par les diplômes universitaires (DU).Dans le cadre du modèle, une attestation est un type de diplôme. La classe Attestation est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe</t>
   </si>
   <si>
     <t>Attestation.typeDiplome</t>
   </si>
   <si>
-    <t xml:space="preserve"> Type de diplôme, par exemple:** DE : Diplôme d’Etat français** CES : Certificat d’Etudes Spéciales** DES : Diplôme d'Etudes Spécialisées** etc.</t>
+    <t>Type de diplôme, par exemple:** DE : Diplôme d’Etat français** CES : Certificat d’Etudes Spéciales** DES : Diplôme d'Etudes Spécialisées** etc.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R14-TypeDiplome?vs</t>
@@ -432,7 +432,7 @@
     <t>Attestation.lieuFormation</t>
   </si>
   <si>
-    <t xml:space="preserve"> Lieu de formation pour l'obtention du diplôme. Par exemple:** U37 : Université de Tours (Université François Rabelais)** UP5 : Université de Paris 05 (Université René Descartes).</t>
+    <t>Lieu de formation pour l'obtention du diplôme. Par exemple:** U37 : Université de Tours (Université François Rabelais)** UP5 : Université de Paris 05 (Université René Descartes).</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R16-LieuFormation?vs</t>
@@ -448,7 +448,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Date d’obtention du diplôme.</t>
+    <t>Date d’obtention du diplôme.</t>
   </si>
   <si>
     <t>Diplome.dateDiplome</t>
@@ -457,7 +457,7 @@
     <t>Attestation.numeroDiplome</t>
   </si>
   <si>
-    <t xml:space="preserve"> Numéro du diplôme.</t>
+    <t>Numéro du diplôme.</t>
   </si>
   <si>
     <t>Diplome.numeroDiplome</t>
@@ -466,7 +466,7 @@
     <t>Attestation.attestation</t>
   </si>
   <si>
-    <t xml:space="preserve"> Attestation de formation.</t>
+    <t>Attestation de formation.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R56-Attestation?vs</t>
@@ -478,7 +478,7 @@
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/AutreDiplomeObtenu</t>
   </si>
   <si>
-    <t xml:space="preserve"> Diplôme autre qu'un diplôme d'Etat, une qualification, un diplôme d'études spécialisées, un DESC1, un DESC2, un diplôme de l'espace économique européen, un diplôme européen d'études spécialisées, une attestation, une capacité ou un diplôme de deuxième cycle non qualifiant.</t>
+    <t>Diplôme autre qu'un diplôme d'Etat, une qualification, un diplôme d'études spécialisées, un DESC1, un DESC2, un diplôme de l'espace économique européen, un diplôme européen d'études spécialisées, une attestation, une capacité ou un diplôme de deuxième cycle non qualifiant.</t>
   </si>
   <si>
     <t>AutreDiplomeObtenu.typeDiplome</t>
@@ -496,7 +496,7 @@
     <t>AutreDiplomeObtenu.autreDiplomeObtenu</t>
   </si>
   <si>
-    <t xml:space="preserve"> Autre diplôme obtenu.</t>
+    <t>Autre diplôme obtenu.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R36-AutreDiplomeObtenu?vs</t>
@@ -508,7 +508,7 @@
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/BoiteLettreMSS</t>
   </si>
   <si>
-    <t xml:space="preserve"> Informations descriptives des boîtes aux lettres du service de messagerie sécurisée de santé (MSSanté) rattachées aux professionnels et aux structures.Synonyme: BAL MSS</t>
+    <t>Informations descriptives des boîtes aux lettres du service de messagerie sécurisée de santé (MSSanté) rattachées aux professionnels et aux structures.Synonyme: BAL MSS</t>
   </si>
   <si>
     <t>BoiteLettreMSS.adresseMSS</t>
@@ -518,13 +518,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Adresse unique de messagerie sécurisée dans un domaine de messagerie MSSanté.</t>
+    <t>Adresse unique de messagerie sécurisée dans un domaine de messagerie MSSanté.</t>
   </si>
   <si>
     <t>BoiteLettreMSS.typeBAL</t>
   </si>
   <si>
-    <t xml:space="preserve"> Type de boîte aux lettres.Valeurs possibles :** ORG pour une BAL organisationnelle** APP pour une BAL applicative** PER pour une BAL personnelle, rattachée à une personne physiqueUne BAL de type ORG ou APP est rattachée à une personne morale (entité géographique ou entité juridique) et son usage s’effectue sous la responsabilité d’un ou plusieurs professionnels habilités à échanger des données de santé personnelles.</t>
+    <t>Type de boîte aux lettres.Valeurs possibles :** ORG pour une BAL organisationnelle** APP pour une BAL applicative** PER pour une BAL personnelle, rattachée à une personne physiqueUne BAL de type ORG ou APP est rattachée à une personne morale (entité géographique ou entité juridique) et son usage s’effectue sous la responsabilité d’un ou plusieurs professionnels habilités à échanger des données de santé personnelles.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R257-TypeBAL?vs</t>
@@ -533,25 +533,25 @@
     <t>BoiteLettreMSS.description</t>
   </si>
   <si>
-    <t xml:space="preserve"> Description fonctionnelle de la boîte aux lettres.</t>
+    <t>Description fonctionnelle de la boîte aux lettres.</t>
   </si>
   <si>
     <t>BoiteLettreMSS.responsable</t>
   </si>
   <si>
-    <t xml:space="preserve"> Texte libre donnant les coordonnées de la (ou des) personne(s) responsable(s) au niveau opérationnel de la boîte aux lettres. Non renseigné pour les types de boîte aux lettres "PER".</t>
+    <t>Texte libre donnant les coordonnées de la (ou des) personne(s) responsable(s) au niveau opérationnel de la boîte aux lettres. Non renseigné pour les types de boîte aux lettres "PER".</t>
   </si>
   <si>
     <t>BoiteLettreMSS.serviceRattachement</t>
   </si>
   <si>
-    <t xml:space="preserve"> Nom et description du service de rattachement de l’utilisateur de la boîte aux lettres dans l’organisation.</t>
+    <t>Nom et description du service de rattachement de l’utilisateur de la boîte aux lettres dans l’organisation.</t>
   </si>
   <si>
     <t>BoiteLettreMSS.telephone</t>
   </si>
   <si>
-    <t xml:space="preserve"> Coordonnées téléphoniques spécifiques à l’usage de la boîte aux lettres MSSanté.</t>
+    <t>Coordonnées téléphoniques spécifiques à l’usage de la boîte aux lettres MSSanté.</t>
   </si>
   <si>
     <t>BoiteLettreMSS.dematerialisation</t>
@@ -561,13 +561,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Indicateur d’acceptation de la dématérialisation (ou « Zéro papier »).Un utilisateur peut porter à la connaissance des autres utilisateurs du système MSSanté, via l’Annuaire national MSSanté son souhait de ne plus recevoir par voie papier des documents d’ores et déjà reçus par voie électronique dans le cadre du système MSSanté. Cette option s’applique également pour les BAL applicatives ou organisationnelles.Valeurs possibles : - O : Dématérialisation acceptée - N : Dématérialisation refusée</t>
+    <t>Indicateur d’acceptation de la dématérialisation (ou « Zéro papier »).Un utilisateur peut porter à la connaissance des autres utilisateurs du système MSSanté, via l’Annuaire national MSSanté son souhait de ne plus recevoir par voie papier des documents d’ores et déjà reçus par voie électronique dans le cadre du système MSSanté. Cette option s’applique également pour les BAL applicatives ou organisationnelles.Valeurs possibles : - O : Dématérialisation acceptée - N : Dématérialisation refusée</t>
   </si>
   <si>
     <t>BoiteLettreMSS.listeRouge</t>
   </si>
   <si>
-    <t xml:space="preserve"> Indicateur liste rougeValeurs possibles :** O: Boîte aux lettres en liste rouge** N: La boîte aux lettres peut être publiée</t>
+    <t>Indicateur liste rougeValeurs possibles :** O: Boîte aux lettres en liste rouge** N: La boîte aux lettres peut être publiée</t>
   </si>
   <si>
     <t>CapaciteDiplome</t>
@@ -576,7 +576,7 @@
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/CapaciteDiplome</t>
   </si>
   <si>
-    <t xml:space="preserve"> En France, la capacité de médecine est un diplôme (2 ans d'études) réservé aux docteurs en médecine (généralistes ou spécialistes), leur conférant certaines compétences supplémentaires dans leur exercice ou un champ d'exercice plus large (réf. décret du 29 avril 1988). Les capacités ne confèrent pas la qualification aux spécialistes auprès de l'Ordre des médecins, mais celui-ci les reconnait comme des titres auxquels peuvent prétendre les médecins (par exemple sur leur plaque) pour justifier de compétences supplémentaires auprès de leurs patients.Une capacité est un type de diplôme. La classe CapaciteDiplome est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
+    <t>En France, la capacité de médecine est un diplôme (2 ans d'études) réservé aux docteurs en médecine (généralistes ou spécialistes), leur conférant certaines compétences supplémentaires dans leur exercice ou un champ d'exercice plus large (réf. décret du 29 avril 1988). Les capacités ne confèrent pas la qualification aux spécialistes auprès de l'Ordre des médecins, mais celui-ci les reconnait comme des titres auxquels peuvent prétendre les médecins (par exemple sur leur plaque) pour justifier de compétences supplémentaires auprès de leurs patients.Une capacité est un type de diplôme. La classe CapaciteDiplome est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
   </si>
   <si>
     <t>CapaciteDiplome.typeDiplome</t>
@@ -594,7 +594,7 @@
     <t>CapaciteDiplome.capaciteDiplome</t>
   </si>
   <si>
-    <t xml:space="preserve"> Diplôme de capacité de médecine.</t>
+    <t>Diplôme de capacité de médecine.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R52-CapaciteDiplome?vs</t>
@@ -609,13 +609,13 @@
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/SavoirFaire</t>
   </si>
   <si>
-    <t xml:space="preserve"> La capacité, en tant que savoir-faire, représente la reconnaissance par l'ordre d'un diplôme de capacité. Elle complète les savoir-faire principaux, notamment les spécialités.Une capacité est un type de savoir-faire. La classe Capacite est représentée dans le modèle comme une spécialisation de la classe SavoirFaire et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
+    <t>La capacité, en tant que savoir-faire, représente la reconnaissance par l'ordre d'un diplôme de capacité. Elle complète les savoir-faire principaux, notamment les spécialités.Une capacité est un type de savoir-faire. La classe Capacite est représentée dans le modèle comme une spécialisation de la classe SavoirFaire et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
   </si>
   <si>
     <t>CapaciteSavoirfaire.typeSavoirFaire</t>
   </si>
   <si>
-    <t xml:space="preserve"> Le type de savoir-faire (qualifications/autres attributions) désigne par exemple:** une spécialité ordinale (S);** une compétence (C);** etc.</t>
+    <t>Le type de savoir-faire (qualifications/autres attributions) désigne par exemple:** une spécialité ordinale (S);** une compétence (C);** etc.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R04-TypeSavoirFaire?vs</t>
@@ -627,7 +627,7 @@
     <t>CapaciteSavoirfaire.dateReconnaissance</t>
   </si>
   <si>
-    <t xml:space="preserve"> Date à laquelle, l’organisme donnant l’autorisation d’exercer une qualification a reconnu cette qualification ou date à laquelle l'attribution a été donnée au professionnel.</t>
+    <t>Date à laquelle, l’organisme donnant l’autorisation d’exercer une qualification a reconnu cette qualification ou date à laquelle l'attribution a été donnée au professionnel.</t>
   </si>
   <si>
     <t>SavoirFaire.dateReconnaissance</t>
@@ -636,7 +636,7 @@
     <t>CapaciteSavoirfaire.dateAbandon</t>
   </si>
   <si>
-    <t xml:space="preserve"> Date à laquelle le professionnel a déclaré renoncer à l’exercice d’un savoir-faire ou date à laquelle il ne souhaite plus le faire apparaître.</t>
+    <t>Date à laquelle le professionnel a déclaré renoncer à l’exercice d’un savoir-faire ou date à laquelle il ne souhaite plus le faire apparaître.</t>
   </si>
   <si>
     <t>SavoirFaire.dateAbandon</t>
@@ -645,7 +645,7 @@
     <t>CapaciteSavoirfaire.capaciteSavoirFaire</t>
   </si>
   <si>
-    <t xml:space="preserve"> Savoir-faire de type capacité de médecine (diplôme permettant aux docteurs en médecine d'acquérir des compétences supplémentaires).</t>
+    <t>Savoir-faire de type capacité de médecine (diplôme permettant aux docteurs en médecine d'acquérir des compétences supplémentaires).</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/capaciteSavoirFaire-vs</t>
@@ -657,7 +657,7 @@
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/CertificatEtudeSpeciale</t>
   </si>
   <si>
-    <t xml:space="preserve"> Les Certificat d'études spéciales (CES) ont précédé les DES et ils ne sont plus délivrés depuis 1991.Dans le cadre du modèle, un certificat d'études spéciales est un type de diplôme. La classe CertificatEtudesSpeciales est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
+    <t>Les Certificat d'études spéciales (CES) ont précédé les DES et ils ne sont plus délivrés depuis 1991.Dans le cadre du modèle, un certificat d'études spéciales est un type de diplôme. La classe CertificatEtudesSpeciales est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
   </si>
   <si>
     <t>CertificatEtudeSpeciale.typeDiplome</t>
@@ -675,7 +675,7 @@
     <t>CertificatEtudeSpeciale.certificatEtudeSpeciale</t>
   </si>
   <si>
-    <t xml:space="preserve"> Certificat d'études spéciales (CES).</t>
+    <t>Certificat d'études spéciales (CES).</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R55-CertificatEtudeSpeciale?vs</t>
@@ -687,7 +687,7 @@
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Competence</t>
   </si>
   <si>
-    <t xml:space="preserve"> Extrait du rapport de l'ONDPS sur la médecine générale (Tome 1 2006-2007): "La compétence était un titre délivré par l’ordre national des médecins en application du précédent règlement de qualification (Article 3 de l'arrêté du 4 septembre 1970), aux praticiens dits «ancien régime» ayant débuté leurs études médicales avant la réforme de 1982. Ce titre était accordé après avis d’une commission ordinale spécifique. Les compétences, dont la liste était fixée par arrêté, portaient soit sur des disciplines ne correspondant pas à des spécialités qualifiantes (médecine légale ou allergologie par exemple), soit sur des spécialités médicales, le praticien compétent ne pouvant l’exercer que dans le cadre de sa spécialité d’inscription à l’ordre. Les compétences ne peuvent plus être délivrées aux médecins issus du nouveau régime, c’est-à-dire ayant débuté leurs études à compter de l’année universitaire 1984-1985. Toutefois, pour ceux de l’ancien régime et à titre transitoire, le dépôt d’une demande de qualification était possible jusqu’au 31 décembre 2004 et ces praticiens peuvent s’en prévaloir jusqu’à la fin leur période d’activité professionnelle.Une compétence est un type de savoir-faire. La classe Competence est représentée dans le modèle comme une spécialisation de la classe SavoirFaire et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
+    <t>Extrait du rapport de l'ONDPS sur la médecine générale (Tome 1 2006-2007): "La compétence était un titre délivré par l’ordre national des médecins en application du précédent règlement de qualification (Article 3 de l'arrêté du 4 septembre 1970), aux praticiens dits «ancien régime» ayant débuté leurs études médicales avant la réforme de 1982. Ce titre était accordé après avis d’une commission ordinale spécifique. Les compétences, dont la liste était fixée par arrêté, portaient soit sur des disciplines ne correspondant pas à des spécialités qualifiantes (médecine légale ou allergologie par exemple), soit sur des spécialités médicales, le praticien compétent ne pouvant l’exercer que dans le cadre de sa spécialité d’inscription à l’ordre. Les compétences ne peuvent plus être délivrées aux médecins issus du nouveau régime, c’est-à-dire ayant débuté leurs études à compter de l’année universitaire 1984-1985. Toutefois, pour ceux de l’ancien régime et à titre transitoire, le dépôt d’une demande de qualification était possible jusqu’au 31 décembre 2004 et ces praticiens peuvent s’en prévaloir jusqu’à la fin leur période d’activité professionnelle.Une compétence est un type de savoir-faire. La classe Competence est représentée dans le modèle comme une spécialisation de la classe SavoirFaire et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
   </si>
   <si>
     <t>Competence.typeSavoirFaire</t>
@@ -702,7 +702,7 @@
     <t>Competence.competence</t>
   </si>
   <si>
-    <t xml:space="preserve"> Compétence acquise par le professionnel.</t>
+    <t>Compétence acquise par le professionnel.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/competence-vs</t>
@@ -714,7 +714,7 @@
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/CompetenceExclusive</t>
   </si>
   <si>
-    <t xml:space="preserve"> La compétence exclusive est une compétence exercée à titre exclusif. Un professionnel ne peut exercer à la fois une compétence exclusive et une spécialité.Dans le cadre du modèle, une compétence exclusive est un type de savoir-faire. La classe CompetenceExclusive est représentée dans le modèle comme une spécialisation de la classe SavoirFaire et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
+    <t>La compétence exclusive est une compétence exercée à titre exclusif. Un professionnel ne peut exercer à la fois une compétence exclusive et une spécialité.Dans le cadre du modèle, une compétence exclusive est un type de savoir-faire. La classe CompetenceExclusive est représentée dans le modèle comme une spécialisation de la classe SavoirFaire et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
   </si>
   <si>
     <t>CompetenceExclusive.typeSavoirFaire</t>
@@ -729,7 +729,7 @@
     <t>CompetenceExclusive.competenceExclusive</t>
   </si>
   <si>
-    <t xml:space="preserve"> Compétence exclusive.</t>
+    <t>Compétence exclusive.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/competenceExclusive-vs</t>
@@ -741,7 +741,7 @@
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/CompetenceMetier</t>
   </si>
   <si>
-    <t xml:space="preserve"> La compétence métier désigne un type de savoir-faire opérationnel, transversal ou spécifique, acquis et exercé à titre non exclusif dans le cadre d’une activité professionnelle reconnue. Elle reflète une expertise fonctionnelle ou technique mobilisée dans l’exercice quotidien du professionnel de santé.Contrairement aux spécialités ordinales ou compétences de médecines, la compétence métier n’est pas nécessairement encadrée par un diplôme ou une qualification ordinale, mais elle peut être attestée par l’expérience, des formations spécifiques, ou une reconnaissance institutionnelle (ex. : missions ANS, ARS, établissements de santé, etc.).Dans le cadre du modèle, la classe CompétenceMetier est représentée comme une spécialisation de la classe SavoirFaire, i-e un TypeDeSavoirFaire et à ce titre, elle hérite des attributs et des associations de cette classe. Elle se distingue des autres types de savoir-faire par son ancrage dans les pratiques professionnelles et organisationnelles, plutôt que dans une logique de qualification médicale ou réglementaire.</t>
+    <t>La compétence métier désigne un type de savoir-faire opérationnel, transversal ou spécifique, acquis et exercé à titre non exclusif dans le cadre d’une activité professionnelle reconnue. Elle reflète une expertise fonctionnelle ou technique mobilisée dans l’exercice quotidien du professionnel de santé.Contrairement aux spécialités ordinales ou compétences de médecines, la compétence métier n’est pas nécessairement encadrée par un diplôme ou une qualification ordinale, mais elle peut être attestée par l’expérience, des formations spécifiques, ou une reconnaissance institutionnelle (ex. : missions ANS, ARS, établissements de santé, etc.).Dans le cadre du modèle, la classe CompétenceMetier est représentée comme une spécialisation de la classe SavoirFaire, i-e un TypeDeSavoirFaire et à ce titre, elle hérite des attributs et des associations de cette classe. Elle se distingue des autres types de savoir-faire par son ancrage dans les pratiques professionnelles et organisationnelles, plutôt que dans une logique de qualification médicale ou réglementaire.</t>
   </si>
   <si>
     <t>CompetenceMetier.typeSavoirFaire</t>
@@ -756,7 +756,7 @@
     <t>CompetenceMetier.competenceMetier</t>
   </si>
   <si>
-    <t xml:space="preserve"> Compétence métier acquise par le professionnel</t>
+    <t>Compétence métier acquise par le professionnel</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/competenceMetier-vs</t>
@@ -768,7 +768,7 @@
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/DESC1</t>
   </si>
   <si>
-    <t xml:space="preserve"> Les DESC de groupe I ou non qualifiants (2 ans d'études) offrent une compétence supplémentaire ou un champ d'exercice plus large que celui ouvert par le DES, mais ne changent pas la qualification officielle de leurs titulaires auprès de l'Ordre des Médecins. Ils peuvent aussi apporter à des spécialistes des connaissances générales intéressant plusieurs spécialités (allergologie, cancérologie, etc.). Certains de ces DESC sont redondants avec des capacités de médecine, obtenues par la formation continue des médecins déjà diplômés, par exemple la capacité de médecine d'urgence. Il est cependant probable que les capacités disparaissent au profit des DESC équivalents dans un avenir proche.Dans le cadre du modèle, un DESC de groupe I est un type de diplôme. La classe DESC1 est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
+    <t>Les DESC de groupe I ou non qualifiants (2 ans d'études) offrent une compétence supplémentaire ou un champ d'exercice plus large que celui ouvert par le DES, mais ne changent pas la qualification officielle de leurs titulaires auprès de l'Ordre des Médecins. Ils peuvent aussi apporter à des spécialistes des connaissances générales intéressant plusieurs spécialités (allergologie, cancérologie, etc.). Certains de ces DESC sont redondants avec des capacités de médecine, obtenues par la formation continue des médecins déjà diplômés, par exemple la capacité de médecine d'urgence. Il est cependant probable que les capacités disparaissent au profit des DESC équivalents dans un avenir proche.Dans le cadre du modèle, un DESC de groupe I est un type de diplôme. La classe DESC1 est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
   </si>
   <si>
     <t>DESC1.typeDiplome</t>
@@ -786,7 +786,7 @@
     <t>DESC1.DESC1</t>
   </si>
   <si>
-    <t xml:space="preserve"> Diplôme d'études spécialisées complémentaires non qualifiants (DESC I).</t>
+    <t>Diplôme d'études spécialisées complémentaires non qualifiants (DESC I).</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R50-DESCGroupe1Diplome?vs</t>
@@ -798,7 +798,7 @@
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/DESC2</t>
   </si>
   <si>
-    <t xml:space="preserve"> Les DESC de groupe II ou qualifiants (3 ans d'études) représentent des spécialités par eux-mêmes. Dans le cadre du modèle, un DESC de groupe II est un type de diplôme. La classe DESC2 est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
+    <t>Les DESC de groupe II ou qualifiants (3 ans d'études) représentent des spécialités par eux-mêmes. Dans le cadre du modèle, un DESC de groupe II est un type de diplôme. La classe DESC2 est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
   </si>
   <si>
     <t>DESC2.typeDiplome</t>
@@ -816,7 +816,7 @@
     <t>DESC2.DESC2</t>
   </si>
   <si>
-    <t xml:space="preserve"> Diplôme d'études spécialisées complémentaires qualifiants (DESC II).</t>
+    <t>Diplôme d'études spécialisées complémentaires qualifiants (DESC II).</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R51-DESCGroupe2Diplome?vs</t>
@@ -828,7 +828,7 @@
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/DESCNonQualifiant</t>
   </si>
   <si>
-    <t xml:space="preserve"> Un professionnel peut faire valoir, en complément de sa spécialité, un ou plusieurs savoir-faire de type DESC non qualifiant, en fonction du ou des DESC de groupe I, qu'il a obtenu(s).Un DESC non qualifiant est un type de savoir-faire. La classe DiplomeEtudesSpécialiseesNonQualifiant est représentée dans le modèle comme une spécialisation de la classe SavoirFaire et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
+    <t>Un professionnel peut faire valoir, en complément de sa spécialité, un ou plusieurs savoir-faire de type DESC non qualifiant, en fonction du ou des DESC de groupe I, qu'il a obtenu(s).Un DESC non qualifiant est un type de savoir-faire. La classe DiplomeEtudesSpécialiseesNonQualifiant est représentée dans le modèle comme une spécialisation de la classe SavoirFaire et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
   </si>
   <si>
     <t>DESCNonQualifiant.typeSavoirFaire</t>
@@ -843,7 +843,7 @@
     <t>DESCNonQualifiant.DESCNonQualifiant</t>
   </si>
   <si>
-    <t xml:space="preserve"> Diplôme d'études spécialisées complémentaires (DESC).</t>
+    <t>Diplôme d'études spécialisées complémentaires (DESC).</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/DESCNonQualifiant-vs</t>
@@ -852,7 +852,7 @@
     <t>Diplome</t>
   </si>
   <si>
-    <t xml:space="preserve"> Un diplôme sanctionne un niveau de connaissances. L’Etat intervient, dans certains cas, sur le programme et la pédagogie de certains cursus diplômants, par exemple les diplômes d'Etat.La classe "Diplome" est une classe générale contenant les propriétés communes aux différents types de diplômes.Chaque diplôme est décrit dans le modèle comme une spécialisation de la classe Diplome et à ce titre, hérite des attributs de cette classe. Synonymes RPPS : Diplôme obtenu</t>
+    <t>Un diplôme sanctionne un niveau de connaissances. L’Etat intervient, dans certains cas, sur le programme et la pédagogie de certains cursus diplômants, par exemple les diplômes d'Etat.La classe "Diplome" est une classe générale contenant les propriétés communes aux différents types de diplômes.Chaque diplôme est décrit dans le modèle comme une spécialisation de la classe Diplome et à ce titre, hérite des attributs de cette classe. Synonymes RPPS : Diplôme obtenu</t>
   </si>
   <si>
     <t>DiplomeDeuxiemeCycleNonQualifiant</t>
@@ -861,7 +861,7 @@
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/DiplomeDeuxiemeCycleNonQualifiant</t>
   </si>
   <si>
-    <t xml:space="preserve"> Le diplôme de deuxième cycle non qualifiant enregistre un niveau de formation de fin de deuxième cycle, qui sanctionne une partie des études requises à l’exercice de la profession.Il ne donne pas droit à l’exercice de la profession  et son obtention ne change pas la qualification à venir des titulaires lorsqu’ils exerceront.</t>
+    <t>Le diplôme de deuxième cycle non qualifiant enregistre un niveau de formation de fin de deuxième cycle, qui sanctionne une partie des études requises à l’exercice de la profession.Il ne donne pas droit à l’exercice de la profession  et son obtention ne change pas la qualification à venir des titulaires lorsqu’ils exerceront.</t>
   </si>
   <si>
     <t>DiplomeDeuxiemeCycleNonQualifiant.typeDiplome</t>
@@ -879,7 +879,7 @@
     <t>DiplomeDeuxiemeCycleNonQualifiant.diplomeDeuxiemeCycleNonQualifiant</t>
   </si>
   <si>
-    <t xml:space="preserve"> Diplôme de deuxième cycle non qualifiant.</t>
+    <t>Diplôme de deuxième cycle non qualifiant.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R226-Dip2iemeCycleNQ?vs</t>
@@ -891,7 +891,7 @@
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/DiplomeDivers</t>
   </si>
   <si>
-    <t xml:space="preserve"> Cette classe regroupe les diplômes qui ne peuvent être classés dans un type de diplôme explicite (CES, DESC1, DESC2, etc.).La classe DiplomeDivers est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
+    <t>Cette classe regroupe les diplômes qui ne peuvent être classés dans un type de diplôme explicite (CES, DESC1, DESC2, etc.).La classe DiplomeDivers est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
   </si>
   <si>
     <t>DiplomeDivers.typeDiplome</t>
@@ -909,7 +909,7 @@
     <t>DiplomeDivers.diplomeDivers</t>
   </si>
   <si>
-    <t xml:space="preserve"> Autre type de diplôme obtenu.</t>
+    <t>Autre type de diplôme obtenu.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R58-AutreTypeDiplome?vs</t>
@@ -921,7 +921,7 @@
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/DiplomeEEE</t>
   </si>
   <si>
-    <t xml:space="preserve"> Diplôme d'un pays de l'espace économique européen (EEE), requis pour l'accès à la profession en France, pour un professionnel s'inscrivant à l'ordre à compter de la date d'entrée du pays dans l'EEE (Directive européenne 2005-36 modifiée). L'annexe 5 de cette directive donne la liste des reconnaissances mutuelles de diplômes au sein de l'EEE.Dans le cadre du modèle, un diplôme EEE est un type de diplôme. La classe DiplomeEEE est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
+    <t>Diplôme d'un pays de l'espace économique européen (EEE), requis pour l'accès à la profession en France, pour un professionnel s'inscrivant à l'ordre à compter de la date d'entrée du pays dans l'EEE (Directive européenne 2005-36 modifiée). L'annexe 5 de cette directive donne la liste des reconnaissances mutuelles de diplômes au sein de l'EEE.Dans le cadre du modèle, un diplôme EEE est un type de diplôme. La classe DiplomeEEE est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
   </si>
   <si>
     <t>DiplomeEEE.typeDiplome</t>
@@ -939,7 +939,7 @@
     <t>DiplomeEEE.diplomeEEE</t>
   </si>
   <si>
-    <t xml:space="preserve"> Diplôme d'un pays de l'espace économique européen.</t>
+    <t>Diplôme d'un pays de l'espace économique européen.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R53-DiplomePaysEEE?vs</t>
@@ -951,7 +951,7 @@
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/DiplomeEES</t>
   </si>
   <si>
-    <t xml:space="preserve"> Diplôme européen d'études spécialisées, d'un pays de l'espace économique européen (EEE), ouvrant l'accès à une spécialité, pour un professionnel s'inscrivant à l'ordre à compter de la date d'entrée du pays dans l'EEE (Directive européenne 2005-36 modifiée). L'annexe 5 de cette directive donne la liste des reconnaissances mutuelles de diplômes de spécialité au sein de l'EEE.Dans le cadre du modèle, un diplôme EES est un type de diplôme. La classe DiplomeEES est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
+    <t>Diplôme européen d'études spécialisées, d'un pays de l'espace économique européen (EEE), ouvrant l'accès à une spécialité, pour un professionnel s'inscrivant à l'ordre à compter de la date d'entrée du pays dans l'EEE (Directive européenne 2005-36 modifiée). L'annexe 5 de cette directive donne la liste des reconnaissances mutuelles de diplômes de spécialité au sein de l'EEE.Dans le cadre du modèle, un diplôme EES est un type de diplôme. La classe DiplomeEES est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
   </si>
   <si>
     <t>DiplomeEES.typeDiplome</t>
@@ -969,7 +969,7 @@
     <t>DiplomeEES.diplomeEES</t>
   </si>
   <si>
-    <t xml:space="preserve"> Diplôme européen d'études spécialisées.</t>
+    <t>Diplôme européen d'études spécialisées.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R57-DiplomeEuropeenEtudeSpecialisee?vs</t>
@@ -981,7 +981,7 @@
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/DiplomeEtat</t>
   </si>
   <si>
-    <t xml:space="preserve"> Un diplôme d'État, abrégé DE, est un diplôme français qui est souvent requis pour l'exercice de professions règlementées, notamment dans le champ de la santé.L'Etat intervient dans la définition du programme et la pédagogie du cursus diplômant.Cette classe comprend également des diplômes anciens existant avant la création du diplôme d'Etat de la profession et qui étaient requis, à cette époque, pour l'exercice de la profession.Par exemple, le diplôme d'Etat de docteur en chirurgie dentaire est requis depuis 1972 pour exercer la profession de chirurgien-dentiste. Avant 1972, le diplôme d'Etat de chirurgien-dentiste était requis. Ces deux diplômes sont donc présents dans la nomenclature des diplômes d'Etat français.Dans le cadre du modèle, un Diplôme d'Etat est considéré comme un type de diplôme. La classe DiplomeEtat est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
+    <t>Un diplôme d'État, abrégé DE, est un diplôme français qui est souvent requis pour l'exercice de professions règlementées, notamment dans le champ de la santé.L'Etat intervient dans la définition du programme et la pédagogie du cursus diplômant.Cette classe comprend également des diplômes anciens existant avant la création du diplôme d'Etat de la profession et qui étaient requis, à cette époque, pour l'exercice de la profession.Par exemple, le diplôme d'Etat de docteur en chirurgie dentaire est requis depuis 1972 pour exercer la profession de chirurgien-dentiste. Avant 1972, le diplôme d'Etat de chirurgien-dentiste était requis. Ces deux diplômes sont donc présents dans la nomenclature des diplômes d'Etat français.Dans le cadre du modèle, un Diplôme d'Etat est considéré comme un type de diplôme. La classe DiplomeEtat est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
   </si>
   <si>
     <t>DiplomeEtat.typeDiplome</t>
@@ -999,7 +999,7 @@
     <t>DiplomeEtat.diplomeEtat</t>
   </si>
   <si>
-    <t xml:space="preserve"> Diplôme d'Etat français.</t>
+    <t>Diplôme d'Etat français.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R48-DiplomeEtatFrancais?vs</t>
@@ -1011,7 +1011,7 @@
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/DiplomeEtudeSpecialisee</t>
   </si>
   <si>
-    <t xml:space="preserve"> Le diplôme d'études spécialisées (DES) est délivré aux médecins, pharmaciens ou dentistes ayant effectué une formation de 3e cycle de 3 à 5 ans en fonction des spécialités et soutenu un mémoire. Cette formation correspond à l'internat. Avec les réformes successives adoptées depuis la fin des années 1990 (dont la création de l'internat et du DES de médecine générale), tous les nouveaux docteurs en médecine sont titulaires d'un DES, accompagnant leur diplôme d'État de docteur en médecine (commun à tous les médecins) et précisant leur spécialité.Le DES peut être complété par un diplôme d'études spécialisées complémentaires (DESC). Les DESC se décomposent en deux groupes: ** DESC non qualifiants (groupe 1) d’une durée de 2 ans : 1 an pendant l’internat et 1 an après la fin de l’internat (clinicat);** DESC qualifiants (groupe 2) ou DESCQ d’une durée de 3 ans : 2 ans pendant l’internat et 1 an après la fin de l’internat (clinicat).Dans le cadre du modèle, un DES est un type de diplôme. La classe DiplomeEtudesSpecialisees est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
+    <t>Le diplôme d'études spécialisées (DES) est délivré aux médecins, pharmaciens ou dentistes ayant effectué une formation de 3e cycle de 3 à 5 ans en fonction des spécialités et soutenu un mémoire. Cette formation correspond à l'internat. Avec les réformes successives adoptées depuis la fin des années 1990 (dont la création de l'internat et du DES de médecine générale), tous les nouveaux docteurs en médecine sont titulaires d'un DES, accompagnant leur diplôme d'État de docteur en médecine (commun à tous les médecins) et précisant leur spécialité.Le DES peut être complété par un diplôme d'études spécialisées complémentaires (DESC). Les DESC se décomposent en deux groupes: ** DESC non qualifiants (groupe 1) d’une durée de 2 ans : 1 an pendant l’internat et 1 an après la fin de l’internat (clinicat);** DESC qualifiants (groupe 2) ou DESCQ d’une durée de 3 ans : 2 ans pendant l’internat et 1 an après la fin de l’internat (clinicat).Dans le cadre du modèle, un DES est un type de diplôme. La classe DiplomeEtudesSpecialisees est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
   </si>
   <si>
     <t>DiplomeEtudeSpecialisee.typeDiplome</t>
@@ -1029,7 +1029,7 @@
     <t>DiplomeEtudeSpecialisee.diplomeEtudeSpecialisee</t>
   </si>
   <si>
-    <t xml:space="preserve"> Diplôme d'études spécialisées (DES).</t>
+    <t>Diplôme d'études spécialisées (DES).</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R49-DiplomeEtudeSpecialisee?vs</t>
@@ -1041,7 +1041,7 @@
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/DiplomeUniversitaire</t>
   </si>
   <si>
-    <t xml:space="preserve"> En France, un diplôme universitaire (DU) ou interuniversitaire (DIU) est un diplôme délivré par une université française, un grand établissement ou autre établissement public à caractère scientifique, culturel et professionnel, ou plusieurs établissements conjointement, contrairement aux diplômes nationaux qui sont délivrés au nom du ministère. Chaque ordre maintient une liste des DU reconnus.Dans le cadre du modèle, un diplôme universitaire est un type de diplôme. La classe DiplomeUniversitaire est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
+    <t>En France, un diplôme universitaire (DU) ou interuniversitaire (DIU) est un diplôme délivré par une université française, un grand établissement ou autre établissement public à caractère scientifique, culturel et professionnel, ou plusieurs établissements conjointement, contrairement aux diplômes nationaux qui sont délivrés au nom du ministère. Chaque ordre maintient une liste des DU reconnus.Dans le cadre du modèle, un diplôme universitaire est un type de diplôme. La classe DiplomeUniversitaire est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
   </si>
   <si>
     <t>DiplomeUniversitaire.typeDiplome</t>
@@ -1059,7 +1059,7 @@
     <t>DiplomeUniversitaire.diplomeUniversitaire</t>
   </si>
   <si>
-    <t xml:space="preserve"> Diplôme universitaire ou interuniversitaire.</t>
+    <t>Diplôme universitaire ou interuniversitaire.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R54-DiplomeUniversiteInterUniversitaire?vs</t>
@@ -1071,7 +1071,7 @@
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/DroitExerciceComplementaire</t>
   </si>
   <si>
-    <t xml:space="preserve"> Les docteurs en médecine initialement qualifiés comme médecins spécialistes peuvent obtenir un droit d'exercice dans l'une des spécialités définies par un des DESC de médecine du groupe I.</t>
+    <t>Les docteurs en médecine initialement qualifiés comme médecins spécialistes peuvent obtenir un droit d'exercice dans l'une des spécialités définies par un des DESC de médecine du groupe I.</t>
   </si>
   <si>
     <t>DroitExerciceComplementaire.typeSavoirFaire</t>
@@ -1086,7 +1086,7 @@
     <t>DroitExerciceComplementaire.droitExerciceComplementaire</t>
   </si>
   <si>
-    <t xml:space="preserve"> Droit d'exercice complémentaire.</t>
+    <t>Droit d'exercice complémentaire.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/droitExerciceComplementaire-vs</t>
@@ -1098,13 +1098,13 @@
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/ExerciceProfessionnel</t>
   </si>
   <si>
-    <t xml:space="preserve"> Informations décrivant notamment la profession exercée, l'identité d'exercice d'un professionnel et le cadre de son exercice (civil, agent public, etc.).Il peut exister plusieurs exercices professionnels pour une personne à un instant donné.</t>
+    <t>Informations décrivant notamment la profession exercée, l'identité d'exercice d'un professionnel et le cadre de son exercice (civil, agent public, etc.).Il peut exister plusieurs exercices professionnels pour une personne à un instant donné.</t>
   </si>
   <si>
     <t>ExerciceProfessionnel.civiliteExercice</t>
   </si>
   <si>
-    <t xml:space="preserve"> Civilité d’exercice du professionnel.</t>
+    <t>Civilité d’exercice du professionnel.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R11-CiviliteExercice?vs</t>
@@ -1113,19 +1113,19 @@
     <t>ExerciceProfessionnel.nomExercice</t>
   </si>
   <si>
-    <t xml:space="preserve"> Nom sous lequel exerce le professionnel.</t>
+    <t>Nom sous lequel exerce le professionnel.</t>
   </si>
   <si>
     <t>ExerciceProfessionnel.prenomExercice</t>
   </si>
   <si>
-    <t xml:space="preserve"> Prénom sous lequel exerce le professionnel.</t>
+    <t>Prénom sous lequel exerce le professionnel.</t>
   </si>
   <si>
     <t>ExerciceProfessionnel.profession</t>
   </si>
   <si>
-    <t xml:space="preserve"> Profession exercée ou future profession de l'étudiant.</t>
+    <t>Profession exercée ou future profession de l'étudiant.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/profession-vs</t>
@@ -1134,7 +1134,7 @@
     <t>ExerciceProfessionnel.typeProfession</t>
   </si>
   <si>
-    <t xml:space="preserve"> Indique le type de profession de la personne.Exemples :** Professionnel de santé** Usager de titre** Professionnel secteur social** etc.</t>
+    <t>Indique le type de profession de la personne.Exemples :** Professionnel de santé** Usager de titre** Professionnel secteur social** etc.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/typeProfession-vs</t>
@@ -1143,7 +1143,7 @@
     <t>ExerciceProfessionnel.categorieProfessionnelle</t>
   </si>
   <si>
-    <t xml:space="preserve"> Indique si le professionnel exerce sa profession en tant que :** M: Agent public** C: Civil** F: Fonctionnaire ** E: EtudiantL'autorité d'enregistrement du professionnel dépend de la catégorie de sa profession.</t>
+    <t>Indique si le professionnel exerce sa profession en tant que :** M: Agent public** C: Civil** F: Fonctionnaire ** E: EtudiantL'autorité d'enregistrement du professionnel dépend de la catégorie de sa profession.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R09-CategorieProfessionnelle?vs</t>
@@ -1152,19 +1152,19 @@
     <t>ExerciceProfessionnel.dateEffetExercice</t>
   </si>
   <si>
-    <t xml:space="preserve"> Date à partir de laquelle le professionnel exerce cette profession.</t>
+    <t>Date à partir de laquelle le professionnel exerce cette profession.</t>
   </si>
   <si>
     <t>ExerciceProfessionnel.dateFinEffetExercice</t>
   </si>
   <si>
-    <t xml:space="preserve"> Date à partir de laquelle le professionnel n’exerce plus cette profession.</t>
+    <t>Date à partir de laquelle le professionnel n’exerce plus cette profession.</t>
   </si>
   <si>
     <t>ExerciceProfessionnel.departementPremierReferencementAE</t>
   </si>
   <si>
-    <t xml:space="preserve"> Code du département du premier référencement, pour un référencement de nature « inscription à l’ordre ».</t>
+    <t>Code du département du premier référencement, pour un référencement de nature « inscription à l’ordre ».</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-G09-DepartementOM?vs</t>
@@ -1177,7 +1177,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Boîte(s) aux lettres du service de messagerie sécurisée de santé (MSS) rattachée(s) à l'exercice professionnel du professionnel.</t>
+    <t>Boîte(s) aux lettres du service de messagerie sécurisée de santé (MSS) rattachée(s) à l'exercice professionnel du professionnel.</t>
   </si>
   <si>
     <t>ExerciceProfessionnel.InscriptionOrdre</t>
@@ -1187,13 +1187,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Eléments permettant de retrouver les informations d'inscription à un ordre par rapport à la profession de la personne physique sur une période et un département donnéSynonymes RPPS : Inscription à ordre</t>
+    <t>Eléments permettant de retrouver les informations d'inscription à un ordre par rapport à la profession de la personne physique sur une période et un département donnéSynonymes RPPS : Inscription à ordre</t>
   </si>
   <si>
     <t>ExerciceProfessionnel.InscriptionOrdre.ordre</t>
   </si>
   <si>
-    <t xml:space="preserve"> Instance de régulation d'une profession de santé réglementée.</t>
+    <t>Instance de régulation d'une profession de santé réglementée.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R82-Ordre?vs</t>
@@ -1202,19 +1202,19 @@
     <t>ExerciceProfessionnel.InscriptionOrdre.dateDebutInscription</t>
   </si>
   <si>
-    <t xml:space="preserve"> Date d’inscription de la personne au tableau de l’ordre.</t>
+    <t>Date d’inscription de la personne au tableau de l’ordre.</t>
   </si>
   <si>
     <t>ExerciceProfessionnel.InscriptionOrdre.dateRadiation</t>
   </si>
   <si>
-    <t xml:space="preserve"> Date à partir de laquelle la personne n’est plus autorisée à exercer la profession pour laquelle elle a été inscrite.</t>
+    <t>Date à partir de laquelle la personne n’est plus autorisée à exercer la profession pour laquelle elle a été inscrite.</t>
   </si>
   <si>
     <t>ExerciceProfessionnel.InscriptionOrdre.statutInscription</t>
   </si>
   <si>
-    <t xml:space="preserve"> Information indiquant l’avancement du traitement du dossier d'inscription de la personne.</t>
+    <t>Information indiquant l’avancement du traitement du dossier d'inscription de la personne.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R33-StatutInscription?vs</t>
@@ -1223,19 +1223,19 @@
     <t>ExerciceProfessionnel.InscriptionOrdre.conseilDepartemental</t>
   </si>
   <si>
-    <t xml:space="preserve"> Département du Conseil départemental.</t>
+    <t>Département du Conseil départemental.</t>
   </si>
   <si>
     <t>ExerciceProfessionnel.AttributionParticuliere</t>
   </si>
   <si>
-    <t xml:space="preserve"> Activités ponctuelles du professionnel de type expertise.</t>
+    <t>Activités ponctuelles du professionnel de type expertise.</t>
   </si>
   <si>
     <t>ExerciceProfessionnel.AttributionParticuliere.attributionParticuliere</t>
   </si>
   <si>
-    <t xml:space="preserve"> Attribution particulière.Par exemple : **Agrément : Autorisation d’un médecin généraliste ou spécialiste, formalisée par un agrément, à figurer sur une liste départementale établie par le Préfet sur proposition du directeur départemental de l'action sanitaire et sociale et après avis du conseil départemental de l'ordre des médecins et des syndicats départementaux des médecins.</t>
+    <t>Attribution particulière.Par exemple : **Agrément : Autorisation d’un médecin généraliste ou spécialiste, formalisée par un agrément, à figurer sur une liste départementale établie par le Préfet sur proposition du directeur départemental de l'action sanitaire et sociale et après avis du conseil départemental de l'ordre des médecins et des syndicats départementaux des médecins.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R03-AttributionParticuliere?vs</t>
@@ -1244,19 +1244,19 @@
     <t>ExerciceProfessionnel.AttributionParticuliere.dateDebutReconnaissance</t>
   </si>
   <si>
-    <t xml:space="preserve"> Date à partir de laquelle l'attribution particulière prend effet.</t>
+    <t>Date à partir de laquelle l'attribution particulière prend effet.</t>
   </si>
   <si>
     <t>ExerciceProfessionnel.AttributionParticuliere.dateAbandon</t>
   </si>
   <si>
-    <t xml:space="preserve"> Date à laquelle le professionnel ne veut plus faire apparaître cette attribution.</t>
+    <t>Date à laquelle le professionnel ne veut plus faire apparaître cette attribution.</t>
   </si>
   <si>
     <t>ExerciceProfessionnel.NiveauFormation</t>
   </si>
   <si>
-    <t xml:space="preserve"> Le niveau de formation décrit le niveau de formation de l’étudiant, comme demandé par le décret n°2010-701 et complété par le décret n°2011-462.</t>
+    <t>Le niveau de formation décrit le niveau de formation de l’étudiant, comme demandé par le décret n°2010-701 et complété par le décret n°2011-462.</t>
   </si>
   <si>
     <t>ExerciceProfessionnel.NiveauFormation.diplome</t>
@@ -1266,13 +1266,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Diplôme acquis pour les cycles terminés (cas des diplômes de deuxième cycle pour étudiants qui font un troisième cycle) ou diplôme préparé pour les cycles en cours.</t>
+    <t>Diplôme acquis pour les cycles terminés (cas des diplômes de deuxième cycle pour étudiants qui font un troisième cycle) ou diplôme préparé pour les cycles en cours.</t>
   </si>
   <si>
     <t>ExerciceProfessionnel.NiveauFormation.natureCycleFormation</t>
   </si>
   <si>
-    <t xml:space="preserve"> Nature du cycle de formation:- Deuxième cycle,- Troisième cycle court,- Troisième cycle long/Internat.</t>
+    <t>Nature du cycle de formation:- Deuxième cycle,- Troisième cycle court,- Troisième cycle long/Internat.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R223-NatCycleForm?vs</t>
@@ -1281,7 +1281,7 @@
     <t>ExerciceProfessionnel.NiveauFormation.niveauFormationAcquis</t>
   </si>
   <si>
-    <t xml:space="preserve"> Niveau de validité dans le cycle de formation.</t>
+    <t>Niveau de validité dans le cycle de formation.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R224-NiveauFormAcquis?vs</t>
@@ -1290,7 +1290,7 @@
     <t>ExerciceProfessionnel.NiveauFormation.anneeUniversitaire</t>
   </si>
   <si>
-    <t xml:space="preserve"> Année universitaire, exemple : 2015-2016.</t>
+    <t>Année universitaire, exemple : 2015-2016.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R225-AnneeUniversitaire?vs</t>
@@ -1299,7 +1299,7 @@
     <t>ExerciceProfessionnel.NiveauFormation.dateFin</t>
   </si>
   <si>
-    <t xml:space="preserve"> Date à laquelle le niveau de formation n’est plus actif (non visible hormis dans les données historisées). Cette date est renseignée par l’ordre à la clôture de l’exercice professionnel.</t>
+    <t>Date à laquelle le niveau de formation n’est plus actif (non visible hormis dans les données historisées). Cette date est renseignée par l’ordre à la clôture de l’exercice professionnel.</t>
   </si>
   <si>
     <t>FonctionQualifiee</t>
@@ -1308,7 +1308,7 @@
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/FonctionQualifiee</t>
   </si>
   <si>
-    <t xml:space="preserve"> Expérience pratique exigée par le code de la santé publique (art R5124-16) pour exercer certaines fonctions dans l’industrie pharmaceutique et la distribution en gros. Ces dispositions s’appliquent uniquement à la profession de pharmacien.L’expérience pratique est en liaison avec les activités de l’établissement pharmaceutique telles que définies par l’ANSM ou l’ANSES.A ce jour, cinq expériences pratiques sont identifiées dont trois sont imbriquées. L’expérience pratique de "Fabricant" inclut celle d’"Exploitant" qui inclut celle de "Distribution".  Une fonction qualifiée est un type de savoir-faire. La classe FonctionQualifiee est représentée dans le modèle comme une spécialisation de la classe SavoirFaire et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
+    <t>Expérience pratique exigée par le code de la santé publique (art R5124-16) pour exercer certaines fonctions dans l’industrie pharmaceutique et la distribution en gros. Ces dispositions s’appliquent uniquement à la profession de pharmacien.L’expérience pratique est en liaison avec les activités de l’établissement pharmaceutique telles que définies par l’ANSM ou l’ANSES.A ce jour, cinq expériences pratiques sont identifiées dont trois sont imbriquées. L’expérience pratique de "Fabricant" inclut celle d’"Exploitant" qui inclut celle de "Distribution".  Une fonction qualifiée est un type de savoir-faire. La classe FonctionQualifiee est représentée dans le modèle comme une spécialisation de la classe SavoirFaire et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
   </si>
   <si>
     <t>FonctionQualifiee.typeSavoirFaire</t>
@@ -1323,7 +1323,7 @@
     <t>FonctionQualifiee.fonctionQualifiee</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fonction qualifiée.</t>
+    <t>Fonction qualifiée.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/fonctionQualifiee-vs</t>
@@ -1335,7 +1335,7 @@
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/FormationSpecialiseeTransversale</t>
   </si>
   <si>
-    <t xml:space="preserve"> La formation spécialisée transversale est une formation venant compléter le cursus de l’interne à partir de la phase d’approfondissement, et lui permet d’acquérir les compétences pour exercer la surspécialité correspondante dans le cadre de sa spécialité.Dans le cadre du modèle, une formation spécialisée transversale est considérée comme un type de diplôme. La classe FormationSpecialiseeTransversale est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
+    <t>La formation spécialisée transversale est une formation venant compléter le cursus de l’interne à partir de la phase d’approfondissement, et lui permet d’acquérir les compétences pour exercer la surspécialité correspondante dans le cadre de sa spécialité.Dans le cadre du modèle, une formation spécialisée transversale est considérée comme un type de diplôme. La classe FormationSpecialiseeTransversale est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
   </si>
   <si>
     <t>FormationSpecialiseeTransversale.typeDiplome</t>
@@ -1353,7 +1353,7 @@
     <t>FormationSpecialiseeTransversale.formationSpecialiseeTransversale</t>
   </si>
   <si>
-    <t xml:space="preserve"> La Formation spécialisée transversale (FST) vient compléter le cursus de l’interne à partir de la phase d’approfondissement, et lui permet d’acquérir les compétences pour exercer la surspécialité correspondante dans le cadre de sa spécialité.</t>
+    <t>La Formation spécialisée transversale (FST) vient compléter le cursus de l’interne à partir de la phase d’approfondissement, et lui permet d’acquérir les compétences pour exercer la surspécialité correspondante dans le cadre de sa spécialité.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R348-FormationSpecialiseeTransversale?vs</t>
@@ -1365,7 +1365,7 @@
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Horaire</t>
   </si>
   <si>
-    <t xml:space="preserve"> La classe Horaire permet de définir les différentes plages d'un agenda d'une entité (jours et heures d'ouverture, période de fermeture, etc.).Synonymes (agendas partagés) : plages de disponibilités et d'indisponibilités</t>
+    <t>La classe Horaire permet de définir les différentes plages d'un agenda d'une entité (jours et heures d'ouverture, période de fermeture, etc.).Synonymes (agendas partagés) : plages de disponibilités et d'indisponibilités</t>
   </si>
   <si>
     <t>Horaire.idPlageHoraire</t>
@@ -1375,13 +1375,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Identifiant de la plage horaire.</t>
+    <t>Identifiant de la plage horaire.</t>
   </si>
   <si>
     <t>Horaire.typePlageHoraire</t>
   </si>
   <si>
-    <t xml:space="preserve"> Un type de plage horaire apporte du contexte à la plage horaire définie par la suite. Par exemple horaire d'ouverture, horaire de garde, etc.</t>
+    <t>Un type de plage horaire apporte du contexte à la plage horaire définie par la suite. Par exemple horaire d'ouverture, horaire de garde, etc.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R252-TypeHoraire?vs</t>
@@ -1390,7 +1390,7 @@
     <t>Horaire.ouvertureFermeture</t>
   </si>
   <si>
-    <t xml:space="preserve"> Indicateur d'ouverture ou de fermeture.Valeurs possibles : 0 = Organisation fermée 1 = Organisation ouverte</t>
+    <t>Indicateur d'ouverture ou de fermeture.Valeurs possibles : 0 = Organisation fermée 1 = Organisation ouverte</t>
   </si>
   <si>
     <t>Horaire.jourSemaine</t>
@@ -1400,7 +1400,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Numéro du jour dans la semaine. D'après la norme ISO 8601, les jours de chaque semaine sont numérotés de 1 (un) pour le lundi, à 7 (sept) pour le dimanche.</t>
+    <t>Numéro du jour dans la semaine. D'après la norme ISO 8601, les jours de chaque semaine sont numérotés de 1 (un) pour le lundi, à 7 (sept) pour le dimanche.</t>
   </si>
   <si>
     <t>Horaire.heureDebut</t>
@@ -1410,43 +1410,43 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Heure de début de la plage horaire.</t>
+    <t>Heure de début de la plage horaire.</t>
   </si>
   <si>
     <t>Horaire.heureFin</t>
   </si>
   <si>
-    <t xml:space="preserve"> Heure de fin de la plage horaire.</t>
+    <t>Heure de fin de la plage horaire.</t>
   </si>
   <si>
     <t>Horaire.frequencePlageHoraire</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fréquence de la plage horaire.Exemple : toutes les semaines, toutes les deux semaines, tous les mois, etc.</t>
+    <t>Fréquence de la plage horaire.Exemple : toutes les semaines, toutes les deux semaines, tous les mois, etc.</t>
   </si>
   <si>
     <t>Horaire.debutDateEffective</t>
   </si>
   <si>
-    <t xml:space="preserve"> Date effective de début de l'ouverture ou de la fermeture, cet attribut permet de caractériser les jours d'ouverture ou de fermeture exceptionnelle.</t>
+    <t>Date effective de début de l'ouverture ou de la fermeture, cet attribut permet de caractériser les jours d'ouverture ou de fermeture exceptionnelle.</t>
   </si>
   <si>
     <t>Horaire.finDateEffective</t>
   </si>
   <si>
-    <t xml:space="preserve"> Date effective de fin de l'ouverture ou de la fermeture, cet attribut permet de caractériser les jours d'ouverture ou de fermeture exceptionnelle.</t>
+    <t>Date effective de fin de l'ouverture ou de la fermeture, cet attribut permet de caractériser les jours d'ouverture ou de fermeture exceptionnelle.</t>
   </si>
   <si>
     <t>Horaire.dateDeclarationPlageHoraire</t>
   </si>
   <si>
-    <t xml:space="preserve"> Date de déclaration de la plage horaire.</t>
+    <t>Date de déclaration de la plage horaire.</t>
   </si>
   <si>
     <t>Horaire.commentaire</t>
   </si>
   <si>
-    <t xml:space="preserve"> Zone de commentaires contenant des informations relatives aux heures de fonctionnement, notamment des exceptions d'horaire, des raisons liées à la fermeture ou l'ouverture.</t>
+    <t>Zone de commentaires contenant des informations relatives aux heures de fonctionnement, notamment des exceptions d'horaire, des raisons liées à la fermeture ou l'ouverture.</t>
   </si>
   <si>
     <t>LangueParlee</t>
@@ -1455,13 +1455,13 @@
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/LangueParlee</t>
   </si>
   <si>
-    <t xml:space="preserve"> Langue parlée par une personne ou dans un service.</t>
+    <t>Langue parlée par une personne ou dans un service.</t>
   </si>
   <si>
     <t>LangueParlee.langueParlee</t>
   </si>
   <si>
-    <t xml:space="preserve"> Langue parlée.</t>
+    <t>Langue parlée.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-G00-Langue?vs</t>
@@ -1470,7 +1470,7 @@
     <t>LangueParlee.dateFin</t>
   </si>
   <si>
-    <t xml:space="preserve"> Date à laquelle la personne renonce à être référent de cette langue.</t>
+    <t>Date à laquelle la personne renonce à être référent de cette langue.</t>
   </si>
   <si>
     <t>OrientationParticuliere</t>
@@ -1479,7 +1479,7 @@
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/OrientationParticuliere</t>
   </si>
   <si>
-    <t xml:space="preserve"> Caractérise une orientation d'exercice: acupuncture ou homéopathie.Dans le cadre du modèle, une orientation particulière est un type de savoir-faire. La classe OrientationParticuliere est représentée dans le modèle comme une spécialisation de la classe SavoirFaire et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
+    <t>Caractérise une orientation d'exercice: acupuncture ou homéopathie.Dans le cadre du modèle, une orientation particulière est un type de savoir-faire. La classe OrientationParticuliere est représentée dans le modèle comme une spécialisation de la classe SavoirFaire et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
   </si>
   <si>
     <t>OrientationParticuliere.typeSavoirFaire</t>
@@ -1494,7 +1494,7 @@
     <t>OrientationParticuliere.orientationParticuliere</t>
   </si>
   <si>
-    <t xml:space="preserve"> Orientation particulière.</t>
+    <t>Orientation particulière.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/orientationParticuliere-vs</t>
@@ -1506,13 +1506,13 @@
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/PersonnePhysique</t>
   </si>
   <si>
-    <t xml:space="preserve"> Préambule:Les informations de la personne physique telles que le nom de naissance, le prénom, etc. sont utilisées dans d'autres contextes que celui de l'INS. Elles sont donc délibérément disjointes des informations constituant l'identité INS.Une personne physique est un individu titulaire de droits et d'obligations caractérisé par une identité civile.</t>
+    <t>Préambule:Les informations de la personne physique telles que le nom de naissance, le prénom, etc. sont utilisées dans d'autres contextes que celui de l'INS. Elles sont donc délibérément disjointes des informations constituant l'identité INS.Une personne physique est un individu titulaire de droits et d'obligations caractérisé par une identité civile.</t>
   </si>
   <si>
     <t>PersonnePhysique.civilite</t>
   </si>
   <si>
-    <t xml:space="preserve"> Civilité de la personne physique.</t>
+    <t>Civilité de la personne physique.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R81-Civilite?vs</t>
@@ -1521,43 +1521,43 @@
     <t>PersonnePhysique.nomFamille</t>
   </si>
   <si>
-    <t xml:space="preserve"> Toute personne possède un nom de naissance (appelé auparavant nom de famille ou nom patronymique). Ce nom figure sur l'acte de naissance. Il peut s'agir par exemple du nom du père.Ref.: Service-public.frSynonymes : nom de naissance, nom patronymique</t>
+    <t>Toute personne possède un nom de naissance (appelé auparavant nom de famille ou nom patronymique). Ce nom figure sur l'acte de naissance. Il peut s'agir par exemple du nom du père.Ref.: Service-public.frSynonymes : nom de naissance, nom patronymique</t>
   </si>
   <si>
     <t>PersonnePhysique.nomUsage</t>
   </si>
   <si>
-    <t xml:space="preserve"> Un nom d'usage de la personne.Rappel: Toute personne possède un nom de naissance  (appelé auparavant nom de famille ou nom patronymique). Ce nom figure sur l'acte de naissance. Il peut s'agir par exemple du nom du père.Il est néanmoins possible d'utiliser, dans la vie quotidienne, un autre nom (par exemple le nom marital) appelé nom d'usage. Ce nom d'usage ne remplace en aucun cas le nom de naissance qui reste le seul nom mentionné sur les actes d'état civil (acte de naissance ou de mariage, livret de famille, etc.).Ref.: Service-public.fr</t>
+    <t>Un nom d'usage de la personne.Rappel: Toute personne possède un nom de naissance  (appelé auparavant nom de famille ou nom patronymique). Ce nom figure sur l'acte de naissance. Il peut s'agir par exemple du nom du père.Il est néanmoins possible d'utiliser, dans la vie quotidienne, un autre nom (par exemple le nom marital) appelé nom d'usage. Ce nom d'usage ne remplace en aucun cas le nom de naissance qui reste le seul nom mentionné sur les actes d'état civil (acte de naissance ou de mariage, livret de famille, etc.).Ref.: Service-public.fr</t>
   </si>
   <si>
     <t>PersonnePhysique.prenom</t>
   </si>
   <si>
-    <t xml:space="preserve"> Prénom(s) de la personne déclarés à sa naissance.</t>
+    <t>Prénom(s) de la personne déclarés à sa naissance.</t>
   </si>
   <si>
     <t>PersonnePhysique.prenomUsuel</t>
   </si>
   <si>
-    <t xml:space="preserve"> Le prénom usuel est un des prénoms inscrit dans l'acte de naissance.</t>
+    <t>Le prénom usuel est un des prénoms inscrit dans l'acte de naissance.</t>
   </si>
   <si>
     <t>PersonnePhysique.pseudonyme</t>
   </si>
   <si>
-    <t xml:space="preserve"> Un nom de fantaisie librement choisi par une personne dans l'exercice d'une activité particulière, afin de dissimuler au public son identité véritable.</t>
+    <t>Un nom de fantaisie librement choisi par une personne dans l'exercice d'une activité particulière, afin de dissimuler au public son identité véritable.</t>
   </si>
   <si>
     <t>PersonnePhysique.surnom</t>
   </si>
   <si>
-    <t xml:space="preserve"> Un nom ajouté par le public au nom de naissance d'une personne, afin de la distinguer des autres personnes portant le même nom de naissance et, qui se déférencie du pseudonyme en ce qu'il n'est pas choisi par celui qui le porte et qu'il n'a pas pour but de dissimuler son identité mais au contraire de la préciser.</t>
+    <t>Un nom ajouté par le public au nom de naissance d'une personne, afin de la distinguer des autres personnes portant le même nom de naissance et, qui se déférencie du pseudonyme en ce qu'il n'est pas choisi par celui qui le porte et qu'il n'a pas pour but de dissimuler son identité mais au contraire de la préciser.</t>
   </si>
   <si>
     <t>PersonnePhysique.sexeAdministratif</t>
   </si>
   <si>
-    <t xml:space="preserve"> Sexe administratif de la personne physique, au sens de l'état civil, masculin ou féminin.</t>
+    <t>Sexe administratif de la personne physique, au sens de l'état civil, masculin ou féminin.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R10-SexeAdministratif?vs</t>
@@ -1566,7 +1566,7 @@
     <t>PersonnePhysique.sexe</t>
   </si>
   <si>
-    <t xml:space="preserve"> Sexe de la personne physique, notamment masculin, féminin, inconnu.Attribut associé aux nomenclatures suivantes : ** CodeSystem-TRE-R249-Sexe : représentation des sexes humains par un code alphabétique** CodeSystem-TRE-R267-SexeProvenanceISO : norme ISO 5218 qui définit la représentation des sexes humains par un code numérique** CodeSystem-TRE-R303-HL7v3AdministrativeGender : reprise de la terminologie HL7 v3 AdministrativeGender** ConceptMap-ASS-A15-SexeProvenanceISO-Sexe : table d'association entre les nomenclatures CodeSystem-TRE-R267-SexeProvenanceISO, CodeSystem-TRE-R249-Sexe</t>
+    <t>Sexe de la personne physique, notamment masculin, féminin, inconnu.Attribut associé aux nomenclatures suivantes : ** CodeSystem-TRE-R249-Sexe : représentation des sexes humains par un code alphabétique** CodeSystem-TRE-R267-SexeProvenanceISO : norme ISO 5218 qui définit la représentation des sexes humains par un code numérique** CodeSystem-TRE-R303-HL7v3AdministrativeGender : reprise de la terminologie HL7 v3 AdministrativeGender** ConceptMap-ASS-A15-SexeProvenanceISO-Sexe : table d'association entre les nomenclatures CodeSystem-TRE-R267-SexeProvenanceISO, CodeSystem-TRE-R249-Sexe</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/sexe-vs</t>
@@ -1579,43 +1579,43 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Langue parlée par la personne, y compris le français.</t>
+    <t>Langue parlée par la personne, y compris le français.</t>
   </si>
   <si>
     <t>PersonnePhysique.situationFamiliale</t>
   </si>
   <si>
-    <t xml:space="preserve"> Situation familiale de la personne (célibataire, divorcée, etc.).Les valeurs de ce code sont répertoriées dans plusieurs nomenclatures notamment:- la liste de la Déclaration Automatisée des Données Sociales Unifiée (DADS-U):01: célibataire02: marié(e)03: divorcé(e)04: séparé(e)05: veuf, veuve06: vie maritale07: PACS90: non connueetc.- Liste de codes HL7 "MaritalStatus":A: Annulled, marriage contract has been declared null and to not have existedD: Divorced, marriage contract has been declared dissolved and inactiveI: Interlocutory, subject to an Interlocutory DecreeL: Legally separatedM: Married, a current marriage contract is activeP: Polygamous, more than 1 current spouseS: Never Married, no marriage contract has ever been enteredT: Domestic partner, person declares that a domestic partner relationship exists.U: Unmarried, currently not in a marriage contract.W: Widowed, the spouse has died</t>
+    <t>Situation familiale de la personne (célibataire, divorcée, etc.).Les valeurs de ce code sont répertoriées dans plusieurs nomenclatures notamment:- la liste de la Déclaration Automatisée des Données Sociales Unifiée (DADS-U):01: célibataire02: marié(e)03: divorcé(e)04: séparé(e)05: veuf, veuve06: vie maritale07: PACS90: non connueetc.- Liste de codes HL7 "MaritalStatus":A: Annulled, marriage contract has been declared null and to not have existedD: Divorced, marriage contract has been declared dissolved and inactiveI: Interlocutory, subject to an Interlocutory DecreeL: Legally separatedM: Married, a current marriage contract is activeP: Polygamous, more than 1 current spouseS: Never Married, no marriage contract has ever been enteredT: Domestic partner, person declares that a domestic partner relationship exists.U: Unmarried, currently not in a marriage contract.W: Widowed, the spouse has died</t>
   </si>
   <si>
     <t>PersonnePhysique.dateNaissance</t>
   </si>
   <si>
-    <t xml:space="preserve"> Date de naissance de la personne.A noter que l'âge de la personne ne figure pas dans le MOS. Cette information peut être calculée à partir de la date de naissance.</t>
+    <t>Date de naissance de la personne.A noter que l'âge de la personne ne figure pas dans le MOS. Cette information peut être calculée à partir de la date de naissance.</t>
   </si>
   <si>
     <t>PersonnePhysique.dateDeces</t>
   </si>
   <si>
-    <t xml:space="preserve"> Date de décès de la personne.</t>
+    <t>Date de décès de la personne.</t>
   </si>
   <si>
     <t>PersonnePhysique.communeNaissance</t>
   </si>
   <si>
-    <t xml:space="preserve"> Commune de naissance de la personne.Code officiel géographique (COG) de la commune.</t>
+    <t>Commune de naissance de la personne.Code officiel géographique (COG) de la commune.</t>
   </si>
   <si>
     <t>PersonnePhysique.departementNaissance</t>
   </si>
   <si>
-    <t xml:space="preserve"> Département de naissance de la personne.Code officiel géographique (COG) du département.</t>
+    <t>Département de naissance de la personne.Code officiel géographique (COG) du département.</t>
   </si>
   <si>
     <t>PersonnePhysique.paysNaissance</t>
   </si>
   <si>
-    <t xml:space="preserve"> Pays de naissance de la personne.Code officiel géographique (COG) du pays.</t>
+    <t>Pays de naissance de la personne.Code officiel géographique (COG) du pays.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/paysNaissance-vs</t>
@@ -1624,7 +1624,7 @@
     <t>PersonnePhysique.lieuNaissance</t>
   </si>
   <si>
-    <t xml:space="preserve"> Lieu de naissance de la personne.Code officiel géographique (COG) de la commune (France) ou du pays.</t>
+    <t>Lieu de naissance de la personne.Code officiel géographique (COG) de la commune (France) ou du pays.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/lieuNaissance-vs</t>
@@ -1633,7 +1633,7 @@
     <t>PersonnePhysique.statutEtatCivil</t>
   </si>
   <si>
-    <t xml:space="preserve"> Statut de la demande de certification auprès de l'organisme certificateur.</t>
+    <t>Statut de la demande de certification auprès de l'organisme certificateur.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R31-StatutEtatCivil?vs</t>
@@ -1642,19 +1642,19 @@
     <t>PersonnePhysique.dateStatutEtatCivil</t>
   </si>
   <si>
-    <t xml:space="preserve"> Date de transmission du statut d’état civil de la personne par l’organisme certificateur d’état-civil.</t>
+    <t>Date de transmission du statut d’état civil de la personne par l’organisme certificateur d’état-civil.</t>
   </si>
   <si>
     <t>PersonnePhysique.dateAcquisitionNatFR</t>
   </si>
   <si>
-    <t xml:space="preserve"> Date d'acquisition de la nationalité française, renseignée uniquement si la nationalité actuelle est française et qu'elle n’a pas été acquise à la naissance.</t>
+    <t>Date d'acquisition de la nationalité française, renseignée uniquement si la nationalité actuelle est française et qu'elle n’a pas été acquise à la naissance.</t>
   </si>
   <si>
     <t>PersonnePhysique.paysNationalite</t>
   </si>
   <si>
-    <t xml:space="preserve"> Pays de nationalité actuelle ou rattachement de la nationalité à un espace de pays conventionné.Attribut associé aux nomenclatures suivantes :**CodeSystem-TRE-R268-PaysProvenanceISO : provient de la norme ISO 3166-1 (code alpha-2) qui définit la représentation des noms de pays par un code à deux lettres**CodeSystem-TRE-R20-Pays : provient du code officiel géographique (COG)**CodeSystem-TRE-R89-RegroupementPays : espace de pays conventionné</t>
+    <t>Pays de nationalité actuelle ou rattachement de la nationalité à un espace de pays conventionné.Attribut associé aux nomenclatures suivantes :**CodeSystem-TRE-R268-PaysProvenanceISO : provient de la norme ISO 3166-1 (code alpha-2) qui définit la représentation des noms de pays par un code à deux lettres**CodeSystem-TRE-R20-Pays : provient du code officiel géographique (COG)**CodeSystem-TRE-R89-RegroupementPays : espace de pays conventionné</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/paysNationalite-vs</t>
@@ -1663,7 +1663,7 @@
     <t>PersonnePhysique.paysResidence</t>
   </si>
   <si>
-    <t xml:space="preserve"> Pays où séjourne la personne de façon permanente.</t>
+    <t>Pays où séjourne la personne de façon permanente.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R20-Pays?vs</t>
@@ -1672,7 +1672,7 @@
     <t>PersonnePhysique.professionCategorieSocioProfessionnelle</t>
   </si>
   <si>
-    <t xml:space="preserve"> Profession et catégorie socio-professionnelle de la personne (PCS). Ce code provient de la nomenclature des professions et catégories socioprofessionnelles (PCS) de l'INSEE.</t>
+    <t>Profession et catégorie socio-professionnelle de la personne (PCS). Ce code provient de la nomenclature des professions et catégories socioprofessionnelles (PCS) de l'INSEE.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/professionCategorieSocioProfessionnelle-vs</t>
@@ -1681,7 +1681,7 @@
     <t>PersonnePhysique.causeMortalite</t>
   </si>
   <si>
-    <t xml:space="preserve"> Une ou plusieurs causes ayant entraîné la mort de la personne. La liste des codes est en cours de constitution. Certains codes proviennent des niveaux 3 et 4 de la CIM 10, en cas de décès dû à une pathologie.</t>
+    <t>Une ou plusieurs causes ayant entraîné la mort de la personne. La liste des codes est en cours de constitution. Certains codes proviennent des niveaux 3 et 4 de la CIM 10, en cas de décès dû à une pathologie.</t>
   </si>
   <si>
     <t>PersonnePhysique.tailleCorporelle</t>
@@ -1691,25 +1691,25 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Taille du corps de la personne exprimée dans une unité de mesure (m, cm, etc.).Synonymes: grandeur corporelle, grandeur du corps, hauteur corporelle, hauteur du corps, longueur corporelle.</t>
+    <t>Taille du corps de la personne exprimée dans une unité de mesure (m, cm, etc.).Synonymes: grandeur corporelle, grandeur du corps, hauteur corporelle, hauteur du corps, longueur corporelle.</t>
   </si>
   <si>
     <t>PersonnePhysique.poidsCorporel</t>
   </si>
   <si>
-    <t xml:space="preserve"> Masse du corps de la personne exprimée dans une unité de mesure (kg, g, etc.).</t>
+    <t>Masse du corps de la personne exprimée dans une unité de mesure (kg, g, etc.).</t>
   </si>
   <si>
     <t>PersonnePhysique.surfaceCorporelle</t>
   </si>
   <si>
-    <t xml:space="preserve"> Surface du corps de la personne, c'est à dire la mesure en deux dimensions de la surface externe de la peau recouvrant le corps, exprimée dans une unité de mesure (par exemple, en m2).Calcul de la surface corporelle:** Calcul de la surface corporelle chez un adulte (&gt;= à 40 Kg + taille renseignée) :La surface corporelle est calculée selon la formule suivante (Formule de BOYD) :SC = 0,0001 x (3,207) x (P0,7285-0,0188logP) x (T0,3) avec T en cm, P en grammes et Log le logarithme décimal.** Calcul de la surface corporelle chez un petit enfant (poids &lt; 40 Kg):Il convient d'utiliser une formule adaptée au calcul de la surface corporelle chez le petit enfant car elle s'affranchit de la taille. La formule est à utiliser pour tous les enfants dont le poids est inférieur à 40 Kg.La surface corporelle est alors calculée selon la formule suivante :SC = (4 x P + 7) / (P + 90) avec P en Kg, le résultat SC est donné en m2.</t>
+    <t>Surface du corps de la personne, c'est à dire la mesure en deux dimensions de la surface externe de la peau recouvrant le corps, exprimée dans une unité de mesure (par exemple, en m2).Calcul de la surface corporelle:** Calcul de la surface corporelle chez un adulte (&gt;= à 40 Kg + taille renseignée) :La surface corporelle est calculée selon la formule suivante (Formule de BOYD) :SC = 0,0001 x (3,207) x (P0,7285-0,0188logP) x (T0,3) avec T en cm, P en grammes et Log le logarithme décimal.** Calcul de la surface corporelle chez un petit enfant (poids &lt; 40 Kg):Il convient d'utiliser une formule adaptée au calcul de la surface corporelle chez le petit enfant car elle s'affranchit de la taille. La formule est à utiliser pour tous les enfants dont le poids est inférieur à 40 Kg.La surface corporelle est alors calculée selon la formule suivante :SC = (4 x P + 7) / (P + 90) avec P en Kg, le résultat SC est donné en m2.</t>
   </si>
   <si>
     <t>PersonnePhysique.indiceMasseCorporelle</t>
   </si>
   <si>
-    <t xml:space="preserve"> Indice de masse corporelle (IMC).L'IMC résulte du calcul suivant: IMC = poids (kg) / taille (m)²L'affichage du résultat de l'IMC varie selon la valeur obtenue :** IMC &lt; 18.5 : maigreur** 18.5 &lt;= IMC &lt;= 25 : corpulence normale** 25 &lt; IMC &lt;= 30 : surpoids** IMC &gt; 30 : obésité</t>
+    <t>Indice de masse corporelle (IMC).L'IMC résulte du calcul suivant: IMC = poids (kg) / taille (m)²L'affichage du résultat de l'IMC varie selon la valeur obtenue :** IMC &lt; 18.5 : maigreur** 18.5 &lt;= IMC &lt;= 25 : corpulence normale** 25 &lt; IMC &lt;= 30 : surpoids** IMC &gt; 30 : obésité</t>
   </si>
   <si>
     <t>Professionnel</t>
@@ -1718,19 +1718,19 @@
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Professionnel</t>
   </si>
   <si>
-    <t xml:space="preserve"> Données d'identification pérennes d’une personne physique, qui travaille en tant que professionnel (professionnel enregistré dans RPPS ou ADELI), personnel autorisé ou personnel d’établissement, dans les domaines sanitaire, médico-social et social.</t>
+    <t>Données d'identification pérennes d’une personne physique, qui travaille en tant que professionnel (professionnel enregistré dans RPPS ou ADELI), personnel autorisé ou personnel d’établissement, dans les domaines sanitaire, médico-social et social.</t>
   </si>
   <si>
     <t>Professionnel.idPP</t>
   </si>
   <si>
-    <t xml:space="preserve"> Identifiant national de la personne physique:** Pour les professionnels de santé: Numéro RPPS ou ADELI.** Pour les étudiants: Numéro RPPS depuis 2017.** Pour les acteurs non professionnels de santé employés d’une structure : l’identifiant est composé de l’identifiant principal de la structure et de l’identifiant interne attribué par la structure.</t>
+    <t>Identifiant national de la personne physique:** Pour les professionnels de santé: Numéro RPPS ou ADELI.** Pour les étudiants: Numéro RPPS depuis 2017.** Pour les acteurs non professionnels de santé employés d’une structure : l’identifiant est composé de l’identifiant principal de la structure et de l’identifiant interne attribué par la structure.</t>
   </si>
   <si>
     <t>Professionnel.typeIdNatPP</t>
   </si>
   <si>
-    <t xml:space="preserve"> Type d’identifiant national de la personne physique.</t>
+    <t>Type d’identifiant national de la personne physique.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-G08-TypeIdentifiantPersonne?vs</t>
@@ -1739,7 +1739,7 @@
     <t>Professionnel.idNatPS</t>
   </si>
   <si>
-    <t xml:space="preserve"> Identification nationale principale du professionnel initiée pour les besoins du SI-CPS.Cette identification est obtenue par la concaténation du type d'identifiant national de personne (provenant de la nomenclature CodeSystem-TRE-G08-TypeIdentifiantPersonne) et de l'identifiant de la personne physique provenant, selon le type d’identifiant, soit d’un référentiel national, soit d’un référentiel local propre à la structure d’exercice de la personne physique:** 0 + N° ADELI du professionnel    Ex : 0123456789 : identification nationale d’un professionnel identifié par un n° ADELI = 123456789;** 1 + Identifiant cabinet ADELI/identifiant interne du professionnel employé au sein d’un cabinet    Ex : 112345678901/00001 : identification nationale d’un employé dans un cabinet libéral:          - le titulaire du cabinet est un professionnel identifié par un n° ADELI = 123456789          - le cabinet est identifié par un ADELI-rang = 12345678901 (01 = n° de rang du cabinet du même professionnel sur 2 caractères)          - l’identifiant interne de l’employé dans la structure = 00001; ** 3 + N° FINESS/identifiant interne du professionnel employé au sein d’une structure FINESS;** 4 + N° Siren/identifiant interne du professionnel employé au sein d’une structure Siren (NB: pas d'utilisation identifiée de cette construction);** 5 + N° Siret/identifiant interne du professionnel employé au sein d’une structure Siret;** 6 + Identifiant cabinet RPPS/ identifiant interne du professionnel employé au sein d’un cabinet          - le cabinet est identifié par un RPPS-rang à 14 caractères (numéro RPPS du professionnel + rang sur 2 caractères + clé de Luhn);** 8 + N° RPPS du professionnel ou de l’étudiant;    Ex : 810005678901 : identification nationale d’un professionnel ou d’un étudiant identifié par un n° RPPS = 10005678901Le numéro RPPS est un identifiant pérenne, constitué de 11 caractères non significatifs (numéro d’ordre sur 10 caractères + clé de Luhn sur 1 caractère);** 10 + Adresse MSS (adresse MSS d'un professionnel sans identifiant national (assistante sociale, médecin non inscrit, etc.); cet identifiant est utilisé uniquement pour la messagerie sécurisée de santé.Synonyme: PS_IdNat (CI-SIS, appel contextuel pour les applications Web).</t>
+    <t>Identification nationale principale du professionnel initiée pour les besoins du SI-CPS.Cette identification est obtenue par la concaténation du type d'identifiant national de personne (provenant de la nomenclature CodeSystem-TRE-G08-TypeIdentifiantPersonne) et de l'identifiant de la personne physique provenant, selon le type d’identifiant, soit d’un référentiel national, soit d’un référentiel local propre à la structure d’exercice de la personne physique:** 0 + N° ADELI du professionnel    Ex : 0123456789 : identification nationale d’un professionnel identifié par un n° ADELI = 123456789;** 1 + Identifiant cabinet ADELI/identifiant interne du professionnel employé au sein d’un cabinet    Ex : 112345678901/00001 : identification nationale d’un employé dans un cabinet libéral:          - le titulaire du cabinet est un professionnel identifié par un n° ADELI = 123456789          - le cabinet est identifié par un ADELI-rang = 12345678901 (01 = n° de rang du cabinet du même professionnel sur 2 caractères)          - l’identifiant interne de l’employé dans la structure = 00001; ** 3 + N° FINESS/identifiant interne du professionnel employé au sein d’une structure FINESS;** 4 + N° Siren/identifiant interne du professionnel employé au sein d’une structure Siren (NB: pas d'utilisation identifiée de cette construction);** 5 + N° Siret/identifiant interne du professionnel employé au sein d’une structure Siret;** 6 + Identifiant cabinet RPPS/ identifiant interne du professionnel employé au sein d’un cabinet          - le cabinet est identifié par un RPPS-rang à 14 caractères (numéro RPPS du professionnel + rang sur 2 caractères + clé de Luhn);** 8 + N° RPPS du professionnel ou de l’étudiant;    Ex : 810005678901 : identification nationale d’un professionnel ou d’un étudiant identifié par un n° RPPS = 10005678901Le numéro RPPS est un identifiant pérenne, constitué de 11 caractères non significatifs (numéro d’ordre sur 10 caractères + clé de Luhn sur 1 caractère);** 10 + Adresse MSS (adresse MSS d'un professionnel sans identifiant national (assistante sociale, médecin non inscrit, etc.); cet identifiant est utilisé uniquement pour la messagerie sécurisée de santé.Synonyme: PS_IdNat (CI-SIS, appel contextuel pour les applications Web).</t>
   </si>
   <si>
     <t>Professionnel.personne</t>
@@ -1749,13 +1749,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Identité civile du professionnel.</t>
+    <t>Identité civile du professionnel.</t>
   </si>
   <si>
     <t>Professionnel.diplomeObtenu</t>
   </si>
   <si>
-    <t xml:space="preserve"> Diplôme(s) acquis par le professionnel.</t>
+    <t>Diplôme(s) acquis par le professionnel.</t>
   </si>
   <si>
     <t>Professionnel.adresseCorrespondance</t>
@@ -1765,19 +1765,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Adresse(s) de correspondance permettant de contacter les professionnels:** lorsque les structures ne sont pas identifiées : cas des remplaçants ou des professionnels venant de s’inscrire mais non encore installés;** hors de leurs lieux d’exercice, s’ils le souhaitent.Remarque système RPPS : La première occurrence correspond aux coordonnées de correspondance du RPPS.</t>
+    <t>Adresse(s) de correspondance permettant de contacter les professionnels:** lorsque les structures ne sont pas identifiées : cas des remplaçants ou des professionnels venant de s’inscrire mais non encore installés;** hors de leurs lieux d’exercice, s’ils le souhaitent.Remarque système RPPS : La première occurrence correspond aux coordonnées de correspondance du RPPS.</t>
   </si>
   <si>
     <t>Professionnel.telecommunication</t>
   </si>
   <si>
-    <t xml:space="preserve"> Adresse(s) de télécommunication du professionnel (numéro de téléphone, adresse email, URL, etc.).</t>
+    <t>Adresse(s) de télécommunication du professionnel (numéro de téléphone, adresse email, URL, etc.).</t>
   </si>
   <si>
     <t>Professionnel.boiteLettresMSS</t>
   </si>
   <si>
-    <t xml:space="preserve"> Boîte(s) aux lettres du service de messagerie sécurisée de santé (MSS) rattachée(s) au professionnel.</t>
+    <t>Boîte(s) aux lettres du service de messagerie sécurisée de santé (MSS) rattachée(s) au professionnel.</t>
   </si>
   <si>
     <t>QualificationPAC</t>
@@ -1786,7 +1786,7 @@
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/QualificationPAC</t>
   </si>
   <si>
-    <t xml:space="preserve"> La qualification de praticien adjoint contractuel autorise à exercer en établissement sans être qualifié ni en médecine générale, ni en spécialité. Cela concerne des médecins à diplôme étranger dont la qualification a été reconnue avant l'instauration de l'autorisation d'exercice, et qui n'ont pas fait de démarche pour obtenir cette autorisation (environ 500 médecins concernés).Une qualification de praticien adjoint contractuel est un type de savoir-faire. La classe QualificationPAC est représentée dans le modèle comme une spécialisation de la classe SavoirFaire et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
+    <t>La qualification de praticien adjoint contractuel autorise à exercer en établissement sans être qualifié ni en médecine générale, ni en spécialité. Cela concerne des médecins à diplôme étranger dont la qualification a été reconnue avant l'instauration de l'autorisation d'exercice, et qui n'ont pas fait de démarche pour obtenir cette autorisation (environ 500 médecins concernés).Une qualification de praticien adjoint contractuel est un type de savoir-faire. La classe QualificationPAC est représentée dans le modèle comme une spécialisation de la classe SavoirFaire et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
   </si>
   <si>
     <t>QualificationPAC.typeSavoirFaire</t>
@@ -1801,7 +1801,7 @@
     <t>QualificationPAC.qualificationPAC</t>
   </si>
   <si>
-    <t xml:space="preserve"> Qualification de praticien adjoint contractuel.</t>
+    <t>Qualification de praticien adjoint contractuel.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/qualificationPAC-vs</t>
@@ -1810,7 +1810,7 @@
     <t>SavoirFaire</t>
   </si>
   <si>
-    <t xml:space="preserve"> Prérogatives d'exercice d'un professionnel reconnues par une autorité d'enregistrement sur une période donnée de son exercice professionnel, par exemple les spécialités ordinales, etc.</t>
+    <t>Prérogatives d'exercice d'un professionnel reconnues par une autorité d'enregistrement sur une période donnée de son exercice professionnel, par exemple les spécialités ordinales, etc.</t>
   </si>
   <si>
     <t>SituationExercice</t>
@@ -1819,13 +1819,13 @@
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/SituationExercice</t>
   </si>
   <si>
-    <t xml:space="preserve"> Caractéristiques de l'exercice d’un professionnel pendant une période déterminée et dans une structure déterminée (à l'exception des remplaçants).Synonymes : Activité (RPPS).</t>
+    <t>Caractéristiques de l'exercice d’un professionnel pendant une période déterminée et dans une structure déterminée (à l'exception des remplaçants).Synonymes : Activité (RPPS).</t>
   </si>
   <si>
     <t>SituationExercice.role</t>
   </si>
   <si>
-    <t xml:space="preserve"> Rôle du professionnel au sein de la structure d’exercice. Par exemple, ** Titulaire de cabinet;** Titulaire d’officine;** Médecin scolaire;** etc.Synonyme : fonction</t>
+    <t>Rôle du professionnel au sein de la structure d’exercice. Par exemple, ** Titulaire de cabinet;** Titulaire d’officine;** Médecin scolaire;** etc.Synonyme : fonction</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/role-vs</t>
@@ -1834,7 +1834,7 @@
     <t>SituationExercice.typeRole</t>
   </si>
   <si>
-    <t xml:space="preserve"> Indique le type de rôle du professionnel au sein de la structure d’exercice.Synonyme : typeFonction</t>
+    <t>Indique le type de rôle du professionnel au sein de la structure d’exercice.Synonyme : typeFonction</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/typeRole-vs</t>
@@ -1843,7 +1843,7 @@
     <t>SituationExercice.modeExercice</t>
   </si>
   <si>
-    <t xml:space="preserve"> Le mode d'exercice décrit selon quelle modalité une activité est exercée au regard de l'organisation de la rétribution du professionnel.Exemples : ** Libéral;** Salarié;** Bénévole.Les valeurs de ce code sont répertoriées dans la nomenclature CodeSystem-TRE-R23-ModeExercice.</t>
+    <t>Le mode d'exercice décrit selon quelle modalité une activité est exercée au regard de l'organisation de la rétribution du professionnel.Exemples : ** Libéral;** Salarié;** Bénévole.Les valeurs de ce code sont répertoriées dans la nomenclature CodeSystem-TRE-R23-ModeExercice.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R23-ModeExercice?vs</t>
@@ -1852,25 +1852,25 @@
     <t>SituationExercice.numeroAM</t>
   </si>
   <si>
-    <t xml:space="preserve"> Identifiant d’activité, propre à l’Assurance Maladie. Cet identifiant est attribué lors de l’enregistrement de l’activité par l’Assurance Maladie. Un professionnel a autant de numéros AM que d’activités enregistrées à l’Assurance Maladie. Cet identifiant d’activité est utilisé pour la facturation à l’Assurance Maladie. Sa diffusion est restreinte aux entités choisies par l’Assurance Maladie.Format : 9 caractères numériques généralement identiques au n°ADELI ou pseudo ADELI du professionnel pour sa première activité.</t>
+    <t>Identifiant d’activité, propre à l’Assurance Maladie. Cet identifiant est attribué lors de l’enregistrement de l’activité par l’Assurance Maladie. Un professionnel a autant de numéros AM que d’activités enregistrées à l’Assurance Maladie. Cet identifiant d’activité est utilisé pour la facturation à l’Assurance Maladie. Sa diffusion est restreinte aux entités choisies par l’Assurance Maladie.Format : 9 caractères numériques généralement identiques au n°ADELI ou pseudo ADELI du professionnel pour sa première activité.</t>
   </si>
   <si>
     <t>SituationExercice.dateDebutActivite</t>
   </si>
   <si>
-    <t xml:space="preserve"> Date de début de l’activité correspondant à la date d’installation en cabinet ou à la date d’embauche du salarié, etc.</t>
+    <t>Date de début de l’activité correspondant à la date d’installation en cabinet ou à la date d’embauche du salarié, etc.</t>
   </si>
   <si>
     <t>SituationExercice.dateFinActivite</t>
   </si>
   <si>
-    <t xml:space="preserve"> Date de fin de l’activité.</t>
+    <t>Date de fin de l’activité.</t>
   </si>
   <si>
     <t>SituationExercice.genreActivite</t>
   </si>
   <si>
-    <t xml:space="preserve"> Le genre d'activité identifie les activités qui nécessitent l’application de règles de gestion spécifiques, par exemple, activité standard de soins ou de pharmacien, activité non soignante, activité non médicale, etc.</t>
+    <t>Le genre d'activité identifie les activités qui nécessitent l’application de règles de gestion spécifiques, par exemple, activité standard de soins ou de pharmacien, activité non soignante, activité non médicale, etc.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R22-GenreActivite?vs</t>
@@ -1879,7 +1879,7 @@
     <t>SituationExercice.motifFinActivite</t>
   </si>
   <si>
-    <t xml:space="preserve"> Motif de fin d'activité, par exemple:** Décès;** Retraite libérale;** Changement de profession;** etc.</t>
+    <t>Motif de fin d'activité, par exemple:** Décès;** Retraite libérale;** Changement de profession;** etc.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R25-MotifFinActivite?vs</t>
@@ -1888,7 +1888,7 @@
     <t>SituationExercice.statutHospitalier</t>
   </si>
   <si>
-    <t xml:space="preserve"> Statut hospitalier dans le cas d’une activité exercée en établissement public de santé, par exemple:** Professeur des universités - praticien hospitalier (PU-PH);** Assistant hospitalier universitaire (AHU);** etc.</t>
+    <t>Statut hospitalier dans le cas d’une activité exercée en établissement public de santé, par exemple:** Professeur des universités - praticien hospitalier (PU-PH);** Assistant hospitalier universitaire (AHU);** etc.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R32-StatutHospitalier?vs</t>
@@ -1897,7 +1897,7 @@
     <t>SituationExercice.sectionOrdrePharmacien</t>
   </si>
   <si>
-    <t xml:space="preserve"> Section du tableau de l’Ordre des pharmaciens, par exemple:** Pharmacien titulaire d’officine;** Pharmacien biologiste;** etc.</t>
+    <t>Section du tableau de l’Ordre des pharmaciens, par exemple:** Pharmacien titulaire d’officine;** Pharmacien biologiste;** etc.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R06-SectionTableauCNOP?vs</t>
@@ -1906,7 +1906,7 @@
     <t>SituationExercice.sousSectionOrdrePharmacien</t>
   </si>
   <si>
-    <t xml:space="preserve"> Sous-section ou à défaut section du tableau de l’Ordre des pharmaciens.</t>
+    <t>Sous-section ou à défaut section du tableau de l’Ordre des pharmaciens.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-G05-SousSectionTableauCNOP?vs</t>
@@ -1915,7 +1915,7 @@
     <t>SituationExercice.typeActiviteLiberale</t>
   </si>
   <si>
-    <t xml:space="preserve"> Type d’activité libérale, par exemple:** Cabinet;** Secteur privé à l'hôpital;** etc.</t>
+    <t>Type d’activité libérale, par exemple:** Cabinet;** Secteur privé à l'hôpital;** etc.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R24-TypeActiviteLiberale?vs</t>
@@ -1924,7 +1924,7 @@
     <t>SituationExercice.statutPSSSA</t>
   </si>
   <si>
-    <t xml:space="preserve"> Statut du professionnel du Service de santé des armées, par exemple:** Praticien certifié;** Praticien confirmé;** etc.</t>
+    <t>Statut du professionnel du Service de santé des armées, par exemple:** Praticien certifié;** Praticien confirmé;** etc.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R34-StatutProfessionnelSSA?vs</t>
@@ -1933,19 +1933,19 @@
     <t>SituationExercice.telecommunication</t>
   </si>
   <si>
-    <t xml:space="preserve"> Adresse(s) de télécommunication (numéro de téléphone, adresse email, URL, etc.) rattachée(s) à la situation d'exercice.</t>
+    <t>Adresse(s) de télécommunication (numéro de téléphone, adresse email, URL, etc.) rattachée(s) à la situation d'exercice.</t>
   </si>
   <si>
     <t>SituationExercice.adresseSE</t>
   </si>
   <si>
-    <t xml:space="preserve"> Adresse(s) géopostale(s) rattachée(s) à la situation d'exercice.</t>
+    <t>Adresse(s) géopostale(s) rattachée(s) à la situation d'exercice.</t>
   </si>
   <si>
     <t>SituationExercice.boiteLettresMSS</t>
   </si>
   <si>
-    <t xml:space="preserve"> Boîte(s) aux lettres du service de messagerie sécurisée de santé (MSS) rattachée(s) à la situation d'exercice.</t>
+    <t>Boîte(s) aux lettres du service de messagerie sécurisée de santé (MSS) rattachée(s) à la situation d'exercice.</t>
   </si>
   <si>
     <t>SituationOperationnelle</t>
@@ -1954,25 +1954,25 @@
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/SituationOperationnelle</t>
   </si>
   <si>
-    <t xml:space="preserve"> Caractérise les conditions d'exercice du professionnel dans la mise en œuvre cadre de l’offre opérationnelle.</t>
+    <t>Caractérise les conditions d'exercice du professionnel dans la mise en œuvre cadre de l’offre opérationnelle.</t>
   </si>
   <si>
     <t>SituationOperationnelle.identifiantSituationOperationnelle</t>
   </si>
   <si>
-    <t xml:space="preserve"> Identifiant de la situation opérationnelle, unique et persistant au niveau national, obtenu par l’association de l’identifiant de l’offre opérationnelle suivi du caractère « / » puis de l’identifiant du professionnel.</t>
+    <t>Identifiant de la situation opérationnelle, unique et persistant au niveau national, obtenu par l’association de l’identifiant de l’offre opérationnelle suivi du caractère « / » puis de l’identifiant du professionnel.</t>
   </si>
   <si>
     <t>SituationOperationnelle.modeExerciceOffre</t>
   </si>
   <si>
-    <t xml:space="preserve"> Le mode d'exercice correspond au statut du professionnel lorsqu'il exerce dans le cadre de l'offre décrite.</t>
+    <t>Le mode d'exercice correspond au statut du professionnel lorsqu'il exerce dans le cadre de l'offre décrite.</t>
   </si>
   <si>
     <t>SituationOperationnelle.competenceSpecifique</t>
   </si>
   <si>
-    <t xml:space="preserve"> La compétence spécifique correspond à une capacité ou connaissance reconnue qui permet ou facilite l’accueil d’une personne. La compétence spécifique n’est ni une spécialité ordinale, ni une profession.</t>
+    <t>La compétence spécifique correspond à une capacité ou connaissance reconnue qui permet ou facilite l’accueil d’une personne. La compétence spécifique n’est ni une spécialité ordinale, ni une profession.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R243-CompetenceSpecifique?vs</t>
@@ -1985,13 +1985,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Décrit le planning d'activité du professionnel.</t>
+    <t>Décrit le planning d'activité du professionnel.</t>
   </si>
   <si>
     <t>SituationOperationnelle.secteurConventionnement</t>
   </si>
   <si>
-    <t xml:space="preserve"> Secteur de conventionnement du professionnel libéral auquel il a adhéré auprès de l'Assurance Maladie.</t>
+    <t>Secteur de conventionnement du professionnel libéral auquel il a adhéré auprès de l'Assurance Maladie.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R282-CNAMAmeliSecteurConventionnement?vs</t>
@@ -2000,19 +2000,19 @@
     <t>SituationOperationnelle.optionContratAccesAuxSoins</t>
   </si>
   <si>
-    <t xml:space="preserve"> L'Option pratique tarifaire maîtrisée (OPTAM) a remplacé le Contrat d'accès aux soins (CAS) en 2017.L’Option pratique tarifaire maîtrisée (OPTAM) est un dispositif proposé par l’Assurance Maladie aux médecins conventionnés ayant pour objectif principal de faciliter l’accès aux soins en limitant, sans les supprimer, les dépassements d’honoraires.Les médecins exerçant une spécialité chirurgicale ou de chirurgie obstétrique, qui ont réalisé au moins 50 actes de chirurgie ou d'obstérique ont la possibilité d'adhérer à l'Option pratique tarifaire maîtrisée chirurgie et obstétrique (OPTAM-CO).Synonyme : optionPratiqueTarifaireMaîtrisée</t>
+    <t>L'Option pratique tarifaire maîtrisée (OPTAM) a remplacé le Contrat d'accès aux soins (CAS) en 2017.L’Option pratique tarifaire maîtrisée (OPTAM) est un dispositif proposé par l’Assurance Maladie aux médecins conventionnés ayant pour objectif principal de faciliter l’accès aux soins en limitant, sans les supprimer, les dépassements d’honoraires.Les médecins exerçant une spécialité chirurgicale ou de chirurgie obstétrique, qui ont réalisé au moins 50 actes de chirurgie ou d'obstérique ont la possibilité d'adhérer à l'Option pratique tarifaire maîtrisée chirurgie et obstétrique (OPTAM-CO).Synonyme : optionPratiqueTarifaireMaîtrisée</t>
   </si>
   <si>
     <t>SituationOperationnelle.carteVitaleAcceptee</t>
   </si>
   <si>
-    <t xml:space="preserve"> L’indicateur Carte Vitale acceptée précise si le professionnel, dans le cadre de cette situation opérationnelle, dispose des moyens techniques pour prendre en charge la carte vitale ou pas. 0 : pas de prise en charge de la carte vitale1 : prise en charge de la carte vitale.</t>
+    <t>L’indicateur Carte Vitale acceptée précise si le professionnel, dans le cadre de cette situation opérationnelle, dispose des moyens techniques pour prendre en charge la carte vitale ou pas. 0 : pas de prise en charge de la carte vitale1 : prise en charge de la carte vitale.</t>
   </si>
   <si>
     <t>SituationOperationnelle.telecommunication</t>
   </si>
   <si>
-    <t xml:space="preserve"> Adresse de télécommunication du professionnel dans le cadre de l'offre décrite.</t>
+    <t>Adresse de télécommunication du professionnel dans le cadre de l'offre décrite.</t>
   </si>
   <si>
     <t>Specialite</t>
@@ -2021,7 +2021,7 @@
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Specialite</t>
   </si>
   <si>
-    <t xml:space="preserve"> Spécialité médicale ou odontologique, reconnue par une autorité d'enregistrement (Ordre ou SSA), soit sur la base d'un diplôme de spécialité (DES ou DESC de groupe II, CES jusqu'en 1991), soit via une commission de qualification.En France, l'exercice d'une spécialité est exclusif, c'est-à-dire qu'on ne peut exercer qu'une seule spécialité, celle qui fait l'objet d'une qualification par le Conseil de l'ordre. Un médecin titulaire d'un DESC de type II qui s'ajoute à son DES, a donc 2 qualifications possibles. Lorsqu'il s'inscrit au tableau de l'ordre des médecins, il doit déclarer sa spécialité d'exercice. S'il choisit celle de son DESC, il ne peut pas exercer la spécialité de son DES. Toutefois, il peut, dans le futur, choisir le retour à la spécialité originelle portée par le DES. Ainsi, la création en 2004 du DESC de Gériatrie a marqué la naissance de la qualification de spécialiste en gériatrie (la gériatrie étant auparavant un mode d'exercice particulier de la médecine, concernant des généralistes et des spécialistes).Dans le cadre du modèle, une spécialité est un type de savoir-faire. La classe Specialite est représentée dans le modèle comme une spécialisation de la classe SavoirFaire et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
+    <t>Spécialité médicale ou odontologique, reconnue par une autorité d'enregistrement (Ordre ou SSA), soit sur la base d'un diplôme de spécialité (DES ou DESC de groupe II, CES jusqu'en 1991), soit via une commission de qualification.En France, l'exercice d'une spécialité est exclusif, c'est-à-dire qu'on ne peut exercer qu'une seule spécialité, celle qui fait l'objet d'une qualification par le Conseil de l'ordre. Un médecin titulaire d'un DESC de type II qui s'ajoute à son DES, a donc 2 qualifications possibles. Lorsqu'il s'inscrit au tableau de l'ordre des médecins, il doit déclarer sa spécialité d'exercice. S'il choisit celle de son DESC, il ne peut pas exercer la spécialité de son DES. Toutefois, il peut, dans le futur, choisir le retour à la spécialité originelle portée par le DES. Ainsi, la création en 2004 du DESC de Gériatrie a marqué la naissance de la qualification de spécialiste en gériatrie (la gériatrie étant auparavant un mode d'exercice particulier de la médecine, concernant des généralistes et des spécialistes).Dans le cadre du modèle, une spécialité est un type de savoir-faire. La classe Specialite est représentée dans le modèle comme une spécialisation de la classe SavoirFaire et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
   </si>
   <si>
     <t>Specialite.typeSavoirFaire</t>
@@ -2036,7 +2036,7 @@
     <t>Specialite.specialite</t>
   </si>
   <si>
-    <t xml:space="preserve"> Spécialité ordinale.</t>
+    <t>Spécialité ordinale.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/specialite-vs</t>
@@ -2048,7 +2048,7 @@
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/SurspecialiteTransversale</t>
   </si>
   <si>
-    <t xml:space="preserve"> La surspécialité transversale est le droit d’exercice complémentaire au sein de la spécialité du médecin, donné par une formation spécialisée transversale (FST). La formation spécialisée transversale est une formation venant compléter le cursus de l’interne à partir de la phase d’approfondissement, et lui permet d’acquérir les compétences pour exercer la surspécialité correspondante dans le cadre de sa spécialité.</t>
+    <t>La surspécialité transversale est le droit d’exercice complémentaire au sein de la spécialité du médecin, donné par une formation spécialisée transversale (FST). La formation spécialisée transversale est une formation venant compléter le cursus de l’interne à partir de la phase d’approfondissement, et lui permet d’acquérir les compétences pour exercer la surspécialité correspondante dans le cadre de sa spécialité.</t>
   </si>
   <si>
     <t>SurspecialiteTransversale.typeSavoirFaire</t>
@@ -2063,7 +2063,7 @@
     <t>SurspecialiteTransversale.surspecialiteTransversale</t>
   </si>
   <si>
-    <t xml:space="preserve"> Surspécialité acquise par le professionnel en supplément de la spécialité de DES.</t>
+    <t>Surspécialité acquise par le professionnel en supplément de la spécialité de DES.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/surspecialiteTransversale-vs</t>
@@ -2075,13 +2075,13 @@
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Telecommunication</t>
   </si>
   <si>
-    <t xml:space="preserve"> Adresse de télécommunication à laquelle une personne ou une organisation peut être contactée  (téléphone, fax, e-mail, URL, etc.).</t>
+    <t>Adresse de télécommunication à laquelle une personne ou une organisation peut être contactée  (téléphone, fax, e-mail, URL, etc.).</t>
   </si>
   <si>
     <t>Telecommunication.canal</t>
   </si>
   <si>
-    <t xml:space="preserve"> Code spécifiant le canal ou la manière dont s'établit la communication (téléphone, e-mail, URL, etc.).Quelques exemples de codes:** MOB: Téléphone mobile;** FIX: Téléphone fixe;** EML: Courrier électronique;** URL: Uniform Resource Location;** FTP: File Transfer Protocol;** FAX: Télécopie.</t>
+    <t>Code spécifiant le canal ou la manière dont s'établit la communication (téléphone, e-mail, URL, etc.).Quelques exemples de codes:** MOB: Téléphone mobile;** FIX: Téléphone fixe;** EML: Courrier électronique;** URL: Uniform Resource Location;** FTP: File Transfer Protocol;** FAX: Télécopie.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R200-CanalCommunication?vs</t>
@@ -2090,13 +2090,13 @@
     <t>Telecommunication.adresseTelecom</t>
   </si>
   <si>
-    <t xml:space="preserve"> Valeur de l'adresse de télécommunication dans le format induit par le canal de communication, par exemple un numéro de téléphone, une adresse de courrier électronique, une adresse URL, etc.</t>
+    <t>Valeur de l'adresse de télécommunication dans le format induit par le canal de communication, par exemple un numéro de téléphone, une adresse de courrier électronique, une adresse URL, etc.</t>
   </si>
   <si>
     <t>Telecommunication.typeMessagerie</t>
   </si>
   <si>
-    <t xml:space="preserve"> Type de messagerie électronique rassemblant des acteurs (personne physique, personne morale ou système) identifiés et enregistrés selon des règles qui garantissent leur légitimité à l'utiliser. L'échange de messages obéit à des spécifications fonctionnelles et techniques propres à ce type de messagerie.</t>
+    <t>Type de messagerie électronique rassemblant des acteurs (personne physique, personne morale ou système) identifiés et enregistrés selon des règles qui garantissent leur légitimité à l'utiliser. L'échange de messages obéit à des spécifications fonctionnelles et techniques propres à ce type de messagerie.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R256-TypeMessagerie?vs</t>
@@ -2105,13 +2105,13 @@
     <t>Telecommunication.utilisation</t>
   </si>
   <si>
-    <t xml:space="preserve"> Précise l'utilisation du canal de communication (par exemple à des fins professionnelles, privées, etc.).</t>
+    <t>Précise l'utilisation du canal de communication (par exemple à des fins professionnelles, privées, etc.).</t>
   </si>
   <si>
     <t>Telecommunication.niveauConfidentialite</t>
   </si>
   <si>
-    <t xml:space="preserve"> Le niveau de confidentialité permet de définir le niveau de restriction de l'accès aux attributs de la classe Telecommunication.</t>
+    <t>Le niveau de confidentialité permet de définir le niveau de restriction de l'accès aux attributs de la classe Telecommunication.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R283-NiveauConfidentialite?vs</t>

--- a/poc-professionnel/ig/all-profiles.xlsx
+++ b/poc-professionnel/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-23T06:24:09+00:00</t>
+    <t>2025-07-24T12:59:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/all-profiles.xlsx
+++ b/poc-professionnel/ig/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10742" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10838" uniqueCount="702">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T12:59:21+00:00</t>
+    <t>2025-07-24T13:17:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1302,6 +1302,16 @@
     <t>Date à laquelle le niveau de formation n’est plus actif (non visible hormis dans les données historisées). Cette date est renseignée par l’ordre à la clôture de l’exercice professionnel.</t>
   </si>
   <si>
+    <t>ExerciceProfessionnel.professionnel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Professionnel)
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe Professionnel.</t>
+  </si>
+  <si>
     <t>FonctionQualifiee</t>
   </si>
   <si>
@@ -1948,6 +1958,16 @@
     <t>Boîte(s) aux lettres du service de messagerie sécurisée de santé (MSS) rattachée(s) à la situation d'exercice.</t>
   </si>
   <si>
+    <t>SituationExercice.exerciceProfessionnel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/ExerciceProfessionnel)
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe ExerciceProfessionnel.</t>
+  </si>
+  <si>
     <t>SituationOperationnelle</t>
   </si>
   <si>
@@ -2013,6 +2033,9 @@
   </si>
   <si>
     <t>Adresse de télécommunication du professionnel dans le cadre de l'offre décrite.</t>
+  </si>
+  <si>
+    <t>SituationOperationnelle.exerciceProfessionnel</t>
   </si>
   <si>
     <t>Specialite</t>
@@ -5951,7 +5974,7 @@
         <v>2</v>
       </c>
       <c r="B485" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="486">
@@ -5959,7 +5982,7 @@
         <v>4</v>
       </c>
       <c r="B486" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="487">
@@ -5975,7 +5998,7 @@
         <v>8</v>
       </c>
       <c r="B488" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="489">
@@ -5983,7 +6006,7 @@
         <v>9</v>
       </c>
       <c r="B489" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="490">
@@ -6071,7 +6094,7 @@
         <v>28</v>
       </c>
       <c r="B501" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="502">
@@ -6111,7 +6134,7 @@
         <v>2</v>
       </c>
       <c r="B506" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="507">
@@ -6119,7 +6142,7 @@
         <v>4</v>
       </c>
       <c r="B507" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="508">
@@ -6135,7 +6158,7 @@
         <v>8</v>
       </c>
       <c r="B509" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="510">
@@ -6143,7 +6166,7 @@
         <v>9</v>
       </c>
       <c r="B510" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="511">
@@ -6231,7 +6254,7 @@
         <v>28</v>
       </c>
       <c r="B522" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="523">
@@ -6271,7 +6294,7 @@
         <v>2</v>
       </c>
       <c r="B527" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="528">
@@ -6279,7 +6302,7 @@
         <v>4</v>
       </c>
       <c r="B528" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="529">
@@ -6295,7 +6318,7 @@
         <v>8</v>
       </c>
       <c r="B530" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="531">
@@ -6303,7 +6326,7 @@
         <v>9</v>
       </c>
       <c r="B531" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="532">
@@ -6391,7 +6414,7 @@
         <v>28</v>
       </c>
       <c r="B543" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="544">
@@ -6431,7 +6454,7 @@
         <v>2</v>
       </c>
       <c r="B548" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="549">
@@ -6439,7 +6462,7 @@
         <v>4</v>
       </c>
       <c r="B549" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="550">
@@ -6455,7 +6478,7 @@
         <v>8</v>
       </c>
       <c r="B551" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="552">
@@ -6463,7 +6486,7 @@
         <v>9</v>
       </c>
       <c r="B552" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="553">
@@ -6551,7 +6574,7 @@
         <v>28</v>
       </c>
       <c r="B564" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="565">
@@ -6591,7 +6614,7 @@
         <v>2</v>
       </c>
       <c r="B569" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="570">
@@ -6599,7 +6622,7 @@
         <v>4</v>
       </c>
       <c r="B570" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="571">
@@ -6615,7 +6638,7 @@
         <v>8</v>
       </c>
       <c r="B572" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="573">
@@ -6623,7 +6646,7 @@
         <v>9</v>
       </c>
       <c r="B573" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="574">
@@ -6711,7 +6734,7 @@
         <v>28</v>
       </c>
       <c r="B585" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="586">
@@ -6751,7 +6774,7 @@
         <v>2</v>
       </c>
       <c r="B590" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="591">
@@ -6759,7 +6782,7 @@
         <v>4</v>
       </c>
       <c r="B591" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="592">
@@ -6775,7 +6798,7 @@
         <v>8</v>
       </c>
       <c r="B593" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="594">
@@ -6783,7 +6806,7 @@
         <v>9</v>
       </c>
       <c r="B594" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="595">
@@ -6871,7 +6894,7 @@
         <v>28</v>
       </c>
       <c r="B606" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="607">
@@ -6911,7 +6934,7 @@
         <v>2</v>
       </c>
       <c r="B611" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="612">
@@ -6919,7 +6942,7 @@
         <v>4</v>
       </c>
       <c r="B612" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="613">
@@ -6935,7 +6958,7 @@
         <v>8</v>
       </c>
       <c r="B614" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="615">
@@ -6943,7 +6966,7 @@
         <v>9</v>
       </c>
       <c r="B615" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="616">
@@ -7031,7 +7054,7 @@
         <v>28</v>
       </c>
       <c r="B627" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="628">
@@ -7071,7 +7094,7 @@
         <v>2</v>
       </c>
       <c r="B632" t="s" s="2">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="633">
@@ -7079,7 +7102,7 @@
         <v>4</v>
       </c>
       <c r="B633" t="s" s="2">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="634">
@@ -7095,7 +7118,7 @@
         <v>8</v>
       </c>
       <c r="B635" t="s" s="2">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="636">
@@ -7103,7 +7126,7 @@
         <v>9</v>
       </c>
       <c r="B636" t="s" s="2">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="637">
@@ -7191,7 +7214,7 @@
         <v>28</v>
       </c>
       <c r="B648" t="s" s="2">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="649">
@@ -7231,7 +7254,7 @@
         <v>2</v>
       </c>
       <c r="B653" t="s" s="2">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="654">
@@ -7255,7 +7278,7 @@
         <v>8</v>
       </c>
       <c r="B656" t="s" s="2">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="657">
@@ -7263,7 +7286,7 @@
         <v>9</v>
       </c>
       <c r="B657" t="s" s="2">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="658">
@@ -7391,7 +7414,7 @@
         <v>2</v>
       </c>
       <c r="B674" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
     </row>
     <row r="675">
@@ -7399,7 +7422,7 @@
         <v>4</v>
       </c>
       <c r="B675" t="s" s="2">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="676">
@@ -7415,7 +7438,7 @@
         <v>8</v>
       </c>
       <c r="B677" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
     </row>
     <row r="678">
@@ -7423,7 +7446,7 @@
         <v>9</v>
       </c>
       <c r="B678" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
     </row>
     <row r="679">
@@ -7511,7 +7534,7 @@
         <v>28</v>
       </c>
       <c r="B690" t="s" s="2">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="691">
@@ -7551,7 +7574,7 @@
         <v>2</v>
       </c>
       <c r="B695" t="s" s="2">
-        <v>639</v>
+        <v>645</v>
       </c>
     </row>
     <row r="696">
@@ -7559,7 +7582,7 @@
         <v>4</v>
       </c>
       <c r="B696" t="s" s="2">
-        <v>640</v>
+        <v>646</v>
       </c>
     </row>
     <row r="697">
@@ -7575,7 +7598,7 @@
         <v>8</v>
       </c>
       <c r="B698" t="s" s="2">
-        <v>639</v>
+        <v>645</v>
       </c>
     </row>
     <row r="699">
@@ -7583,7 +7606,7 @@
         <v>9</v>
       </c>
       <c r="B699" t="s" s="2">
-        <v>639</v>
+        <v>645</v>
       </c>
     </row>
     <row r="700">
@@ -7671,7 +7694,7 @@
         <v>28</v>
       </c>
       <c r="B711" t="s" s="2">
-        <v>640</v>
+        <v>646</v>
       </c>
     </row>
     <row r="712">
@@ -7711,7 +7734,7 @@
         <v>2</v>
       </c>
       <c r="B716" t="s" s="2">
-        <v>661</v>
+        <v>668</v>
       </c>
     </row>
     <row r="717">
@@ -7719,7 +7742,7 @@
         <v>4</v>
       </c>
       <c r="B717" t="s" s="2">
-        <v>662</v>
+        <v>669</v>
       </c>
     </row>
     <row r="718">
@@ -7735,7 +7758,7 @@
         <v>8</v>
       </c>
       <c r="B719" t="s" s="2">
-        <v>661</v>
+        <v>668</v>
       </c>
     </row>
     <row r="720">
@@ -7743,7 +7766,7 @@
         <v>9</v>
       </c>
       <c r="B720" t="s" s="2">
-        <v>661</v>
+        <v>668</v>
       </c>
     </row>
     <row r="721">
@@ -7831,7 +7854,7 @@
         <v>28</v>
       </c>
       <c r="B732" t="s" s="2">
-        <v>662</v>
+        <v>669</v>
       </c>
     </row>
     <row r="733">
@@ -7871,7 +7894,7 @@
         <v>2</v>
       </c>
       <c r="B737" t="s" s="2">
-        <v>670</v>
+        <v>677</v>
       </c>
     </row>
     <row r="738">
@@ -7879,7 +7902,7 @@
         <v>4</v>
       </c>
       <c r="B738" t="s" s="2">
-        <v>671</v>
+        <v>678</v>
       </c>
     </row>
     <row r="739">
@@ -7895,7 +7918,7 @@
         <v>8</v>
       </c>
       <c r="B740" t="s" s="2">
-        <v>670</v>
+        <v>677</v>
       </c>
     </row>
     <row r="741">
@@ -7903,7 +7926,7 @@
         <v>9</v>
       </c>
       <c r="B741" t="s" s="2">
-        <v>670</v>
+        <v>677</v>
       </c>
     </row>
     <row r="742">
@@ -7991,7 +8014,7 @@
         <v>28</v>
       </c>
       <c r="B753" t="s" s="2">
-        <v>671</v>
+        <v>678</v>
       </c>
     </row>
     <row r="754">
@@ -8031,7 +8054,7 @@
         <v>2</v>
       </c>
       <c r="B758" t="s" s="2">
-        <v>679</v>
+        <v>686</v>
       </c>
     </row>
     <row r="759">
@@ -8039,7 +8062,7 @@
         <v>4</v>
       </c>
       <c r="B759" t="s" s="2">
-        <v>680</v>
+        <v>687</v>
       </c>
     </row>
     <row r="760">
@@ -8055,7 +8078,7 @@
         <v>8</v>
       </c>
       <c r="B761" t="s" s="2">
-        <v>679</v>
+        <v>686</v>
       </c>
     </row>
     <row r="762">
@@ -8063,7 +8086,7 @@
         <v>9</v>
       </c>
       <c r="B762" t="s" s="2">
-        <v>679</v>
+        <v>686</v>
       </c>
     </row>
     <row r="763">
@@ -8151,7 +8174,7 @@
         <v>28</v>
       </c>
       <c r="B774" t="s" s="2">
-        <v>680</v>
+        <v>687</v>
       </c>
     </row>
     <row r="775">
@@ -8185,7 +8208,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK294"/>
+  <dimension ref="A1:AK297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -26029,7 +26052,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>426</v>
+        <v>357</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>426</v>
@@ -26043,10 +26066,10 @@
       </c>
       <c r="F175" s="2"/>
       <c r="G175" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H175" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I175" t="s" s="2">
         <v>71</v>
@@ -26058,7 +26081,7 @@
         <v>71</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>74</v>
+        <v>427</v>
       </c>
       <c r="M175" t="s" s="2">
         <v>428</v>
@@ -26115,13 +26138,13 @@
         <v>71</v>
       </c>
       <c r="AG175" t="s" s="2">
-        <v>76</v>
+        <v>426</v>
       </c>
       <c r="AH175" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AI175" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AJ175" t="s" s="2">
         <v>71</v>
@@ -26132,7 +26155,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>429</v>
@@ -26149,7 +26172,7 @@
         <v>72</v>
       </c>
       <c r="H176" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I176" t="s" s="2">
         <v>71</v>
@@ -26161,13 +26184,13 @@
         <v>71</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>198</v>
+        <v>431</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>198</v>
+        <v>431</v>
       </c>
       <c r="O176" s="2"/>
       <c r="P176" s="2"/>
@@ -26194,11 +26217,13 @@
         <v>71</v>
       </c>
       <c r="Y176" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="Z176" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z176" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA176" t="s" s="2">
-        <v>199</v>
+        <v>71</v>
       </c>
       <c r="AB176" t="s" s="2">
         <v>71</v>
@@ -26216,13 +26241,13 @@
         <v>71</v>
       </c>
       <c r="AG176" t="s" s="2">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="AH176" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI176" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AJ176" t="s" s="2">
         <v>71</v>
@@ -26233,13 +26258,13 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" t="s" s="2">
@@ -26262,13 +26287,13 @@
         <v>71</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O177" s="2"/>
       <c r="P177" s="2"/>
@@ -26295,13 +26320,11 @@
         <v>71</v>
       </c>
       <c r="Y177" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z177" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="Z177" s="2"/>
       <c r="AA177" t="s" s="2">
-        <v>71</v>
+        <v>199</v>
       </c>
       <c r="AB177" t="s" s="2">
         <v>71</v>
@@ -26319,7 +26342,7 @@
         <v>71</v>
       </c>
       <c r="AG177" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AH177" t="s" s="2">
         <v>72</v>
@@ -26336,13 +26359,13 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" t="s" s="2">
@@ -26368,10 +26391,10 @@
         <v>142</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="O178" s="2"/>
       <c r="P178" s="2"/>
@@ -26422,7 +26445,7 @@
         <v>71</v>
       </c>
       <c r="AG178" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AH178" t="s" s="2">
         <v>72</v>
@@ -26439,13 +26462,13 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" t="s" s="2">
@@ -26468,13 +26491,13 @@
         <v>71</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>433</v>
+        <v>205</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>433</v>
+        <v>205</v>
       </c>
       <c r="O179" s="2"/>
       <c r="P179" s="2"/>
@@ -26501,11 +26524,13 @@
         <v>71</v>
       </c>
       <c r="Y179" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="Z179" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z179" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA179" t="s" s="2">
-        <v>434</v>
+        <v>71</v>
       </c>
       <c r="AB179" t="s" s="2">
         <v>71</v>
@@ -26523,7 +26548,7 @@
         <v>71</v>
       </c>
       <c r="AG179" t="s" s="2">
-        <v>432</v>
+        <v>206</v>
       </c>
       <c r="AH179" t="s" s="2">
         <v>72</v>
@@ -26540,7 +26565,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>435</v>
@@ -26557,7 +26582,7 @@
         <v>72</v>
       </c>
       <c r="H180" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I180" t="s" s="2">
         <v>71</v>
@@ -26569,13 +26594,13 @@
         <v>71</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="O180" s="2"/>
       <c r="P180" s="2"/>
@@ -26602,13 +26627,11 @@
         <v>71</v>
       </c>
       <c r="Y180" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z180" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="Z180" s="2"/>
       <c r="AA180" t="s" s="2">
-        <v>71</v>
+        <v>437</v>
       </c>
       <c r="AB180" t="s" s="2">
         <v>71</v>
@@ -26626,13 +26649,13 @@
         <v>71</v>
       </c>
       <c r="AG180" t="s" s="2">
-        <v>76</v>
+        <v>435</v>
       </c>
       <c r="AH180" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI180" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AJ180" t="s" s="2">
         <v>71</v>
@@ -26643,7 +26666,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>438</v>
@@ -26660,7 +26683,7 @@
         <v>72</v>
       </c>
       <c r="H181" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I181" t="s" s="2">
         <v>71</v>
@@ -26672,13 +26695,13 @@
         <v>71</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>134</v>
+        <v>440</v>
       </c>
       <c r="N181" t="s" s="2">
-        <v>134</v>
+        <v>440</v>
       </c>
       <c r="O181" s="2"/>
       <c r="P181" s="2"/>
@@ -26705,11 +26728,13 @@
         <v>71</v>
       </c>
       <c r="Y181" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="Z181" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z181" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA181" t="s" s="2">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="AB181" t="s" s="2">
         <v>71</v>
@@ -26727,13 +26752,13 @@
         <v>71</v>
       </c>
       <c r="AG181" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AH181" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI181" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AJ181" t="s" s="2">
         <v>71</v>
@@ -26744,13 +26769,13 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" t="s" s="2">
@@ -26776,10 +26801,10 @@
         <v>92</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N182" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="O182" s="2"/>
       <c r="P182" s="2"/>
@@ -26810,7 +26835,7 @@
       </c>
       <c r="Z182" s="2"/>
       <c r="AA182" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AB182" t="s" s="2">
         <v>71</v>
@@ -26828,7 +26853,7 @@
         <v>71</v>
       </c>
       <c r="AG182" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AH182" t="s" s="2">
         <v>72</v>
@@ -26845,13 +26870,13 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
@@ -26874,13 +26899,13 @@
         <v>71</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="O183" s="2"/>
       <c r="P183" s="2"/>
@@ -26907,13 +26932,11 @@
         <v>71</v>
       </c>
       <c r="Y183" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z183" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="Z183" s="2"/>
       <c r="AA183" t="s" s="2">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="AB183" t="s" s="2">
         <v>71</v>
@@ -26931,7 +26954,7 @@
         <v>71</v>
       </c>
       <c r="AG183" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AH183" t="s" s="2">
         <v>72</v>
@@ -26948,13 +26971,13 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" t="s" s="2">
@@ -26977,13 +27000,13 @@
         <v>71</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O184" s="2"/>
       <c r="P184" s="2"/>
@@ -27034,7 +27057,7 @@
         <v>71</v>
       </c>
       <c r="AG184" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AH184" t="s" s="2">
         <v>72</v>
@@ -27051,13 +27074,13 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" t="s" s="2">
@@ -27080,13 +27103,13 @@
         <v>71</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>443</v>
+        <v>146</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>443</v>
+        <v>146</v>
       </c>
       <c r="O185" s="2"/>
       <c r="P185" s="2"/>
@@ -27113,11 +27136,13 @@
         <v>71</v>
       </c>
       <c r="Y185" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="Z185" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z185" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA185" t="s" s="2">
-        <v>444</v>
+        <v>71</v>
       </c>
       <c r="AB185" t="s" s="2">
         <v>71</v>
@@ -27135,7 +27160,7 @@
         <v>71</v>
       </c>
       <c r="AG185" t="s" s="2">
-        <v>442</v>
+        <v>147</v>
       </c>
       <c r="AH185" t="s" s="2">
         <v>72</v>
@@ -27152,7 +27177,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>445</v>
@@ -27169,7 +27194,7 @@
         <v>72</v>
       </c>
       <c r="H186" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I186" t="s" s="2">
         <v>71</v>
@@ -27181,13 +27206,13 @@
         <v>71</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="N186" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="O186" s="2"/>
       <c r="P186" s="2"/>
@@ -27214,13 +27239,11 @@
         <v>71</v>
       </c>
       <c r="Y186" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z186" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="Z186" s="2"/>
       <c r="AA186" t="s" s="2">
-        <v>71</v>
+        <v>447</v>
       </c>
       <c r="AB186" t="s" s="2">
         <v>71</v>
@@ -27238,13 +27261,13 @@
         <v>71</v>
       </c>
       <c r="AG186" t="s" s="2">
-        <v>76</v>
+        <v>445</v>
       </c>
       <c r="AH186" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI186" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AJ186" t="s" s="2">
         <v>71</v>
@@ -27255,7 +27278,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>448</v>
@@ -27272,7 +27295,7 @@
         <v>72</v>
       </c>
       <c r="H187" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I187" t="s" s="2">
         <v>71</v>
@@ -27284,7 +27307,7 @@
         <v>71</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>449</v>
+        <v>74</v>
       </c>
       <c r="M187" t="s" s="2">
         <v>450</v>
@@ -27341,13 +27364,13 @@
         <v>71</v>
       </c>
       <c r="AG187" t="s" s="2">
-        <v>448</v>
+        <v>76</v>
       </c>
       <c r="AH187" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI187" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AJ187" t="s" s="2">
         <v>71</v>
@@ -27358,7 +27381,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>451</v>
@@ -27387,13 +27410,13 @@
         <v>71</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>92</v>
+        <v>452</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O188" s="2"/>
       <c r="P188" s="2"/>
@@ -27420,11 +27443,13 @@
         <v>71</v>
       </c>
       <c r="Y188" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="Z188" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z188" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA188" t="s" s="2">
-        <v>453</v>
+        <v>71</v>
       </c>
       <c r="AB188" t="s" s="2">
         <v>71</v>
@@ -27459,7 +27484,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>454</v>
@@ -27488,7 +27513,7 @@
         <v>71</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>179</v>
+        <v>92</v>
       </c>
       <c r="M189" t="s" s="2">
         <v>455</v>
@@ -27521,13 +27546,11 @@
         <v>71</v>
       </c>
       <c r="Y189" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z189" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="Z189" s="2"/>
       <c r="AA189" t="s" s="2">
-        <v>71</v>
+        <v>456</v>
       </c>
       <c r="AB189" t="s" s="2">
         <v>71</v>
@@ -27562,13 +27585,13 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" t="s" s="2">
@@ -27591,7 +27614,7 @@
         <v>71</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>457</v>
+        <v>179</v>
       </c>
       <c r="M190" t="s" s="2">
         <v>458</v>
@@ -27648,7 +27671,7 @@
         <v>71</v>
       </c>
       <c r="AG190" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AH190" t="s" s="2">
         <v>72</v>
@@ -27665,7 +27688,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>459</v>
@@ -27768,7 +27791,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>462</v>
@@ -27797,13 +27820,13 @@
         <v>71</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O192" s="2"/>
       <c r="P192" s="2"/>
@@ -27871,13 +27894,13 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D193" s="2"/>
       <c r="E193" t="s" s="2">
@@ -27900,13 +27923,13 @@
         <v>71</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>92</v>
+        <v>463</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O193" s="2"/>
       <c r="P193" s="2"/>
@@ -27957,7 +27980,7 @@
         <v>71</v>
       </c>
       <c r="AG193" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AH193" t="s" s="2">
         <v>72</v>
@@ -27974,13 +27997,13 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C194" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" t="s" s="2">
@@ -28003,13 +28026,13 @@
         <v>71</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O194" s="2"/>
       <c r="P194" s="2"/>
@@ -28060,7 +28083,7 @@
         <v>71</v>
       </c>
       <c r="AG194" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AH194" t="s" s="2">
         <v>72</v>
@@ -28077,13 +28100,13 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C195" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" t="s" s="2">
@@ -28109,10 +28132,10 @@
         <v>142</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N195" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O195" s="2"/>
       <c r="P195" s="2"/>
@@ -28163,7 +28186,7 @@
         <v>71</v>
       </c>
       <c r="AG195" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AH195" t="s" s="2">
         <v>72</v>
@@ -28180,13 +28203,13 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" t="s" s="2">
@@ -28212,10 +28235,10 @@
         <v>142</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N196" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O196" s="2"/>
       <c r="P196" s="2"/>
@@ -28266,7 +28289,7 @@
         <v>71</v>
       </c>
       <c r="AG196" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AH196" t="s" s="2">
         <v>72</v>
@@ -28283,13 +28306,13 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" t="s" s="2">
@@ -28300,7 +28323,7 @@
         <v>72</v>
       </c>
       <c r="H197" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I197" t="s" s="2">
         <v>71</v>
@@ -28312,13 +28335,13 @@
         <v>71</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N197" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="O197" s="2"/>
       <c r="P197" s="2"/>
@@ -28369,13 +28392,13 @@
         <v>71</v>
       </c>
       <c r="AG197" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AH197" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI197" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AJ197" t="s" s="2">
         <v>71</v>
@@ -28386,13 +28409,13 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>474</v>
+        <v>448</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" t="s" s="2">
@@ -28415,7 +28438,7 @@
         <v>71</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="M198" t="s" s="2">
         <v>476</v>
@@ -28472,7 +28495,7 @@
         <v>71</v>
       </c>
       <c r="AG198" t="s" s="2">
-        <v>76</v>
+        <v>475</v>
       </c>
       <c r="AH198" t="s" s="2">
         <v>72</v>
@@ -28489,7 +28512,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>477</v>
@@ -28506,7 +28529,7 @@
         <v>72</v>
       </c>
       <c r="H199" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I199" t="s" s="2">
         <v>71</v>
@@ -28518,13 +28541,13 @@
         <v>71</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N199" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="O199" s="2"/>
       <c r="P199" s="2"/>
@@ -28551,11 +28574,13 @@
         <v>71</v>
       </c>
       <c r="Y199" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="Z199" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z199" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA199" t="s" s="2">
-        <v>479</v>
+        <v>71</v>
       </c>
       <c r="AB199" t="s" s="2">
         <v>71</v>
@@ -28573,13 +28598,13 @@
         <v>71</v>
       </c>
       <c r="AG199" t="s" s="2">
-        <v>477</v>
+        <v>76</v>
       </c>
       <c r="AH199" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI199" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AJ199" t="s" s="2">
         <v>71</v>
@@ -28590,7 +28615,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>480</v>
@@ -28619,7 +28644,7 @@
         <v>71</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="M200" t="s" s="2">
         <v>481</v>
@@ -28652,13 +28677,11 @@
         <v>71</v>
       </c>
       <c r="Y200" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z200" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="Z200" s="2"/>
       <c r="AA200" t="s" s="2">
-        <v>71</v>
+        <v>482</v>
       </c>
       <c r="AB200" t="s" s="2">
         <v>71</v>
@@ -28693,13 +28716,13 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" t="s" s="2">
@@ -28710,7 +28733,7 @@
         <v>72</v>
       </c>
       <c r="H201" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I201" t="s" s="2">
         <v>71</v>
@@ -28722,7 +28745,7 @@
         <v>71</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="M201" t="s" s="2">
         <v>484</v>
@@ -28779,13 +28802,13 @@
         <v>71</v>
       </c>
       <c r="AG201" t="s" s="2">
-        <v>76</v>
+        <v>483</v>
       </c>
       <c r="AH201" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI201" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AJ201" t="s" s="2">
         <v>71</v>
@@ -28796,7 +28819,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>485</v>
@@ -28813,7 +28836,7 @@
         <v>72</v>
       </c>
       <c r="H202" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I202" t="s" s="2">
         <v>71</v>
@@ -28825,13 +28848,13 @@
         <v>71</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>198</v>
+        <v>487</v>
       </c>
       <c r="N202" t="s" s="2">
-        <v>198</v>
+        <v>487</v>
       </c>
       <c r="O202" s="2"/>
       <c r="P202" s="2"/>
@@ -28858,11 +28881,13 @@
         <v>71</v>
       </c>
       <c r="Y202" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="Z202" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z202" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA202" t="s" s="2">
-        <v>199</v>
+        <v>71</v>
       </c>
       <c r="AB202" t="s" s="2">
         <v>71</v>
@@ -28880,13 +28905,13 @@
         <v>71</v>
       </c>
       <c r="AG202" t="s" s="2">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="AH202" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI202" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AJ202" t="s" s="2">
         <v>71</v>
@@ -28897,13 +28922,13 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" t="s" s="2">
@@ -28926,13 +28951,13 @@
         <v>71</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="N203" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O203" s="2"/>
       <c r="P203" s="2"/>
@@ -28959,13 +28984,11 @@
         <v>71</v>
       </c>
       <c r="Y203" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z203" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="Z203" s="2"/>
       <c r="AA203" t="s" s="2">
-        <v>71</v>
+        <v>199</v>
       </c>
       <c r="AB203" t="s" s="2">
         <v>71</v>
@@ -28983,7 +29006,7 @@
         <v>71</v>
       </c>
       <c r="AG203" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AH203" t="s" s="2">
         <v>72</v>
@@ -29000,13 +29023,13 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" t="s" s="2">
@@ -29032,10 +29055,10 @@
         <v>142</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N204" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="O204" s="2"/>
       <c r="P204" s="2"/>
@@ -29086,7 +29109,7 @@
         <v>71</v>
       </c>
       <c r="AG204" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AH204" t="s" s="2">
         <v>72</v>
@@ -29103,13 +29126,13 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" t="s" s="2">
@@ -29132,13 +29155,13 @@
         <v>71</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>489</v>
+        <v>205</v>
       </c>
       <c r="N205" t="s" s="2">
-        <v>489</v>
+        <v>205</v>
       </c>
       <c r="O205" s="2"/>
       <c r="P205" s="2"/>
@@ -29165,11 +29188,13 @@
         <v>71</v>
       </c>
       <c r="Y205" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="Z205" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z205" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA205" t="s" s="2">
-        <v>490</v>
+        <v>71</v>
       </c>
       <c r="AB205" t="s" s="2">
         <v>71</v>
@@ -29187,7 +29212,7 @@
         <v>71</v>
       </c>
       <c r="AG205" t="s" s="2">
-        <v>488</v>
+        <v>206</v>
       </c>
       <c r="AH205" t="s" s="2">
         <v>72</v>
@@ -29204,7 +29229,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>491</v>
@@ -29221,7 +29246,7 @@
         <v>72</v>
       </c>
       <c r="H206" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I206" t="s" s="2">
         <v>71</v>
@@ -29233,13 +29258,13 @@
         <v>71</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="O206" s="2"/>
       <c r="P206" s="2"/>
@@ -29266,13 +29291,11 @@
         <v>71</v>
       </c>
       <c r="Y206" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z206" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="Z206" s="2"/>
       <c r="AA206" t="s" s="2">
-        <v>71</v>
+        <v>493</v>
       </c>
       <c r="AB206" t="s" s="2">
         <v>71</v>
@@ -29290,13 +29313,13 @@
         <v>71</v>
       </c>
       <c r="AG206" t="s" s="2">
-        <v>76</v>
+        <v>491</v>
       </c>
       <c r="AH206" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI206" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AJ206" t="s" s="2">
         <v>71</v>
@@ -29307,7 +29330,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>494</v>
@@ -29324,7 +29347,7 @@
         <v>72</v>
       </c>
       <c r="H207" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I207" t="s" s="2">
         <v>71</v>
@@ -29336,13 +29359,13 @@
         <v>71</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="O207" s="2"/>
       <c r="P207" s="2"/>
@@ -29369,11 +29392,13 @@
         <v>71</v>
       </c>
       <c r="Y207" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="Z207" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z207" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA207" t="s" s="2">
-        <v>496</v>
+        <v>71</v>
       </c>
       <c r="AB207" t="s" s="2">
         <v>71</v>
@@ -29391,13 +29416,13 @@
         <v>71</v>
       </c>
       <c r="AG207" t="s" s="2">
-        <v>494</v>
+        <v>76</v>
       </c>
       <c r="AH207" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI207" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AJ207" t="s" s="2">
         <v>71</v>
@@ -29408,7 +29433,7 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>497</v>
@@ -29437,7 +29462,7 @@
         <v>71</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="M208" t="s" s="2">
         <v>498</v>
@@ -29470,13 +29495,11 @@
         <v>71</v>
       </c>
       <c r="Y208" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z208" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="Z208" s="2"/>
       <c r="AA208" t="s" s="2">
-        <v>71</v>
+        <v>499</v>
       </c>
       <c r="AB208" t="s" s="2">
         <v>71</v>
@@ -29511,13 +29534,13 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" t="s" s="2">
@@ -29543,10 +29566,10 @@
         <v>79</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O209" s="2"/>
       <c r="P209" s="2"/>
@@ -29597,7 +29620,7 @@
         <v>71</v>
       </c>
       <c r="AG209" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AH209" t="s" s="2">
         <v>72</v>
@@ -29614,13 +29637,13 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" t="s" s="2">
@@ -29631,7 +29654,7 @@
         <v>72</v>
       </c>
       <c r="H210" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I210" t="s" s="2">
         <v>71</v>
@@ -29646,10 +29669,10 @@
         <v>79</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="O210" s="2"/>
       <c r="P210" s="2"/>
@@ -29700,13 +29723,13 @@
         <v>71</v>
       </c>
       <c r="AG210" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AH210" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI210" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AJ210" t="s" s="2">
         <v>71</v>
@@ -29717,13 +29740,13 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" t="s" s="2">
@@ -29734,7 +29757,7 @@
         <v>72</v>
       </c>
       <c r="H211" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I211" t="s" s="2">
         <v>71</v>
@@ -29749,10 +29772,10 @@
         <v>79</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="N211" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O211" s="2"/>
       <c r="P211" s="2"/>
@@ -29803,13 +29826,13 @@
         <v>71</v>
       </c>
       <c r="AG211" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AH211" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI211" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AJ211" t="s" s="2">
         <v>71</v>
@@ -29820,13 +29843,13 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" t="s" s="2">
@@ -29852,10 +29875,10 @@
         <v>79</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N212" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="O212" s="2"/>
       <c r="P212" s="2"/>
@@ -29906,7 +29929,7 @@
         <v>71</v>
       </c>
       <c r="AG212" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AH212" t="s" s="2">
         <v>72</v>
@@ -29923,13 +29946,13 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" t="s" s="2">
@@ -29955,10 +29978,10 @@
         <v>79</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="N213" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O213" s="2"/>
       <c r="P213" s="2"/>
@@ -30009,7 +30032,7 @@
         <v>71</v>
       </c>
       <c r="AG213" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AH213" t="s" s="2">
         <v>72</v>
@@ -30026,13 +30049,13 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C214" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" t="s" s="2">
@@ -30055,13 +30078,13 @@
         <v>71</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N214" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O214" s="2"/>
       <c r="P214" s="2"/>
@@ -30088,11 +30111,13 @@
         <v>71</v>
       </c>
       <c r="Y214" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="Z214" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z214" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA214" t="s" s="2">
-        <v>511</v>
+        <v>71</v>
       </c>
       <c r="AB214" t="s" s="2">
         <v>71</v>
@@ -30110,7 +30135,7 @@
         <v>71</v>
       </c>
       <c r="AG214" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AH214" t="s" s="2">
         <v>72</v>
@@ -30127,7 +30152,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>512</v>
@@ -30228,7 +30253,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>515</v>
@@ -30245,7 +30270,7 @@
         <v>72</v>
       </c>
       <c r="H216" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I216" t="s" s="2">
         <v>71</v>
@@ -30257,13 +30282,13 @@
         <v>71</v>
       </c>
       <c r="L216" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M216" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="M216" t="s" s="2">
-        <v>517</v>
-      </c>
       <c r="N216" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="O216" s="2"/>
       <c r="P216" s="2"/>
@@ -30290,13 +30315,11 @@
         <v>71</v>
       </c>
       <c r="Y216" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z216" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="Z216" s="2"/>
       <c r="AA216" t="s" s="2">
-        <v>71</v>
+        <v>517</v>
       </c>
       <c r="AB216" t="s" s="2">
         <v>71</v>
@@ -30320,7 +30343,7 @@
         <v>72</v>
       </c>
       <c r="AI216" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AJ216" t="s" s="2">
         <v>71</v>
@@ -30331,7 +30354,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>518</v>
@@ -30348,7 +30371,7 @@
         <v>72</v>
       </c>
       <c r="H217" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I217" t="s" s="2">
         <v>71</v>
@@ -30360,13 +30383,13 @@
         <v>71</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>92</v>
+        <v>519</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="O217" s="2"/>
       <c r="P217" s="2"/>
@@ -30423,7 +30446,7 @@
         <v>72</v>
       </c>
       <c r="AI217" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AJ217" t="s" s="2">
         <v>71</v>
@@ -30434,13 +30457,13 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" t="s" s="2">
@@ -30463,13 +30486,13 @@
         <v>71</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O218" s="2"/>
       <c r="P218" s="2"/>
@@ -30520,7 +30543,7 @@
         <v>71</v>
       </c>
       <c r="AG218" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AH218" t="s" s="2">
         <v>72</v>
@@ -30537,13 +30560,13 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C219" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" t="s" s="2">
@@ -30569,10 +30592,10 @@
         <v>142</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="O219" s="2"/>
       <c r="P219" s="2"/>
@@ -30623,7 +30646,7 @@
         <v>71</v>
       </c>
       <c r="AG219" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AH219" t="s" s="2">
         <v>72</v>
@@ -30640,13 +30663,13 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" t="s" s="2">
@@ -30669,13 +30692,13 @@
         <v>71</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N220" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="O220" s="2"/>
       <c r="P220" s="2"/>
@@ -30702,11 +30725,13 @@
         <v>71</v>
       </c>
       <c r="Y220" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="Z220" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z220" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA220" t="s" s="2">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="AB220" t="s" s="2">
         <v>71</v>
@@ -30724,7 +30749,7 @@
         <v>71</v>
       </c>
       <c r="AG220" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AH220" t="s" s="2">
         <v>72</v>
@@ -30741,13 +30766,13 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" t="s" s="2">
@@ -30773,10 +30798,10 @@
         <v>92</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N221" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O221" s="2"/>
       <c r="P221" s="2"/>
@@ -30807,7 +30832,7 @@
       </c>
       <c r="Z221" s="2"/>
       <c r="AA221" t="s" s="2">
-        <v>382</v>
+        <v>108</v>
       </c>
       <c r="AB221" t="s" s="2">
         <v>71</v>
@@ -30825,7 +30850,7 @@
         <v>71</v>
       </c>
       <c r="AG221" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AH221" t="s" s="2">
         <v>72</v>
@@ -30842,13 +30867,13 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C222" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" t="s" s="2">
@@ -30874,10 +30899,10 @@
         <v>92</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="N222" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O222" s="2"/>
       <c r="P222" s="2"/>
@@ -30908,7 +30933,7 @@
       </c>
       <c r="Z222" s="2"/>
       <c r="AA222" t="s" s="2">
-        <v>530</v>
+        <v>382</v>
       </c>
       <c r="AB222" t="s" s="2">
         <v>71</v>
@@ -30926,7 +30951,7 @@
         <v>71</v>
       </c>
       <c r="AG222" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AH222" t="s" s="2">
         <v>72</v>
@@ -30943,7 +30968,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>531</v>
@@ -31044,7 +31069,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>534</v>
@@ -31145,7 +31170,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>537</v>
@@ -31174,7 +31199,7 @@
         <v>71</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="M225" t="s" s="2">
         <v>538</v>
@@ -31207,13 +31232,11 @@
         <v>71</v>
       </c>
       <c r="Y225" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z225" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="Z225" s="2"/>
       <c r="AA225" t="s" s="2">
-        <v>71</v>
+        <v>539</v>
       </c>
       <c r="AB225" t="s" s="2">
         <v>71</v>
@@ -31248,13 +31271,13 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C226" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" t="s" s="2">
@@ -31280,10 +31303,10 @@
         <v>142</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N226" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="O226" s="2"/>
       <c r="P226" s="2"/>
@@ -31334,7 +31357,7 @@
         <v>71</v>
       </c>
       <c r="AG226" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH226" t="s" s="2">
         <v>72</v>
@@ -31351,13 +31374,13 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C227" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" t="s" s="2">
@@ -31380,13 +31403,13 @@
         <v>71</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="O227" s="2"/>
       <c r="P227" s="2"/>
@@ -31413,11 +31436,13 @@
         <v>71</v>
       </c>
       <c r="Y227" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="Z227" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z227" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA227" t="s" s="2">
-        <v>543</v>
+        <v>71</v>
       </c>
       <c r="AB227" t="s" s="2">
         <v>71</v>
@@ -31435,7 +31460,7 @@
         <v>71</v>
       </c>
       <c r="AG227" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AH227" t="s" s="2">
         <v>72</v>
@@ -31452,7 +31477,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>544</v>
@@ -31553,7 +31578,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>547</v>
@@ -31654,7 +31679,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>550</v>
@@ -31716,13 +31741,11 @@
         <v>71</v>
       </c>
       <c r="Y230" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z230" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="Z230" s="2"/>
       <c r="AA230" t="s" s="2">
-        <v>71</v>
+        <v>552</v>
       </c>
       <c r="AB230" t="s" s="2">
         <v>71</v>
@@ -31757,13 +31780,13 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C231" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" t="s" s="2">
@@ -31786,7 +31809,7 @@
         <v>71</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>553</v>
+        <v>92</v>
       </c>
       <c r="M231" t="s" s="2">
         <v>554</v>
@@ -31843,7 +31866,7 @@
         <v>71</v>
       </c>
       <c r="AG231" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AH231" t="s" s="2">
         <v>72</v>
@@ -31860,7 +31883,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>555</v>
@@ -31889,13 +31912,13 @@
         <v>71</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N232" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="O232" s="2"/>
       <c r="P232" s="2"/>
@@ -31963,13 +31986,13 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C233" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" t="s" s="2">
@@ -31992,13 +32015,13 @@
         <v>71</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="N233" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="O233" s="2"/>
       <c r="P233" s="2"/>
@@ -32049,7 +32072,7 @@
         <v>71</v>
       </c>
       <c r="AG233" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AH233" t="s" s="2">
         <v>72</v>
@@ -32066,13 +32089,13 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C234" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" t="s" s="2">
@@ -32095,13 +32118,13 @@
         <v>71</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="N234" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O234" s="2"/>
       <c r="P234" s="2"/>
@@ -32152,7 +32175,7 @@
         <v>71</v>
       </c>
       <c r="AG234" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AH234" t="s" s="2">
         <v>72</v>
@@ -32169,13 +32192,13 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>561</v>
+        <v>494</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C235" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" t="s" s="2">
@@ -32186,7 +32209,7 @@
         <v>72</v>
       </c>
       <c r="H235" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I235" t="s" s="2">
         <v>71</v>
@@ -32198,7 +32221,7 @@
         <v>71</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>74</v>
+        <v>556</v>
       </c>
       <c r="M235" t="s" s="2">
         <v>563</v>
@@ -32255,13 +32278,13 @@
         <v>71</v>
       </c>
       <c r="AG235" t="s" s="2">
-        <v>76</v>
+        <v>562</v>
       </c>
       <c r="AH235" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI235" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AJ235" t="s" s="2">
         <v>71</v>
@@ -32272,7 +32295,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="B236" t="s" s="2">
         <v>564</v>
@@ -32289,7 +32312,7 @@
         <v>72</v>
       </c>
       <c r="H236" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I236" t="s" s="2">
         <v>71</v>
@@ -32301,13 +32324,13 @@
         <v>71</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>449</v>
+        <v>74</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N236" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="O236" s="2"/>
       <c r="P236" s="2"/>
@@ -32358,13 +32381,13 @@
         <v>71</v>
       </c>
       <c r="AG236" t="s" s="2">
-        <v>564</v>
+        <v>76</v>
       </c>
       <c r="AH236" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI236" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AJ236" t="s" s="2">
         <v>71</v>
@@ -32375,13 +32398,13 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C237" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" t="s" s="2">
@@ -32404,13 +32427,13 @@
         <v>71</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>92</v>
+        <v>452</v>
       </c>
       <c r="M237" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="N237" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="O237" s="2"/>
       <c r="P237" s="2"/>
@@ -32437,11 +32460,13 @@
         <v>71</v>
       </c>
       <c r="Y237" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="Z237" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z237" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA237" t="s" s="2">
-        <v>568</v>
+        <v>71</v>
       </c>
       <c r="AB237" t="s" s="2">
         <v>71</v>
@@ -32459,7 +32484,7 @@
         <v>71</v>
       </c>
       <c r="AG237" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AH237" t="s" s="2">
         <v>72</v>
@@ -32476,7 +32501,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="B238" t="s" s="2">
         <v>569</v>
@@ -32505,7 +32530,7 @@
         <v>71</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>449</v>
+        <v>92</v>
       </c>
       <c r="M238" t="s" s="2">
         <v>570</v>
@@ -32538,13 +32563,11 @@
         <v>71</v>
       </c>
       <c r="Y238" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z238" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="Z238" s="2"/>
       <c r="AA238" t="s" s="2">
-        <v>71</v>
+        <v>571</v>
       </c>
       <c r="AB238" t="s" s="2">
         <v>71</v>
@@ -32579,13 +32602,13 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C239" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D239" s="2"/>
       <c r="E239" t="s" s="2">
@@ -32608,7 +32631,7 @@
         <v>71</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>572</v>
+        <v>452</v>
       </c>
       <c r="M239" t="s" s="2">
         <v>573</v>
@@ -32665,7 +32688,7 @@
         <v>71</v>
       </c>
       <c r="AG239" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AH239" t="s" s="2">
         <v>72</v>
@@ -32682,7 +32705,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="B240" t="s" s="2">
         <v>574</v>
@@ -32699,7 +32722,7 @@
         <v>72</v>
       </c>
       <c r="H240" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I240" t="s" s="2">
         <v>71</v>
@@ -32711,13 +32734,13 @@
         <v>71</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>413</v>
+        <v>575</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N240" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="O240" s="2"/>
       <c r="P240" s="2"/>
@@ -32774,7 +32797,7 @@
         <v>72</v>
       </c>
       <c r="AI240" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AJ240" t="s" s="2">
         <v>71</v>
@@ -32785,13 +32808,13 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C241" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D241" s="2"/>
       <c r="E241" t="s" s="2">
@@ -32814,7 +32837,7 @@
         <v>71</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>577</v>
+        <v>413</v>
       </c>
       <c r="M241" t="s" s="2">
         <v>578</v>
@@ -32871,7 +32894,7 @@
         <v>71</v>
       </c>
       <c r="AG241" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AH241" t="s" s="2">
         <v>72</v>
@@ -32888,7 +32911,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="B242" t="s" s="2">
         <v>579</v>
@@ -32917,13 +32940,13 @@
         <v>71</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>165</v>
+        <v>580</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="N242" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="O242" s="2"/>
       <c r="P242" s="2"/>
@@ -32991,13 +33014,13 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C243" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D243" s="2"/>
       <c r="E243" t="s" s="2">
@@ -33020,13 +33043,13 @@
         <v>71</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>384</v>
+        <v>165</v>
       </c>
       <c r="M243" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="N243" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="O243" s="2"/>
       <c r="P243" s="2"/>
@@ -33077,7 +33100,7 @@
         <v>71</v>
       </c>
       <c r="AG243" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AH243" t="s" s="2">
         <v>72</v>
@@ -33094,13 +33117,13 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>583</v>
+        <v>564</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C244" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D244" s="2"/>
       <c r="E244" t="s" s="2">
@@ -33123,7 +33146,7 @@
         <v>71</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>74</v>
+        <v>384</v>
       </c>
       <c r="M244" t="s" s="2">
         <v>585</v>
@@ -33180,7 +33203,7 @@
         <v>71</v>
       </c>
       <c r="AG244" t="s" s="2">
-        <v>76</v>
+        <v>584</v>
       </c>
       <c r="AH244" t="s" s="2">
         <v>72</v>
@@ -33197,7 +33220,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B245" t="s" s="2">
         <v>586</v>
@@ -33214,7 +33237,7 @@
         <v>72</v>
       </c>
       <c r="H245" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I245" t="s" s="2">
         <v>71</v>
@@ -33226,13 +33249,13 @@
         <v>71</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>198</v>
+        <v>588</v>
       </c>
       <c r="N245" t="s" s="2">
-        <v>198</v>
+        <v>588</v>
       </c>
       <c r="O245" s="2"/>
       <c r="P245" s="2"/>
@@ -33259,11 +33282,13 @@
         <v>71</v>
       </c>
       <c r="Y245" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="Z245" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z245" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA245" t="s" s="2">
-        <v>199</v>
+        <v>71</v>
       </c>
       <c r="AB245" t="s" s="2">
         <v>71</v>
@@ -33281,13 +33306,13 @@
         <v>71</v>
       </c>
       <c r="AG245" t="s" s="2">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="AH245" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI245" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AJ245" t="s" s="2">
         <v>71</v>
@@ -33298,13 +33323,13 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C246" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D246" s="2"/>
       <c r="E246" t="s" s="2">
@@ -33327,13 +33352,13 @@
         <v>71</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="M246" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="N246" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O246" s="2"/>
       <c r="P246" s="2"/>
@@ -33360,13 +33385,11 @@
         <v>71</v>
       </c>
       <c r="Y246" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z246" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="Z246" s="2"/>
       <c r="AA246" t="s" s="2">
-        <v>71</v>
+        <v>199</v>
       </c>
       <c r="AB246" t="s" s="2">
         <v>71</v>
@@ -33384,7 +33407,7 @@
         <v>71</v>
       </c>
       <c r="AG246" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AH246" t="s" s="2">
         <v>72</v>
@@ -33401,13 +33424,13 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C247" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D247" s="2"/>
       <c r="E247" t="s" s="2">
@@ -33433,10 +33456,10 @@
         <v>142</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N247" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="O247" s="2"/>
       <c r="P247" s="2"/>
@@ -33487,7 +33510,7 @@
         <v>71</v>
       </c>
       <c r="AG247" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AH247" t="s" s="2">
         <v>72</v>
@@ -33504,13 +33527,13 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C248" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" t="s" s="2">
@@ -33533,13 +33556,13 @@
         <v>71</v>
       </c>
       <c r="L248" t="s" s="2">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="M248" t="s" s="2">
-        <v>590</v>
+        <v>205</v>
       </c>
       <c r="N248" t="s" s="2">
-        <v>590</v>
+        <v>205</v>
       </c>
       <c r="O248" s="2"/>
       <c r="P248" s="2"/>
@@ -33566,11 +33589,13 @@
         <v>71</v>
       </c>
       <c r="Y248" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="Z248" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z248" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA248" t="s" s="2">
-        <v>591</v>
+        <v>71</v>
       </c>
       <c r="AB248" t="s" s="2">
         <v>71</v>
@@ -33588,7 +33613,7 @@
         <v>71</v>
       </c>
       <c r="AG248" t="s" s="2">
-        <v>589</v>
+        <v>206</v>
       </c>
       <c r="AH248" t="s" s="2">
         <v>72</v>
@@ -33605,7 +33630,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="B249" t="s" s="2">
         <v>592</v>
@@ -33622,7 +33647,7 @@
         <v>72</v>
       </c>
       <c r="H249" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I249" t="s" s="2">
         <v>71</v>
@@ -33634,7 +33659,7 @@
         <v>71</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="M249" t="s" s="2">
         <v>593</v>
@@ -33667,13 +33692,11 @@
         <v>71</v>
       </c>
       <c r="Y249" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z249" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="Z249" s="2"/>
       <c r="AA249" t="s" s="2">
-        <v>71</v>
+        <v>594</v>
       </c>
       <c r="AB249" t="s" s="2">
         <v>71</v>
@@ -33691,13 +33714,13 @@
         <v>71</v>
       </c>
       <c r="AG249" t="s" s="2">
-        <v>76</v>
+        <v>592</v>
       </c>
       <c r="AH249" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI249" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AJ249" t="s" s="2">
         <v>71</v>
@@ -33708,13 +33731,13 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>200</v>
+        <v>595</v>
       </c>
       <c r="C250" t="s" s="2">
-        <v>200</v>
+        <v>595</v>
       </c>
       <c r="D250" s="2"/>
       <c r="E250" t="s" s="2">
@@ -33725,7 +33748,7 @@
         <v>72</v>
       </c>
       <c r="H250" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I250" t="s" s="2">
         <v>71</v>
@@ -33737,13 +33760,13 @@
         <v>71</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>198</v>
+        <v>596</v>
       </c>
       <c r="N250" t="s" s="2">
-        <v>198</v>
+        <v>596</v>
       </c>
       <c r="O250" s="2"/>
       <c r="P250" s="2"/>
@@ -33770,11 +33793,13 @@
         <v>71</v>
       </c>
       <c r="Y250" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="Z250" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z250" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA250" t="s" s="2">
-        <v>199</v>
+        <v>71</v>
       </c>
       <c r="AB250" t="s" s="2">
         <v>71</v>
@@ -33792,13 +33817,13 @@
         <v>71</v>
       </c>
       <c r="AG250" t="s" s="2">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="AH250" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI250" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AJ250" t="s" s="2">
         <v>71</v>
@@ -33809,13 +33834,13 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C251" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" t="s" s="2">
@@ -33838,13 +33863,13 @@
         <v>71</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="N251" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O251" s="2"/>
       <c r="P251" s="2"/>
@@ -33871,13 +33896,11 @@
         <v>71</v>
       </c>
       <c r="Y251" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z251" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="Z251" s="2"/>
       <c r="AA251" t="s" s="2">
-        <v>71</v>
+        <v>199</v>
       </c>
       <c r="AB251" t="s" s="2">
         <v>71</v>
@@ -33895,7 +33918,7 @@
         <v>71</v>
       </c>
       <c r="AG251" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AH251" t="s" s="2">
         <v>72</v>
@@ -33912,13 +33935,13 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C252" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D252" s="2"/>
       <c r="E252" t="s" s="2">
@@ -33944,10 +33967,10 @@
         <v>142</v>
       </c>
       <c r="M252" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N252" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="O252" s="2"/>
       <c r="P252" s="2"/>
@@ -33998,7 +34021,7 @@
         <v>71</v>
       </c>
       <c r="AG252" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AH252" t="s" s="2">
         <v>72</v>
@@ -34015,13 +34038,13 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>594</v>
+        <v>206</v>
       </c>
       <c r="C253" t="s" s="2">
-        <v>594</v>
+        <v>206</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" t="s" s="2">
@@ -34032,7 +34055,7 @@
         <v>72</v>
       </c>
       <c r="H253" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I253" t="s" s="2">
         <v>71</v>
@@ -34044,13 +34067,13 @@
         <v>71</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="M253" t="s" s="2">
-        <v>596</v>
+        <v>205</v>
       </c>
       <c r="N253" t="s" s="2">
-        <v>596</v>
+        <v>205</v>
       </c>
       <c r="O253" s="2"/>
       <c r="P253" s="2"/>
@@ -34101,13 +34124,13 @@
         <v>71</v>
       </c>
       <c r="AG253" t="s" s="2">
-        <v>76</v>
+        <v>206</v>
       </c>
       <c r="AH253" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI253" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AJ253" t="s" s="2">
         <v>71</v>
@@ -34118,7 +34141,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B254" t="s" s="2">
         <v>597</v>
@@ -34135,7 +34158,7 @@
         <v>72</v>
       </c>
       <c r="H254" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I254" t="s" s="2">
         <v>71</v>
@@ -34147,13 +34170,13 @@
         <v>71</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="M254" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="N254" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="O254" s="2"/>
       <c r="P254" s="2"/>
@@ -34180,11 +34203,13 @@
         <v>71</v>
       </c>
       <c r="Y254" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="Z254" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z254" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA254" t="s" s="2">
-        <v>599</v>
+        <v>71</v>
       </c>
       <c r="AB254" t="s" s="2">
         <v>71</v>
@@ -34202,13 +34227,13 @@
         <v>71</v>
       </c>
       <c r="AG254" t="s" s="2">
-        <v>597</v>
+        <v>76</v>
       </c>
       <c r="AH254" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI254" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AJ254" t="s" s="2">
         <v>71</v>
@@ -34219,7 +34244,7 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B255" t="s" s="2">
         <v>600</v>
@@ -34320,7 +34345,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B256" t="s" s="2">
         <v>603</v>
@@ -34421,7 +34446,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B257" t="s" s="2">
         <v>606</v>
@@ -34450,7 +34475,7 @@
         <v>71</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>449</v>
+        <v>92</v>
       </c>
       <c r="M257" t="s" s="2">
         <v>607</v>
@@ -34483,13 +34508,11 @@
         <v>71</v>
       </c>
       <c r="Y257" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z257" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="Z257" s="2"/>
       <c r="AA257" t="s" s="2">
-        <v>71</v>
+        <v>608</v>
       </c>
       <c r="AB257" t="s" s="2">
         <v>71</v>
@@ -34524,13 +34547,13 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C258" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" t="s" s="2">
@@ -34553,13 +34576,13 @@
         <v>71</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>142</v>
+        <v>452</v>
       </c>
       <c r="M258" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="N258" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O258" s="2"/>
       <c r="P258" s="2"/>
@@ -34610,7 +34633,7 @@
         <v>71</v>
       </c>
       <c r="AG258" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AH258" t="s" s="2">
         <v>72</v>
@@ -34627,13 +34650,13 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C259" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" t="s" s="2">
@@ -34659,10 +34682,10 @@
         <v>142</v>
       </c>
       <c r="M259" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="N259" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="O259" s="2"/>
       <c r="P259" s="2"/>
@@ -34713,7 +34736,7 @@
         <v>71</v>
       </c>
       <c r="AG259" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AH259" t="s" s="2">
         <v>72</v>
@@ -34730,13 +34753,13 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C260" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D260" s="2"/>
       <c r="E260" t="s" s="2">
@@ -34759,13 +34782,13 @@
         <v>71</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="M260" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="N260" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="O260" s="2"/>
       <c r="P260" s="2"/>
@@ -34792,11 +34815,13 @@
         <v>71</v>
       </c>
       <c r="Y260" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="Z260" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z260" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA260" t="s" s="2">
-        <v>614</v>
+        <v>71</v>
       </c>
       <c r="AB260" t="s" s="2">
         <v>71</v>
@@ -34814,7 +34839,7 @@
         <v>71</v>
       </c>
       <c r="AG260" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AH260" t="s" s="2">
         <v>72</v>
@@ -34831,7 +34856,7 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B261" t="s" s="2">
         <v>615</v>
@@ -34932,7 +34957,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B262" t="s" s="2">
         <v>618</v>
@@ -35033,7 +35058,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B263" t="s" s="2">
         <v>621</v>
@@ -35134,7 +35159,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B264" t="s" s="2">
         <v>624</v>
@@ -35235,7 +35260,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B265" t="s" s="2">
         <v>627</v>
@@ -35336,7 +35361,7 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B266" t="s" s="2">
         <v>630</v>
@@ -35437,7 +35462,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B267" t="s" s="2">
         <v>633</v>
@@ -35454,7 +35479,7 @@
         <v>72</v>
       </c>
       <c r="H267" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I267" t="s" s="2">
         <v>71</v>
@@ -35466,7 +35491,7 @@
         <v>71</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="M267" t="s" s="2">
         <v>634</v>
@@ -35499,13 +35524,11 @@
         <v>71</v>
       </c>
       <c r="Y267" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z267" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="Z267" s="2"/>
       <c r="AA267" t="s" s="2">
-        <v>71</v>
+        <v>635</v>
       </c>
       <c r="AB267" t="s" s="2">
         <v>71</v>
@@ -35529,7 +35552,7 @@
         <v>72</v>
       </c>
       <c r="AI267" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AJ267" t="s" s="2">
         <v>71</v>
@@ -35540,13 +35563,13 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C268" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D268" s="2"/>
       <c r="E268" t="s" s="2">
@@ -35569,13 +35592,13 @@
         <v>71</v>
       </c>
       <c r="L268" t="s" s="2">
-        <v>577</v>
+        <v>165</v>
       </c>
       <c r="M268" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N268" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O268" s="2"/>
       <c r="P268" s="2"/>
@@ -35626,7 +35649,7 @@
         <v>71</v>
       </c>
       <c r="AG268" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AH268" t="s" s="2">
         <v>72</v>
@@ -35643,13 +35666,13 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C269" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D269" s="2"/>
       <c r="E269" t="s" s="2">
@@ -35672,13 +35695,13 @@
         <v>71</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>384</v>
+        <v>580</v>
       </c>
       <c r="M269" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="N269" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="O269" s="2"/>
       <c r="P269" s="2"/>
@@ -35729,7 +35752,7 @@
         <v>71</v>
       </c>
       <c r="AG269" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AH269" t="s" s="2">
         <v>72</v>
@@ -35746,13 +35769,13 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>639</v>
+        <v>597</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C270" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" t="s" s="2">
@@ -35775,7 +35798,7 @@
         <v>71</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>74</v>
+        <v>384</v>
       </c>
       <c r="M270" t="s" s="2">
         <v>641</v>
@@ -35832,7 +35855,7 @@
         <v>71</v>
       </c>
       <c r="AG270" t="s" s="2">
-        <v>76</v>
+        <v>640</v>
       </c>
       <c r="AH270" t="s" s="2">
         <v>72</v>
@@ -35849,7 +35872,7 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>639</v>
+        <v>597</v>
       </c>
       <c r="B271" t="s" s="2">
         <v>642</v>
@@ -35863,7 +35886,7 @@
       </c>
       <c r="F271" s="2"/>
       <c r="G271" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H271" t="s" s="2">
         <v>78</v>
@@ -35878,13 +35901,13 @@
         <v>71</v>
       </c>
       <c r="L271" t="s" s="2">
-        <v>449</v>
+        <v>643</v>
       </c>
       <c r="M271" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="N271" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="O271" s="2"/>
       <c r="P271" s="2"/>
@@ -35938,7 +35961,7 @@
         <v>642</v>
       </c>
       <c r="AH271" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AI271" t="s" s="2">
         <v>78</v>
@@ -35952,13 +35975,13 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C272" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D272" s="2"/>
       <c r="E272" t="s" s="2">
@@ -35969,7 +35992,7 @@
         <v>72</v>
       </c>
       <c r="H272" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I272" t="s" s="2">
         <v>71</v>
@@ -35981,13 +36004,13 @@
         <v>71</v>
       </c>
       <c r="L272" t="s" s="2">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="M272" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="N272" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="O272" s="2"/>
       <c r="P272" s="2"/>
@@ -36014,11 +36037,13 @@
         <v>71</v>
       </c>
       <c r="Y272" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="Z272" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z272" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA272" t="s" s="2">
-        <v>605</v>
+        <v>71</v>
       </c>
       <c r="AB272" t="s" s="2">
         <v>71</v>
@@ -36036,13 +36061,13 @@
         <v>71</v>
       </c>
       <c r="AG272" t="s" s="2">
-        <v>644</v>
+        <v>76</v>
       </c>
       <c r="AH272" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI272" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AJ272" t="s" s="2">
         <v>71</v>
@@ -36053,13 +36078,13 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C273" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D273" s="2"/>
       <c r="E273" t="s" s="2">
@@ -36070,7 +36095,7 @@
         <v>72</v>
       </c>
       <c r="H273" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I273" t="s" s="2">
         <v>71</v>
@@ -36082,13 +36107,13 @@
         <v>71</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>92</v>
+        <v>452</v>
       </c>
       <c r="M273" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="N273" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="O273" s="2"/>
       <c r="P273" s="2"/>
@@ -36115,35 +36140,37 @@
         <v>71</v>
       </c>
       <c r="Y273" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="Z273" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z273" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA273" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB273" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC273" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD273" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE273" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF273" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG273" t="s" s="2">
         <v>648</v>
       </c>
-      <c r="AB273" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC273" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD273" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE273" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AF273" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AG273" t="s" s="2">
-        <v>646</v>
-      </c>
       <c r="AH273" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI273" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AJ273" t="s" s="2">
         <v>71</v>
@@ -36154,13 +36181,13 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C274" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D274" s="2"/>
       <c r="E274" t="s" s="2">
@@ -36183,7 +36210,7 @@
         <v>71</v>
       </c>
       <c r="L274" t="s" s="2">
-        <v>650</v>
+        <v>92</v>
       </c>
       <c r="M274" t="s" s="2">
         <v>651</v>
@@ -36216,13 +36243,11 @@
         <v>71</v>
       </c>
       <c r="Y274" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z274" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="Z274" s="2"/>
       <c r="AA274" t="s" s="2">
-        <v>71</v>
+        <v>608</v>
       </c>
       <c r="AB274" t="s" s="2">
         <v>71</v>
@@ -36240,7 +36265,7 @@
         <v>71</v>
       </c>
       <c r="AG274" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AH274" t="s" s="2">
         <v>72</v>
@@ -36257,7 +36282,7 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="B275" t="s" s="2">
         <v>652</v>
@@ -36274,7 +36299,7 @@
         <v>72</v>
       </c>
       <c r="H275" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I275" t="s" s="2">
         <v>71</v>
@@ -36347,7 +36372,7 @@
         <v>72</v>
       </c>
       <c r="AI275" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AJ275" t="s" s="2">
         <v>71</v>
@@ -36358,7 +36383,7 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="B276" t="s" s="2">
         <v>655</v>
@@ -36387,13 +36412,13 @@
         <v>71</v>
       </c>
       <c r="L276" t="s" s="2">
-        <v>179</v>
+        <v>656</v>
       </c>
       <c r="M276" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="N276" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="O276" s="2"/>
       <c r="P276" s="2"/>
@@ -36461,13 +36486,13 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C277" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D277" s="2"/>
       <c r="E277" t="s" s="2">
@@ -36490,13 +36515,13 @@
         <v>71</v>
       </c>
       <c r="L277" t="s" s="2">
-        <v>179</v>
+        <v>92</v>
       </c>
       <c r="M277" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="N277" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="O277" s="2"/>
       <c r="P277" s="2"/>
@@ -36523,13 +36548,11 @@
         <v>71</v>
       </c>
       <c r="Y277" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z277" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="Z277" s="2"/>
       <c r="AA277" t="s" s="2">
-        <v>71</v>
+        <v>660</v>
       </c>
       <c r="AB277" t="s" s="2">
         <v>71</v>
@@ -36547,7 +36570,7 @@
         <v>71</v>
       </c>
       <c r="AG277" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AH277" t="s" s="2">
         <v>72</v>
@@ -36564,13 +36587,13 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C278" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="D278" s="2"/>
       <c r="E278" t="s" s="2">
@@ -36593,13 +36616,13 @@
         <v>71</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="M278" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="N278" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="O278" s="2"/>
       <c r="P278" s="2"/>
@@ -36650,7 +36673,7 @@
         <v>71</v>
       </c>
       <c r="AG278" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="AH278" t="s" s="2">
         <v>72</v>
@@ -36667,13 +36690,13 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C279" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="D279" s="2"/>
       <c r="E279" t="s" s="2">
@@ -36684,7 +36707,7 @@
         <v>72</v>
       </c>
       <c r="H279" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I279" t="s" s="2">
         <v>71</v>
@@ -36696,13 +36719,13 @@
         <v>71</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>74</v>
+        <v>179</v>
       </c>
       <c r="M279" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="N279" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="O279" s="2"/>
       <c r="P279" s="2"/>
@@ -36753,13 +36776,13 @@
         <v>71</v>
       </c>
       <c r="AG279" t="s" s="2">
-        <v>76</v>
+        <v>663</v>
       </c>
       <c r="AH279" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI279" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AJ279" t="s" s="2">
         <v>71</v>
@@ -36770,13 +36793,13 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C280" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D280" s="2"/>
       <c r="E280" t="s" s="2">
@@ -36799,13 +36822,13 @@
         <v>71</v>
       </c>
       <c r="L280" t="s" s="2">
-        <v>92</v>
+        <v>165</v>
       </c>
       <c r="M280" t="s" s="2">
-        <v>198</v>
+        <v>666</v>
       </c>
       <c r="N280" t="s" s="2">
-        <v>198</v>
+        <v>666</v>
       </c>
       <c r="O280" s="2"/>
       <c r="P280" s="2"/>
@@ -36832,11 +36855,13 @@
         <v>71</v>
       </c>
       <c r="Y280" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="Z280" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z280" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA280" t="s" s="2">
-        <v>199</v>
+        <v>71</v>
       </c>
       <c r="AB280" t="s" s="2">
         <v>71</v>
@@ -36854,7 +36879,7 @@
         <v>71</v>
       </c>
       <c r="AG280" t="s" s="2">
-        <v>200</v>
+        <v>665</v>
       </c>
       <c r="AH280" t="s" s="2">
         <v>72</v>
@@ -36871,13 +36896,13 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C281" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="D281" s="2"/>
       <c r="E281" t="s" s="2">
@@ -36885,7 +36910,7 @@
       </c>
       <c r="F281" s="2"/>
       <c r="G281" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H281" t="s" s="2">
         <v>78</v>
@@ -36900,13 +36925,13 @@
         <v>71</v>
       </c>
       <c r="L281" t="s" s="2">
-        <v>142</v>
+        <v>643</v>
       </c>
       <c r="M281" t="s" s="2">
-        <v>202</v>
+        <v>644</v>
       </c>
       <c r="N281" t="s" s="2">
-        <v>202</v>
+        <v>644</v>
       </c>
       <c r="O281" s="2"/>
       <c r="P281" s="2"/>
@@ -36957,10 +36982,10 @@
         <v>71</v>
       </c>
       <c r="AG281" t="s" s="2">
-        <v>203</v>
+        <v>667</v>
       </c>
       <c r="AH281" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AI281" t="s" s="2">
         <v>78</v>
@@ -36974,13 +36999,13 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C282" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="D282" s="2"/>
       <c r="E282" t="s" s="2">
@@ -36991,7 +37016,7 @@
         <v>72</v>
       </c>
       <c r="H282" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I282" t="s" s="2">
         <v>71</v>
@@ -37003,13 +37028,13 @@
         <v>71</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="M282" t="s" s="2">
-        <v>205</v>
+        <v>670</v>
       </c>
       <c r="N282" t="s" s="2">
-        <v>205</v>
+        <v>670</v>
       </c>
       <c r="O282" s="2"/>
       <c r="P282" s="2"/>
@@ -37060,13 +37085,13 @@
         <v>71</v>
       </c>
       <c r="AG282" t="s" s="2">
-        <v>206</v>
+        <v>76</v>
       </c>
       <c r="AH282" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI282" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AJ282" t="s" s="2">
         <v>71</v>
@@ -37077,13 +37102,13 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="C283" t="s" s="2">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="D283" s="2"/>
       <c r="E283" t="s" s="2">
@@ -37109,10 +37134,10 @@
         <v>92</v>
       </c>
       <c r="M283" t="s" s="2">
-        <v>668</v>
+        <v>198</v>
       </c>
       <c r="N283" t="s" s="2">
-        <v>668</v>
+        <v>198</v>
       </c>
       <c r="O283" s="2"/>
       <c r="P283" s="2"/>
@@ -37143,7 +37168,7 @@
       </c>
       <c r="Z283" s="2"/>
       <c r="AA283" t="s" s="2">
-        <v>669</v>
+        <v>199</v>
       </c>
       <c r="AB283" t="s" s="2">
         <v>71</v>
@@ -37161,7 +37186,7 @@
         <v>71</v>
       </c>
       <c r="AG283" t="s" s="2">
-        <v>667</v>
+        <v>200</v>
       </c>
       <c r="AH283" t="s" s="2">
         <v>72</v>
@@ -37178,13 +37203,13 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C284" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="D284" s="2"/>
       <c r="E284" t="s" s="2">
@@ -37195,7 +37220,7 @@
         <v>72</v>
       </c>
       <c r="H284" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I284" t="s" s="2">
         <v>71</v>
@@ -37207,13 +37232,13 @@
         <v>71</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="M284" t="s" s="2">
-        <v>672</v>
+        <v>202</v>
       </c>
       <c r="N284" t="s" s="2">
-        <v>672</v>
+        <v>202</v>
       </c>
       <c r="O284" s="2"/>
       <c r="P284" s="2"/>
@@ -37264,13 +37289,13 @@
         <v>71</v>
       </c>
       <c r="AG284" t="s" s="2">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="AH284" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI284" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AJ284" t="s" s="2">
         <v>71</v>
@@ -37281,7 +37306,7 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B285" t="s" s="2">
         <v>673</v>
@@ -37310,13 +37335,13 @@
         <v>71</v>
       </c>
       <c r="L285" t="s" s="2">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="M285" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="N285" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="O285" s="2"/>
       <c r="P285" s="2"/>
@@ -37343,11 +37368,13 @@
         <v>71</v>
       </c>
       <c r="Y285" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="Z285" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z285" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA285" t="s" s="2">
-        <v>199</v>
+        <v>71</v>
       </c>
       <c r="AB285" t="s" s="2">
         <v>71</v>
@@ -37365,7 +37392,7 @@
         <v>71</v>
       </c>
       <c r="AG285" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AH285" t="s" s="2">
         <v>72</v>
@@ -37382,7 +37409,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B286" t="s" s="2">
         <v>674</v>
@@ -37411,13 +37438,13 @@
         <v>71</v>
       </c>
       <c r="L286" t="s" s="2">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="M286" t="s" s="2">
-        <v>202</v>
+        <v>675</v>
       </c>
       <c r="N286" t="s" s="2">
-        <v>202</v>
+        <v>675</v>
       </c>
       <c r="O286" s="2"/>
       <c r="P286" s="2"/>
@@ -37444,13 +37471,11 @@
         <v>71</v>
       </c>
       <c r="Y286" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z286" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="Z286" s="2"/>
       <c r="AA286" t="s" s="2">
-        <v>71</v>
+        <v>676</v>
       </c>
       <c r="AB286" t="s" s="2">
         <v>71</v>
@@ -37468,7 +37493,7 @@
         <v>71</v>
       </c>
       <c r="AG286" t="s" s="2">
-        <v>203</v>
+        <v>674</v>
       </c>
       <c r="AH286" t="s" s="2">
         <v>72</v>
@@ -37485,13 +37510,13 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C287" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" t="s" s="2">
@@ -37502,7 +37527,7 @@
         <v>72</v>
       </c>
       <c r="H287" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I287" t="s" s="2">
         <v>71</v>
@@ -37514,13 +37539,13 @@
         <v>71</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="M287" t="s" s="2">
-        <v>205</v>
+        <v>679</v>
       </c>
       <c r="N287" t="s" s="2">
-        <v>205</v>
+        <v>679</v>
       </c>
       <c r="O287" s="2"/>
       <c r="P287" s="2"/>
@@ -37571,13 +37596,13 @@
         <v>71</v>
       </c>
       <c r="AG287" t="s" s="2">
-        <v>206</v>
+        <v>76</v>
       </c>
       <c r="AH287" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI287" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AJ287" t="s" s="2">
         <v>71</v>
@@ -37588,13 +37613,13 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="C288" t="s" s="2">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="D288" s="2"/>
       <c r="E288" t="s" s="2">
@@ -37620,10 +37645,10 @@
         <v>92</v>
       </c>
       <c r="M288" t="s" s="2">
-        <v>677</v>
+        <v>198</v>
       </c>
       <c r="N288" t="s" s="2">
-        <v>677</v>
+        <v>198</v>
       </c>
       <c r="O288" s="2"/>
       <c r="P288" s="2"/>
@@ -37654,7 +37679,7 @@
       </c>
       <c r="Z288" s="2"/>
       <c r="AA288" t="s" s="2">
-        <v>678</v>
+        <v>199</v>
       </c>
       <c r="AB288" t="s" s="2">
         <v>71</v>
@@ -37672,7 +37697,7 @@
         <v>71</v>
       </c>
       <c r="AG288" t="s" s="2">
-        <v>676</v>
+        <v>200</v>
       </c>
       <c r="AH288" t="s" s="2">
         <v>72</v>
@@ -37689,13 +37714,13 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C289" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" t="s" s="2">
@@ -37706,7 +37731,7 @@
         <v>72</v>
       </c>
       <c r="H289" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I289" t="s" s="2">
         <v>71</v>
@@ -37718,13 +37743,13 @@
         <v>71</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="M289" t="s" s="2">
-        <v>681</v>
+        <v>202</v>
       </c>
       <c r="N289" t="s" s="2">
-        <v>681</v>
+        <v>202</v>
       </c>
       <c r="O289" s="2"/>
       <c r="P289" s="2"/>
@@ -37775,13 +37800,13 @@
         <v>71</v>
       </c>
       <c r="AG289" t="s" s="2">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="AH289" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI289" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AJ289" t="s" s="2">
         <v>71</v>
@@ -37792,7 +37817,7 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B290" t="s" s="2">
         <v>682</v>
@@ -37821,13 +37846,13 @@
         <v>71</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="M290" t="s" s="2">
-        <v>683</v>
+        <v>205</v>
       </c>
       <c r="N290" t="s" s="2">
-        <v>683</v>
+        <v>205</v>
       </c>
       <c r="O290" s="2"/>
       <c r="P290" s="2"/>
@@ -37854,11 +37879,13 @@
         <v>71</v>
       </c>
       <c r="Y290" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="Z290" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z290" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA290" t="s" s="2">
-        <v>684</v>
+        <v>71</v>
       </c>
       <c r="AB290" t="s" s="2">
         <v>71</v>
@@ -37876,7 +37903,7 @@
         <v>71</v>
       </c>
       <c r="AG290" t="s" s="2">
-        <v>682</v>
+        <v>206</v>
       </c>
       <c r="AH290" t="s" s="2">
         <v>72</v>
@@ -37893,13 +37920,13 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C291" t="s" s="2">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" t="s" s="2">
@@ -37922,13 +37949,13 @@
         <v>71</v>
       </c>
       <c r="L291" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="M291" t="s" s="2">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="N291" t="s" s="2">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="O291" s="2"/>
       <c r="P291" s="2"/>
@@ -37955,13 +37982,11 @@
         <v>71</v>
       </c>
       <c r="Y291" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z291" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="Z291" s="2"/>
       <c r="AA291" t="s" s="2">
-        <v>71</v>
+        <v>685</v>
       </c>
       <c r="AB291" t="s" s="2">
         <v>71</v>
@@ -37979,7 +38004,7 @@
         <v>71</v>
       </c>
       <c r="AG291" t="s" s="2">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="AH291" t="s" s="2">
         <v>72</v>
@@ -37996,13 +38021,13 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C292" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D292" s="2"/>
       <c r="E292" t="s" s="2">
@@ -38013,7 +38038,7 @@
         <v>72</v>
       </c>
       <c r="H292" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I292" t="s" s="2">
         <v>71</v>
@@ -38025,7 +38050,7 @@
         <v>71</v>
       </c>
       <c r="L292" t="s" s="2">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="M292" t="s" s="2">
         <v>688</v>
@@ -38058,11 +38083,13 @@
         <v>71</v>
       </c>
       <c r="Y292" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="Z292" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z292" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA292" t="s" s="2">
-        <v>689</v>
+        <v>71</v>
       </c>
       <c r="AB292" t="s" s="2">
         <v>71</v>
@@ -38080,13 +38107,13 @@
         <v>71</v>
       </c>
       <c r="AG292" t="s" s="2">
-        <v>687</v>
+        <v>76</v>
       </c>
       <c r="AH292" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI292" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AJ292" t="s" s="2">
         <v>71</v>
@@ -38097,13 +38124,13 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C293" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D293" s="2"/>
       <c r="E293" t="s" s="2">
@@ -38126,13 +38153,13 @@
         <v>71</v>
       </c>
       <c r="L293" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="M293" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N293" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="O293" s="2"/>
       <c r="P293" s="2"/>
@@ -38159,13 +38186,11 @@
         <v>71</v>
       </c>
       <c r="Y293" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z293" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="Z293" s="2"/>
       <c r="AA293" t="s" s="2">
-        <v>71</v>
+        <v>691</v>
       </c>
       <c r="AB293" t="s" s="2">
         <v>71</v>
@@ -38183,7 +38208,7 @@
         <v>71</v>
       </c>
       <c r="AG293" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AH293" t="s" s="2">
         <v>72</v>
@@ -38200,7 +38225,7 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="B294" t="s" s="2">
         <v>692</v>
@@ -38229,7 +38254,7 @@
         <v>71</v>
       </c>
       <c r="L294" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="M294" t="s" s="2">
         <v>693</v>
@@ -38262,11 +38287,13 @@
         <v>71</v>
       </c>
       <c r="Y294" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="Z294" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Z294" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AA294" t="s" s="2">
-        <v>694</v>
+        <v>71</v>
       </c>
       <c r="AB294" t="s" s="2">
         <v>71</v>
@@ -38296,6 +38323,311 @@
         <v>71</v>
       </c>
       <c r="AK294" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="B295" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="C295" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="D295" s="2"/>
+      <c r="E295" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F295" s="2"/>
+      <c r="G295" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H295" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I295" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J295" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K295" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L295" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M295" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="N295" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="O295" s="2"/>
+      <c r="P295" s="2"/>
+      <c r="Q295" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R295" s="2"/>
+      <c r="S295" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T295" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U295" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V295" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W295" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X295" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y295" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="Z295" s="2"/>
+      <c r="AA295" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="AB295" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC295" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD295" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE295" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF295" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG295" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="AH295" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI295" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ295" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK295" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="B296" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="C296" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="D296" s="2"/>
+      <c r="E296" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F296" s="2"/>
+      <c r="G296" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H296" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I296" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J296" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K296" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L296" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="M296" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="N296" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="O296" s="2"/>
+      <c r="P296" s="2"/>
+      <c r="Q296" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R296" s="2"/>
+      <c r="S296" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T296" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U296" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V296" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W296" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X296" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y296" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z296" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA296" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB296" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC296" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD296" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE296" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF296" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG296" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="AH296" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI296" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ296" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK296" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="B297" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="C297" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="D297" s="2"/>
+      <c r="E297" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F297" s="2"/>
+      <c r="G297" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H297" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I297" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J297" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K297" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L297" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M297" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="N297" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="O297" s="2"/>
+      <c r="P297" s="2"/>
+      <c r="Q297" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R297" s="2"/>
+      <c r="S297" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T297" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U297" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V297" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W297" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X297" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y297" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="Z297" s="2"/>
+      <c r="AA297" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="AB297" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC297" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD297" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE297" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF297" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG297" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="AH297" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI297" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ297" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK297" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/poc-professionnel/ig/all-profiles.xlsx
+++ b/poc-professionnel/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T13:17:05+00:00</t>
+    <t>2025-07-25T07:22:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -303,7 +303,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R35-TypeVoie?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R35-TypeVoie/FHIR/TRE-R35-TypeVoie?vs</t>
   </si>
   <si>
     <t>Adresse.libelleVoie</t>
@@ -342,7 +342,7 @@
     <t>Code officiel géographique (COG), diffusé par l'INSEE, de la commune d'implantation du destinataire. Ce code ne fait pas partie de la norme NF Z 10-011 mais il correspond au libellé de l'attribut "localite" de la classe Adresse qui lui fait partie de la norme.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R13-CommuneOM?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R13-CommuneOM/FHIR/TRE-R13-CommuneOM?vs</t>
   </si>
   <si>
     <t>Adresse.internationalDivisionTerritoriale</t>
@@ -423,7 +423,7 @@
     <t>Type de diplôme, par exemple:** DE : Diplôme d’Etat français** CES : Certificat d’Etudes Spéciales** DES : Diplôme d'Etudes Spécialisées** etc.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R14-TypeDiplome?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R14-TypeDiplome/FHIR/TRE-R14-TypeDiplome?vs</t>
   </si>
   <si>
     <t>Diplome.typeDiplome</t>
@@ -435,7 +435,7 @@
     <t>Lieu de formation pour l'obtention du diplôme. Par exemple:** U37 : Université de Tours (Université François Rabelais)** UP5 : Université de Paris 05 (Université René Descartes).</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R16-LieuFormation?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R16-LieuFormation/FHIR/TRE-R16-LieuFormation?vs</t>
   </si>
   <si>
     <t>Diplome.lieuFormation</t>
@@ -469,7 +469,7 @@
     <t>Attestation de formation.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R56-Attestation?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R56-Attestation/FHIR/TRE-R56-Attestation?vs</t>
   </si>
   <si>
     <t>AutreDiplomeObtenu</t>
@@ -499,7 +499,7 @@
     <t>Autre diplôme obtenu.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R36-AutreDiplomeObtenu?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R36-AutreDiplomeObtenu/FHIR/TRE-R36-AutreDiplomeObtenu?vs</t>
   </si>
   <si>
     <t>BoiteLettreMSS</t>
@@ -527,7 +527,7 @@
     <t>Type de boîte aux lettres.Valeurs possibles :** ORG pour une BAL organisationnelle** APP pour une BAL applicative** PER pour une BAL personnelle, rattachée à une personne physiqueUne BAL de type ORG ou APP est rattachée à une personne morale (entité géographique ou entité juridique) et son usage s’effectue sous la responsabilité d’un ou plusieurs professionnels habilités à échanger des données de santé personnelles.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R257-TypeBAL?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R257-TypeBAL/FHIR/TRE-R257-TypeBAL?vs</t>
   </si>
   <si>
     <t>BoiteLettreMSS.description</t>
@@ -597,7 +597,7 @@
     <t>Diplôme de capacité de médecine.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R52-CapaciteDiplome?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R52-CapaciteDiplome/FHIR/TRE-R52-CapaciteDiplome?vs</t>
   </si>
   <si>
     <t>CapaciteSavoirfaire</t>
@@ -618,7 +618,7 @@
     <t>Le type de savoir-faire (qualifications/autres attributions) désigne par exemple:** une spécialité ordinale (S);** une compétence (C);** etc.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R04-TypeSavoirFaire?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R04-TypeSavoirFaire/FHIR/TRE-R04-TypeSavoirFaire?vs</t>
   </si>
   <si>
     <t>SavoirFaire.typeSavoirFaire</t>
@@ -678,7 +678,7 @@
     <t>Certificat d'études spéciales (CES).</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R55-CertificatEtudeSpeciale?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R55-CertificatEtudeSpeciale/FHIR/TRE-R55-CertificatEtudeSpeciale?vs</t>
   </si>
   <si>
     <t>Competence</t>
@@ -789,7 +789,7 @@
     <t>Diplôme d'études spécialisées complémentaires non qualifiants (DESC I).</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R50-DESCGroupe1Diplome?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R50-DESCGroupe1Diplome/FHIR/TRE-R50-DESCGroupe1Diplome?vs</t>
   </si>
   <si>
     <t>DESC2</t>
@@ -819,7 +819,7 @@
     <t>Diplôme d'études spécialisées complémentaires qualifiants (DESC II).</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R51-DESCGroupe2Diplome?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R51-DESCGroupe2Diplome/FHIR/TRE-R51-DESCGroupe2Diplome?vs</t>
   </si>
   <si>
     <t>DESCNonQualifiant</t>
@@ -882,7 +882,7 @@
     <t>Diplôme de deuxième cycle non qualifiant.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R226-Dip2iemeCycleNQ?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R226-Dip2iemeCycleNQ/FHIR/TRE-R226-Dip2iemeCycleNQ?vs</t>
   </si>
   <si>
     <t>DiplomeDivers</t>
@@ -912,7 +912,7 @@
     <t>Autre type de diplôme obtenu.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R58-AutreTypeDiplome?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R58-AutreTypeDiplome/FHIR/TRE-R58-AutreTypeDiplome?vs</t>
   </si>
   <si>
     <t>DiplomeEEE</t>
@@ -942,7 +942,7 @@
     <t>Diplôme d'un pays de l'espace économique européen.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R53-DiplomePaysEEE?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R53-DiplomePaysEEE/FHIR/TRE-R53-DiplomePaysEEE?vs</t>
   </si>
   <si>
     <t>DiplomeEES</t>
@@ -972,7 +972,7 @@
     <t>Diplôme européen d'études spécialisées.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R57-DiplomeEuropeenEtudeSpecialisee?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R57-DiplomeEuropeenEtudeSpecialisee/FHIR/TRE-R57-DiplomeEuropeenEtudeSpecialisee?vs</t>
   </si>
   <si>
     <t>DiplomeEtat</t>
@@ -1002,7 +1002,7 @@
     <t>Diplôme d'Etat français.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R48-DiplomeEtatFrancais?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R48-DiplomeEtatFrancais/FHIR/TRE-R48-DiplomeEtatFrancais?vs</t>
   </si>
   <si>
     <t>DiplomeEtudeSpecialisee</t>
@@ -1032,7 +1032,7 @@
     <t>Diplôme d'études spécialisées (DES).</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R49-DiplomeEtudeSpecialisee?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R49-DiplomeEtudeSpecialisee/FHIR/TRE-R49-DiplomeEtudeSpecialisee?vs</t>
   </si>
   <si>
     <t>DiplomeUniversitaire</t>
@@ -1062,7 +1062,7 @@
     <t>Diplôme universitaire ou interuniversitaire.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R54-DiplomeUniversiteInterUniversitaire?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R54-DiplomeUniversiteInterUniversitaire/FHIR/TRE-R54-DiplomeUniversiteInterUniversitaire?vs</t>
   </si>
   <si>
     <t>DroitExerciceComplementaire</t>
@@ -1107,7 +1107,7 @@
     <t>Civilité d’exercice du professionnel.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R11-CiviliteExercice?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R11-CiviliteExercice/FHIR/TRE-R11-CiviliteExercice?vs</t>
   </si>
   <si>
     <t>ExerciceProfessionnel.nomExercice</t>
@@ -1146,7 +1146,7 @@
     <t>Indique si le professionnel exerce sa profession en tant que :** M: Agent public** C: Civil** F: Fonctionnaire ** E: EtudiantL'autorité d'enregistrement du professionnel dépend de la catégorie de sa profession.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R09-CategorieProfessionnelle?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R09-CategorieProfessionnelle/FHIR/TRE-R09-CategorieProfessionnelle?vs</t>
   </si>
   <si>
     <t>ExerciceProfessionnel.dateEffetExercice</t>
@@ -1167,7 +1167,7 @@
     <t>Code du département du premier référencement, pour un référencement de nature « inscription à l’ordre ».</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-G09-DepartementOM?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_G09-DepartementOM/FHIR/TRE-G09-DepartementOM?vs</t>
   </si>
   <si>
     <t>ExerciceProfessionnel.boiteLettresMSS</t>
@@ -1196,7 +1196,7 @@
     <t>Instance de régulation d'une profession de santé réglementée.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R82-Ordre?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R82-Ordre/FHIR/TRE-R82-Ordre?vs</t>
   </si>
   <si>
     <t>ExerciceProfessionnel.InscriptionOrdre.dateDebutInscription</t>
@@ -1217,7 +1217,7 @@
     <t>Information indiquant l’avancement du traitement du dossier d'inscription de la personne.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R33-StatutInscription?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R33-StatutInscription/FHIR/TRE-R33-StatutInscription?vs</t>
   </si>
   <si>
     <t>ExerciceProfessionnel.InscriptionOrdre.conseilDepartemental</t>
@@ -1238,7 +1238,7 @@
     <t>Attribution particulière.Par exemple : **Agrément : Autorisation d’un médecin généraliste ou spécialiste, formalisée par un agrément, à figurer sur une liste départementale établie par le Préfet sur proposition du directeur départemental de l'action sanitaire et sociale et après avis du conseil départemental de l'ordre des médecins et des syndicats départementaux des médecins.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R03-AttributionParticuliere?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R03-AttributionParticuliere/FHIR/TRE-R03-AttributionParticuliere?vs</t>
   </si>
   <si>
     <t>ExerciceProfessionnel.AttributionParticuliere.dateDebutReconnaissance</t>
@@ -1275,7 +1275,7 @@
     <t>Nature du cycle de formation:- Deuxième cycle,- Troisième cycle court,- Troisième cycle long/Internat.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R223-NatCycleForm?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R223-NatCycleForm/FHIR/TRE-R223-NatCycleForm?vs</t>
   </si>
   <si>
     <t>ExerciceProfessionnel.NiveauFormation.niveauFormationAcquis</t>
@@ -1284,7 +1284,7 @@
     <t>Niveau de validité dans le cycle de formation.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R224-NiveauFormAcquis?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R224-NiveauFormAcquis/FHIR/TRE-R224-NiveauFormAcquis?vs</t>
   </si>
   <si>
     <t>ExerciceProfessionnel.NiveauFormation.anneeUniversitaire</t>
@@ -1293,7 +1293,7 @@
     <t>Année universitaire, exemple : 2015-2016.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R225-AnneeUniversitaire?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R225-AnneeUniversitaire/FHIR/TRE-R225-AnneeUniversitaire?vs</t>
   </si>
   <si>
     <t>ExerciceProfessionnel.NiveauFormation.dateFin</t>
@@ -1366,7 +1366,7 @@
     <t>La Formation spécialisée transversale (FST) vient compléter le cursus de l’interne à partir de la phase d’approfondissement, et lui permet d’acquérir les compétences pour exercer la surspécialité correspondante dans le cadre de sa spécialité.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R348-FormationSpecialiseeTransversale?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R348-FormationSpecialiseeTransversale/FHIR/TRE-R348-FormationSpecialiseeTransversale?vs</t>
   </si>
   <si>
     <t>Horaire</t>
@@ -1394,7 +1394,7 @@
     <t>Un type de plage horaire apporte du contexte à la plage horaire définie par la suite. Par exemple horaire d'ouverture, horaire de garde, etc.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R252-TypeHoraire?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R252-TypeHoraire/FHIR/TRE-R252-TypeHoraire?vs</t>
   </si>
   <si>
     <t>Horaire.ouvertureFermeture</t>
@@ -1474,7 +1474,7 @@
     <t>Langue parlée.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-G00-Langue?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_G00-Langue/FHIR/TRE-G00-Langue?vs</t>
   </si>
   <si>
     <t>LangueParlee.dateFin</t>
@@ -1525,7 +1525,7 @@
     <t>Civilité de la personne physique.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R81-Civilite?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R81-Civilite/FHIR/TRE-R81-Civilite?vs</t>
   </si>
   <si>
     <t>PersonnePhysique.nomFamille</t>
@@ -1570,7 +1570,7 @@
     <t>Sexe administratif de la personne physique, au sens de l'état civil, masculin ou féminin.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R10-SexeAdministratif?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R10-SexeAdministratif/FHIR/TRE-R10-SexeAdministratif?vs</t>
   </si>
   <si>
     <t>PersonnePhysique.sexe</t>
@@ -1646,7 +1646,7 @@
     <t>Statut de la demande de certification auprès de l'organisme certificateur.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R31-StatutEtatCivil?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R31-StatutEtatCivil/FHIR/TRE-R31-StatutEtatCivil?vs</t>
   </si>
   <si>
     <t>PersonnePhysique.dateStatutEtatCivil</t>
@@ -1676,7 +1676,7 @@
     <t>Pays où séjourne la personne de façon permanente.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R20-Pays?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R20-Pays/FHIR/TRE-R20-Pays?vs</t>
   </si>
   <si>
     <t>PersonnePhysique.professionCategorieSocioProfessionnelle</t>
@@ -1743,7 +1743,7 @@
     <t>Type d’identifiant national de la personne physique.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-G08-TypeIdentifiantPersonne?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_G08-TypeIdentifiantPersonne/FHIR/TRE-G08-TypeIdentifiantPersonne?vs</t>
   </si>
   <si>
     <t>Professionnel.idNatPS</t>
@@ -1856,7 +1856,7 @@
     <t>Le mode d'exercice décrit selon quelle modalité une activité est exercée au regard de l'organisation de la rétribution du professionnel.Exemples : ** Libéral;** Salarié;** Bénévole.Les valeurs de ce code sont répertoriées dans la nomenclature CodeSystem-TRE-R23-ModeExercice.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R23-ModeExercice?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R23-ModeExercice/FHIR/TRE-R23-ModeExercice?vs</t>
   </si>
   <si>
     <t>SituationExercice.numeroAM</t>
@@ -1883,7 +1883,7 @@
     <t>Le genre d'activité identifie les activités qui nécessitent l’application de règles de gestion spécifiques, par exemple, activité standard de soins ou de pharmacien, activité non soignante, activité non médicale, etc.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R22-GenreActivite?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R22-GenreActivite/FHIR/TRE-R22-GenreActivite?vs</t>
   </si>
   <si>
     <t>SituationExercice.motifFinActivite</t>
@@ -1892,7 +1892,7 @@
     <t>Motif de fin d'activité, par exemple:** Décès;** Retraite libérale;** Changement de profession;** etc.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R25-MotifFinActivite?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R25-MotifFinActivite/FHIR/TRE-R25-MotifFinActivite?vs</t>
   </si>
   <si>
     <t>SituationExercice.statutHospitalier</t>
@@ -1901,7 +1901,7 @@
     <t>Statut hospitalier dans le cas d’une activité exercée en établissement public de santé, par exemple:** Professeur des universités - praticien hospitalier (PU-PH);** Assistant hospitalier universitaire (AHU);** etc.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R32-StatutHospitalier?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R32-StatutHospitalier/FHIR/TRE-R32-StatutHospitalier?vs</t>
   </si>
   <si>
     <t>SituationExercice.sectionOrdrePharmacien</t>
@@ -1910,7 +1910,7 @@
     <t>Section du tableau de l’Ordre des pharmaciens, par exemple:** Pharmacien titulaire d’officine;** Pharmacien biologiste;** etc.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R06-SectionTableauCNOP?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R06-SectionTableauCNOP/FHIR/TRE-R06-SectionTableauCNOP?vs</t>
   </si>
   <si>
     <t>SituationExercice.sousSectionOrdrePharmacien</t>
@@ -1919,7 +1919,7 @@
     <t>Sous-section ou à défaut section du tableau de l’Ordre des pharmaciens.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-G05-SousSectionTableauCNOP?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_G05-SousSectionTableauCNOP/FHIR/TRE-G05-SousSectionTableauCNOP?vs</t>
   </si>
   <si>
     <t>SituationExercice.typeActiviteLiberale</t>
@@ -1928,7 +1928,7 @@
     <t>Type d’activité libérale, par exemple:** Cabinet;** Secteur privé à l'hôpital;** etc.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R24-TypeActiviteLiberale?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R24-TypeActiviteLiberale/FHIR/TRE-R24-TypeActiviteLiberale?vs</t>
   </si>
   <si>
     <t>SituationExercice.statutPSSSA</t>
@@ -1937,7 +1937,7 @@
     <t>Statut du professionnel du Service de santé des armées, par exemple:** Praticien certifié;** Praticien confirmé;** etc.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R34-StatutProfessionnelSSA?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R34-StatutProfessionnelSSA/FHIR/TRE-R34-StatutProfessionnelSSA?vs</t>
   </si>
   <si>
     <t>SituationExercice.telecommunication</t>
@@ -1995,7 +1995,7 @@
     <t>La compétence spécifique correspond à une capacité ou connaissance reconnue qui permet ou facilite l’accueil d’une personne. La compétence spécifique n’est ni une spécialité ordinale, ni une profession.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R243-CompetenceSpecifique?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R243-CompetenceSpecifique/FHIR/TRE-R243-CompetenceSpecifique?vs</t>
   </si>
   <si>
     <t>SituationOperationnelle.precisionHoraire</t>
@@ -2014,7 +2014,7 @@
     <t>Secteur de conventionnement du professionnel libéral auquel il a adhéré auprès de l'Assurance Maladie.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R282-CNAMAmeliSecteurConventionnement?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R282-CNAMAmeliSecteurConventionnement/FHIR/TRE-R282-CNAMAmeliSecteurConventionnement?vs</t>
   </si>
   <si>
     <t>SituationOperationnelle.optionContratAccesAuxSoins</t>
@@ -2107,7 +2107,7 @@
     <t>Code spécifiant le canal ou la manière dont s'établit la communication (téléphone, e-mail, URL, etc.).Quelques exemples de codes:** MOB: Téléphone mobile;** FIX: Téléphone fixe;** EML: Courrier électronique;** URL: Uniform Resource Location;** FTP: File Transfer Protocol;** FAX: Télécopie.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R200-CanalCommunication?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R200-CanalCommunication/FHIR/TRE-R200-CanalCommunication?vs</t>
   </si>
   <si>
     <t>Telecommunication.adresseTelecom</t>
@@ -2122,7 +2122,7 @@
     <t>Type de messagerie électronique rassemblant des acteurs (personne physique, personne morale ou système) identifiés et enregistrés selon des règles qui garantissent leur légitimité à l'utiliser. L'échange de messages obéit à des spécifications fonctionnelles et techniques propres à ce type de messagerie.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R256-TypeMessagerie?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R256-TypeMessagerie/FHIR/TRE-R256-TypeMessagerie?vs</t>
   </si>
   <si>
     <t>Telecommunication.utilisation</t>
@@ -2137,7 +2137,7 @@
     <t>Le niveau de confidentialité permet de définir le niveau de restriction de l'accès aux attributs de la classe Telecommunication.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R283-NiveauConfidentialite?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R283-NiveauConfidentialite/FHIR/TRE-R283-NiveauConfidentialite?vs</t>
   </si>
 </sst>
 </file>
@@ -8243,7 +8243,7 @@
     <col min="24" max="24" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="87.44140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="110.74609375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.65625" customWidth="true" bestFit="true"/>

--- a/poc-professionnel/ig/all-profiles.xlsx
+++ b/poc-professionnel/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T07:22:51+00:00</t>
+    <t>2025-07-25T07:53:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/all-profiles.xlsx
+++ b/poc-professionnel/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T07:53:56+00:00</t>
+    <t>2025-07-25T12:35:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/all-profiles.xlsx
+++ b/poc-professionnel/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:45:05+00:00</t>
+    <t>2025-07-25T12:50:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/all-profiles.xlsx
+++ b/poc-professionnel/ig/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11224" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11259" uniqueCount="714">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T07:08:53+00:00</t>
+    <t>2025-07-31T13:33:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -411,10 +411,10 @@
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Attestation</t>
   </si>
   <si>
+    <t>L’attestation est attribuée au terme d'une formation universitaire. Pour les professions médicales et de la pharmacie, les attestations ont été remplacées par les diplômes universitaires (DU).Dans le cadre du modèle, une attestation est un type de diplôme. La classe Attestation est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe</t>
+  </si>
+  <si>
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Diplome</t>
-  </si>
-  <si>
-    <t>L’attestation est attribuée au terme d'une formation universitaire. Pour les professions médicales et de la pharmacie, les attestations ont été remplacées par les diplômes universitaires (DU).Dans le cadre du modèle, une attestation est un type de diplôme. La classe Attestation est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe</t>
   </si>
   <si>
     <t>Attestation.typeDiplome</t>
@@ -606,10 +606,10 @@
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/CapaciteSavoirfaire</t>
   </si>
   <si>
+    <t>La capacité, en tant que savoir-faire, représente la reconnaissance par l'ordre d'un diplôme de capacité. Elle complète les savoir-faire principaux, notamment les spécialités.Une capacité est un type de savoir-faire. La classe Capacite est représentée dans le modèle comme une spécialisation de la classe SavoirFaire et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
+  </si>
+  <si>
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/SavoirFaire</t>
-  </si>
-  <si>
-    <t>La capacité, en tant que savoir-faire, représente la reconnaissance par l'ordre d'un diplôme de capacité. Elle complète les savoir-faire principaux, notamment les spécialités.Une capacité est un type de savoir-faire. La classe Capacite est représentée dans le modèle comme une spécialisation de la classe SavoirFaire et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
   </si>
   <si>
     <t>CapaciteSavoirfaire.typeSavoirFaire</t>
@@ -781,7 +781,7 @@
     <t>Compétence métier acquise par le professionnel</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/competenceMetier-vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R01-EnsembleSavoirFaire-CISIS/FHIR/TRE-R01-EnsembleSavoirFaire-CISIS?vs</t>
   </si>
   <si>
     <t>DESC1</t>
@@ -2577,7 +2577,9 @@
       <c r="A34" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B34" s="2"/>
+      <c r="B34" t="s" s="2">
+        <v>131</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
@@ -2620,7 +2622,7 @@
         <v>30</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41">
@@ -2737,7 +2739,9 @@
       <c r="A55" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B55" s="2"/>
+      <c r="B55" t="s" s="2">
+        <v>153</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
@@ -2780,7 +2784,7 @@
         <v>30</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62">
@@ -3059,7 +3063,9 @@
       <c r="A97" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B97" s="2"/>
+      <c r="B97" t="s" s="2">
+        <v>185</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
@@ -3102,7 +3108,7 @@
         <v>30</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="104">
@@ -3219,7 +3225,9 @@
       <c r="A118" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B118" s="2"/>
+      <c r="B118" t="s" s="2">
+        <v>195</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
@@ -3262,7 +3270,7 @@
         <v>30</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="125">
@@ -3379,7 +3387,9 @@
       <c r="A139" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B139" s="2"/>
+      <c r="B139" t="s" s="2">
+        <v>216</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
@@ -3422,7 +3432,7 @@
         <v>30</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="146">
@@ -3539,7 +3549,9 @@
       <c r="A160" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B160" s="2"/>
+      <c r="B160" t="s" s="2">
+        <v>226</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
@@ -3582,7 +3594,7 @@
         <v>30</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="167">
@@ -3699,7 +3711,9 @@
       <c r="A181" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B181" s="2"/>
+      <c r="B181" t="s" s="2">
+        <v>236</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
@@ -3742,7 +3756,7 @@
         <v>30</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="188">
@@ -3859,7 +3873,9 @@
       <c r="A202" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B202" s="2"/>
+      <c r="B202" t="s" s="2">
+        <v>246</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
@@ -3902,7 +3918,7 @@
         <v>30</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="209">
@@ -4019,7 +4035,9 @@
       <c r="A223" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B223" s="2"/>
+      <c r="B223" t="s" s="2">
+        <v>256</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
@@ -4062,7 +4080,7 @@
         <v>30</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="230">
@@ -4179,7 +4197,9 @@
       <c r="A244" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B244" s="2"/>
+      <c r="B244" t="s" s="2">
+        <v>266</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
@@ -4222,7 +4242,7 @@
         <v>30</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="251">
@@ -4339,7 +4359,9 @@
       <c r="A265" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B265" s="2"/>
+      <c r="B265" t="s" s="2">
+        <v>276</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
@@ -4382,7 +4404,7 @@
         <v>30</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="272">
@@ -4422,7 +4444,7 @@
         <v>4</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="277">
@@ -4499,7 +4521,9 @@
       <c r="A286" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B286" s="2"/>
+      <c r="B286" t="s" s="2">
+        <v>285</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
@@ -4534,7 +4558,7 @@
         <v>29</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="292">
@@ -4659,7 +4683,9 @@
       <c r="A307" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B307" s="2"/>
+      <c r="B307" t="s" s="2">
+        <v>288</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
@@ -4702,7 +4728,7 @@
         <v>30</v>
       </c>
       <c r="B313" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="314">
@@ -4819,7 +4845,9 @@
       <c r="A328" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B328" s="2"/>
+      <c r="B328" t="s" s="2">
+        <v>298</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="s" s="2">
@@ -4862,7 +4890,7 @@
         <v>30</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="335">
@@ -4979,7 +5007,9 @@
       <c r="A349" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B349" s="2"/>
+      <c r="B349" t="s" s="2">
+        <v>308</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="s" s="2">
@@ -5022,7 +5052,7 @@
         <v>30</v>
       </c>
       <c r="B355" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="356">
@@ -5139,7 +5169,9 @@
       <c r="A370" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B370" s="2"/>
+      <c r="B370" t="s" s="2">
+        <v>318</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="s" s="2">
@@ -5182,7 +5214,7 @@
         <v>30</v>
       </c>
       <c r="B376" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="377">
@@ -5299,7 +5331,9 @@
       <c r="A391" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B391" s="2"/>
+      <c r="B391" t="s" s="2">
+        <v>328</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="s" s="2">
@@ -5342,7 +5376,7 @@
         <v>30</v>
       </c>
       <c r="B397" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="398">
@@ -5459,7 +5493,9 @@
       <c r="A412" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B412" s="2"/>
+      <c r="B412" t="s" s="2">
+        <v>338</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="s" s="2">
@@ -5502,7 +5538,7 @@
         <v>30</v>
       </c>
       <c r="B418" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="419">
@@ -5619,7 +5655,9 @@
       <c r="A433" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B433" s="2"/>
+      <c r="B433" t="s" s="2">
+        <v>348</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="s" s="2">
@@ -5662,7 +5700,7 @@
         <v>30</v>
       </c>
       <c r="B439" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="440">
@@ -5779,7 +5817,9 @@
       <c r="A454" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B454" s="2"/>
+      <c r="B454" t="s" s="2">
+        <v>358</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="s" s="2">
@@ -5822,7 +5862,7 @@
         <v>30</v>
       </c>
       <c r="B460" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="461">
@@ -5939,7 +5979,9 @@
       <c r="A475" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B475" s="2"/>
+      <c r="B475" t="s" s="2">
+        <v>368</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="s" s="2">
@@ -6099,7 +6141,9 @@
       <c r="A496" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B496" s="2"/>
+      <c r="B496" t="s" s="2">
+        <v>440</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="s" s="2">
@@ -6142,7 +6186,7 @@
         <v>30</v>
       </c>
       <c r="B502" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="503">
@@ -6259,7 +6303,9 @@
       <c r="A517" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B517" s="2"/>
+      <c r="B517" t="s" s="2">
+        <v>450</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="s" s="2">
@@ -6302,7 +6348,7 @@
         <v>30</v>
       </c>
       <c r="B523" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="524">
@@ -6419,7 +6465,9 @@
       <c r="A538" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B538" s="2"/>
+      <c r="B538" t="s" s="2">
+        <v>460</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="s" s="2">
@@ -6579,7 +6627,9 @@
       <c r="A559" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B559" s="2"/>
+      <c r="B559" t="s" s="2">
+        <v>489</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="s" s="2">
@@ -6739,7 +6789,9 @@
       <c r="A580" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B580" s="2"/>
+      <c r="B580" t="s" s="2">
+        <v>497</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" t="s" s="2">
@@ -6782,7 +6834,7 @@
         <v>30</v>
       </c>
       <c r="B586" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="587">
@@ -6899,7 +6951,9 @@
       <c r="A601" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B601" s="2"/>
+      <c r="B601" t="s" s="2">
+        <v>507</v>
+      </c>
     </row>
     <row r="602">
       <c r="A602" t="s" s="2">
@@ -7059,7 +7113,9 @@
       <c r="A622" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B622" s="2"/>
+      <c r="B622" t="s" s="2">
+        <v>577</v>
+      </c>
     </row>
     <row r="623">
       <c r="A623" t="s" s="2">
@@ -7219,7 +7275,9 @@
       <c r="A643" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B643" s="2"/>
+      <c r="B643" t="s" s="2">
+        <v>599</v>
+      </c>
     </row>
     <row r="644">
       <c r="A644" t="s" s="2">
@@ -7262,7 +7320,7 @@
         <v>30</v>
       </c>
       <c r="B649" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="650">
@@ -7302,7 +7360,7 @@
         <v>4</v>
       </c>
       <c r="B654" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="655">
@@ -7379,7 +7437,9 @@
       <c r="A664" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B664" s="2"/>
+      <c r="B664" t="s" s="2">
+        <v>608</v>
+      </c>
     </row>
     <row r="665">
       <c r="A665" t="s" s="2">
@@ -7414,7 +7474,7 @@
         <v>29</v>
       </c>
       <c r="B669" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="670">
@@ -7539,7 +7599,9 @@
       <c r="A685" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B685" s="2"/>
+      <c r="B685" t="s" s="2">
+        <v>611</v>
+      </c>
     </row>
     <row r="686">
       <c r="A686" t="s" s="2">
@@ -7699,7 +7761,9 @@
       <c r="A706" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B706" s="2"/>
+      <c r="B706" t="s" s="2">
+        <v>657</v>
+      </c>
     </row>
     <row r="707">
       <c r="A707" t="s" s="2">
@@ -7859,7 +7923,9 @@
       <c r="A727" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B727" s="2"/>
+      <c r="B727" t="s" s="2">
+        <v>680</v>
+      </c>
     </row>
     <row r="728">
       <c r="A728" t="s" s="2">
@@ -7902,7 +7968,7 @@
         <v>30</v>
       </c>
       <c r="B733" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="734">
@@ -8019,7 +8085,9 @@
       <c r="A748" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B748" s="2"/>
+      <c r="B748" t="s" s="2">
+        <v>690</v>
+      </c>
     </row>
     <row r="749">
       <c r="A749" t="s" s="2">
@@ -8062,7 +8130,7 @@
         <v>30</v>
       </c>
       <c r="B754" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="755">
@@ -8179,7 +8247,9 @@
       <c r="A769" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B769" s="2"/>
+      <c r="B769" t="s" s="2">
+        <v>700</v>
+      </c>
     </row>
     <row r="770">
       <c r="A770" t="s" s="2">
@@ -10909,10 +10979,10 @@
         <v>75</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -13670,10 +13740,10 @@
         <v>75</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>

--- a/poc-professionnel/ig/all-profiles.xlsx
+++ b/poc-professionnel/ig/all-profiles.xlsx
@@ -30,7 +30,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Adresse</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Adresse</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T13:33:48+00:00</t>
+    <t>2025-10-13T08:05:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -408,13 +408,13 @@
     <t>Attestation</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Attestation</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Attestation</t>
   </si>
   <si>
     <t>L’attestation est attribuée au terme d'une formation universitaire. Pour les professions médicales et de la pharmacie, les attestations ont été remplacées par les diplômes universitaires (DU).Dans le cadre du modèle, une attestation est un type de diplôme. La classe Attestation est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Diplome</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Diplome</t>
   </si>
   <si>
     <t>Attestation.typeDiplome</t>
@@ -475,7 +475,7 @@
     <t>AutreDiplomeObtenu</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/AutreDiplomeObtenu</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/AutreDiplomeObtenu</t>
   </si>
   <si>
     <t>Diplôme autre qu'un diplôme d'Etat, une qualification, un diplôme d'études spécialisées, un DESC1, un DESC2, un diplôme de l'espace économique européen, un diplôme européen d'études spécialisées, une attestation, une capacité ou un diplôme de deuxième cycle non qualifiant.</t>
@@ -505,7 +505,7 @@
     <t>BoiteLettreMSS</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/BoiteLettreMSS</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/BoiteLettreMSS</t>
   </si>
   <si>
     <t>Informations descriptives des boîtes aux lettres du service de messagerie sécurisée de santé (MSSanté) rattachées aux professionnels et aux structures.Synonyme: BAL MSS</t>
@@ -514,7 +514,7 @@
     <t>BoiteLettreMSS.adresseMSS</t>
   </si>
   <si>
-    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Telecommunication
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Telecommunication
 </t>
   </si>
   <si>
@@ -573,7 +573,7 @@
     <t>CapaciteDiplome</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/CapaciteDiplome</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/CapaciteDiplome</t>
   </si>
   <si>
     <t>En France, la capacité de médecine est un diplôme (2 ans d'études) réservé aux docteurs en médecine (généralistes ou spécialistes), leur conférant certaines compétences supplémentaires dans leur exercice ou un champ d'exercice plus large (réf. décret du 29 avril 1988). Les capacités ne confèrent pas la qualification aux spécialistes auprès de l'Ordre des médecins, mais celui-ci les reconnait comme des titres auxquels peuvent prétendre les médecins (par exemple sur leur plaque) pour justifier de compétences supplémentaires auprès de leurs patients.Une capacité est un type de diplôme. La classe CapaciteDiplome est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
@@ -603,13 +603,13 @@
     <t>CapaciteSavoirfaire</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/CapaciteSavoirfaire</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/CapaciteSavoirfaire</t>
   </si>
   <si>
     <t>La capacité, en tant que savoir-faire, représente la reconnaissance par l'ordre d'un diplôme de capacité. Elle complète les savoir-faire principaux, notamment les spécialités.Une capacité est un type de savoir-faire. La classe Capacite est représentée dans le modèle comme une spécialisation de la classe SavoirFaire et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/SavoirFaire</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/SavoirFaire</t>
   </si>
   <si>
     <t>CapaciteSavoirfaire.typeSavoirFaire</t>
@@ -645,7 +645,7 @@
     <t>CapaciteSavoirfaire.exerciceProfessionnel</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/ExerciceProfessionnel)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/mos/StructureDefinition/ExerciceProfessionnel)
 </t>
   </si>
   <si>
@@ -661,13 +661,13 @@
     <t>Savoir-faire de type capacité de médecine (diplôme permettant aux docteurs en médecine d'acquérir des compétences supplémentaires).</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/capaciteSavoirFaire-vs</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/ValueSet/capaciteSavoirFaire-vs</t>
   </si>
   <si>
     <t>CertificatEtudeSpeciale</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/CertificatEtudeSpeciale</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/CertificatEtudeSpeciale</t>
   </si>
   <si>
     <t>Les Certificat d'études spéciales (CES) ont précédé les DES et ils ne sont plus délivrés depuis 1991.Dans le cadre du modèle, un certificat d'études spéciales est un type de diplôme. La classe CertificatEtudesSpeciales est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
@@ -697,7 +697,7 @@
     <t>Competence</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Competence</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Competence</t>
   </si>
   <si>
     <t>Extrait du rapport de l'ONDPS sur la médecine générale (Tome 1 2006-2007): "La compétence était un titre délivré par l’ordre national des médecins en application du précédent règlement de qualification (Article 3 de l'arrêté du 4 septembre 1970), aux praticiens dits «ancien régime» ayant débuté leurs études médicales avant la réforme de 1982. Ce titre était accordé après avis d’une commission ordinale spécifique. Les compétences, dont la liste était fixée par arrêté, portaient soit sur des disciplines ne correspondant pas à des spécialités qualifiantes (médecine légale ou allergologie par exemple), soit sur des spécialités médicales, le praticien compétent ne pouvant l’exercer que dans le cadre de sa spécialité d’inscription à l’ordre. Les compétences ne peuvent plus être délivrées aux médecins issus du nouveau régime, c’est-à-dire ayant débuté leurs études à compter de l’année universitaire 1984-1985. Toutefois, pour ceux de l’ancien régime et à titre transitoire, le dépôt d’une demande de qualification était possible jusqu’au 31 décembre 2004 et ces praticiens peuvent s’en prévaloir jusqu’à la fin leur période d’activité professionnelle.Une compétence est un type de savoir-faire. La classe Competence est représentée dans le modèle comme une spécialisation de la classe SavoirFaire et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
@@ -721,13 +721,13 @@
     <t>Compétence acquise par le professionnel.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/competence-vs</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/ValueSet/competence-vs</t>
   </si>
   <si>
     <t>CompetenceExclusive</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/CompetenceExclusive</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/CompetenceExclusive</t>
   </si>
   <si>
     <t>La compétence exclusive est une compétence exercée à titre exclusif. Un professionnel ne peut exercer à la fois une compétence exclusive et une spécialité.Dans le cadre du modèle, une compétence exclusive est un type de savoir-faire. La classe CompetenceExclusive est représentée dans le modèle comme une spécialisation de la classe SavoirFaire et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
@@ -751,13 +751,13 @@
     <t>Compétence exclusive.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/competenceExclusive-vs</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/ValueSet/competenceExclusive-vs</t>
   </si>
   <si>
     <t>CompetenceMetier</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/CompetenceMetier</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/CompetenceMetier</t>
   </si>
   <si>
     <t>La compétence métier désigne un type de savoir-faire opérationnel, transversal ou spécifique, acquis et exercé à titre non exclusif dans le cadre d’une activité professionnelle reconnue. Elle reflète une expertise fonctionnelle ou technique mobilisée dans l’exercice quotidien du professionnel de santé.Contrairement aux spécialités ordinales ou compétences de médecines, la compétence métier n’est pas nécessairement encadrée par un diplôme ou une qualification ordinale, mais elle peut être attestée par l’expérience, des formations spécifiques, ou une reconnaissance institutionnelle (ex. : missions ANS, ARS, établissements de santé, etc.).Dans le cadre du modèle, la classe CompétenceMetier est représentée comme une spécialisation de la classe SavoirFaire, i-e un TypeDeSavoirFaire et à ce titre, elle hérite des attributs et des associations de cette classe. Elle se distingue des autres types de savoir-faire par son ancrage dans les pratiques professionnelles et organisationnelles, plutôt que dans une logique de qualification médicale ou réglementaire.</t>
@@ -787,7 +787,7 @@
     <t>DESC1</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/DESC1</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/DESC1</t>
   </si>
   <si>
     <t>Les DESC de groupe I ou non qualifiants (2 ans d'études) offrent une compétence supplémentaire ou un champ d'exercice plus large que celui ouvert par le DES, mais ne changent pas la qualification officielle de leurs titulaires auprès de l'Ordre des Médecins. Ils peuvent aussi apporter à des spécialistes des connaissances générales intéressant plusieurs spécialités (allergologie, cancérologie, etc.). Certains de ces DESC sont redondants avec des capacités de médecine, obtenues par la formation continue des médecins déjà diplômés, par exemple la capacité de médecine d'urgence. Il est cependant probable que les capacités disparaissent au profit des DESC équivalents dans un avenir proche.Dans le cadre du modèle, un DESC de groupe I est un type de diplôme. La classe DESC1 est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
@@ -817,7 +817,7 @@
     <t>DESC2</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/DESC2</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/DESC2</t>
   </si>
   <si>
     <t>Les DESC de groupe II ou qualifiants (3 ans d'études) représentent des spécialités par eux-mêmes. Dans le cadre du modèle, un DESC de groupe II est un type de diplôme. La classe DESC2 est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
@@ -847,7 +847,7 @@
     <t>DESCNonQualifiant</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/DESCNonQualifiant</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/DESCNonQualifiant</t>
   </si>
   <si>
     <t>Un professionnel peut faire valoir, en complément de sa spécialité, un ou plusieurs savoir-faire de type DESC non qualifiant, en fonction du ou des DESC de groupe I, qu'il a obtenu(s).Un DESC non qualifiant est un type de savoir-faire. La classe DiplomeEtudesSpécialiseesNonQualifiant est représentée dans le modèle comme une spécialisation de la classe SavoirFaire et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
@@ -871,7 +871,7 @@
     <t>Diplôme d'études spécialisées complémentaires (DESC).</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/DESCNonQualifiant-vs</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/ValueSet/DESCNonQualifiant-vs</t>
   </si>
   <si>
     <t>Diplome</t>
@@ -883,7 +883,7 @@
     <t>DiplomeDeuxiemeCycleNonQualifiant</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/DiplomeDeuxiemeCycleNonQualifiant</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/DiplomeDeuxiemeCycleNonQualifiant</t>
   </si>
   <si>
     <t>Le diplôme de deuxième cycle non qualifiant enregistre un niveau de formation de fin de deuxième cycle, qui sanctionne une partie des études requises à l’exercice de la profession.Il ne donne pas droit à l’exercice de la profession  et son obtention ne change pas la qualification à venir des titulaires lorsqu’ils exerceront.</t>
@@ -913,7 +913,7 @@
     <t>DiplomeDivers</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/DiplomeDivers</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/DiplomeDivers</t>
   </si>
   <si>
     <t>Cette classe regroupe les diplômes qui ne peuvent être classés dans un type de diplôme explicite (CES, DESC1, DESC2, etc.).La classe DiplomeDivers est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
@@ -943,7 +943,7 @@
     <t>DiplomeEEE</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/DiplomeEEE</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/DiplomeEEE</t>
   </si>
   <si>
     <t>Diplôme d'un pays de l'espace économique européen (EEE), requis pour l'accès à la profession en France, pour un professionnel s'inscrivant à l'ordre à compter de la date d'entrée du pays dans l'EEE (Directive européenne 2005-36 modifiée). L'annexe 5 de cette directive donne la liste des reconnaissances mutuelles de diplômes au sein de l'EEE.Dans le cadre du modèle, un diplôme EEE est un type de diplôme. La classe DiplomeEEE est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
@@ -973,7 +973,7 @@
     <t>DiplomeEES</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/DiplomeEES</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/DiplomeEES</t>
   </si>
   <si>
     <t>Diplôme européen d'études spécialisées, d'un pays de l'espace économique européen (EEE), ouvrant l'accès à une spécialité, pour un professionnel s'inscrivant à l'ordre à compter de la date d'entrée du pays dans l'EEE (Directive européenne 2005-36 modifiée). L'annexe 5 de cette directive donne la liste des reconnaissances mutuelles de diplômes de spécialité au sein de l'EEE.Dans le cadre du modèle, un diplôme EES est un type de diplôme. La classe DiplomeEES est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
@@ -1003,7 +1003,7 @@
     <t>DiplomeEtat</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/DiplomeEtat</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/DiplomeEtat</t>
   </si>
   <si>
     <t>Un diplôme d'État, abrégé DE, est un diplôme français qui est souvent requis pour l'exercice de professions règlementées, notamment dans le champ de la santé.L'Etat intervient dans la définition du programme et la pédagogie du cursus diplômant.Cette classe comprend également des diplômes anciens existant avant la création du diplôme d'Etat de la profession et qui étaient requis, à cette époque, pour l'exercice de la profession.Par exemple, le diplôme d'Etat de docteur en chirurgie dentaire est requis depuis 1972 pour exercer la profession de chirurgien-dentiste. Avant 1972, le diplôme d'Etat de chirurgien-dentiste était requis. Ces deux diplômes sont donc présents dans la nomenclature des diplômes d'Etat français.Dans le cadre du modèle, un Diplôme d'Etat est considéré comme un type de diplôme. La classe DiplomeEtat est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
@@ -1033,7 +1033,7 @@
     <t>DiplomeEtudeSpecialisee</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/DiplomeEtudeSpecialisee</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/DiplomeEtudeSpecialisee</t>
   </si>
   <si>
     <t>Le diplôme d'études spécialisées (DES) est délivré aux médecins, pharmaciens ou dentistes ayant effectué une formation de 3e cycle de 3 à 5 ans en fonction des spécialités et soutenu un mémoire. Cette formation correspond à l'internat. Avec les réformes successives adoptées depuis la fin des années 1990 (dont la création de l'internat et du DES de médecine générale), tous les nouveaux docteurs en médecine sont titulaires d'un DES, accompagnant leur diplôme d'État de docteur en médecine (commun à tous les médecins) et précisant leur spécialité.Le DES peut être complété par un diplôme d'études spécialisées complémentaires (DESC). Les DESC se décomposent en deux groupes: ** DESC non qualifiants (groupe 1) d’une durée de 2 ans : 1 an pendant l’internat et 1 an après la fin de l’internat (clinicat);** DESC qualifiants (groupe 2) ou DESCQ d’une durée de 3 ans : 2 ans pendant l’internat et 1 an après la fin de l’internat (clinicat).Dans le cadre du modèle, un DES est un type de diplôme. La classe DiplomeEtudesSpecialisees est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
@@ -1063,7 +1063,7 @@
     <t>DiplomeUniversitaire</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/DiplomeUniversitaire</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/DiplomeUniversitaire</t>
   </si>
   <si>
     <t>En France, un diplôme universitaire (DU) ou interuniversitaire (DIU) est un diplôme délivré par une université française, un grand établissement ou autre établissement public à caractère scientifique, culturel et professionnel, ou plusieurs établissements conjointement, contrairement aux diplômes nationaux qui sont délivrés au nom du ministère. Chaque ordre maintient une liste des DU reconnus.Dans le cadre du modèle, un diplôme universitaire est un type de diplôme. La classe DiplomeUniversitaire est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
@@ -1093,7 +1093,7 @@
     <t>DroitExerciceComplementaire</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/DroitExerciceComplementaire</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/DroitExerciceComplementaire</t>
   </si>
   <si>
     <t>Les docteurs en médecine initialement qualifiés comme médecins spécialistes peuvent obtenir un droit d'exercice dans l'une des spécialités définies par un des DESC de médecine du groupe I.</t>
@@ -1117,13 +1117,13 @@
     <t>Droit d'exercice complémentaire.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/droitExerciceComplementaire-vs</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/ValueSet/droitExerciceComplementaire-vs</t>
   </si>
   <si>
     <t>ExerciceProfessionnel</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/ExerciceProfessionnel</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/ExerciceProfessionnel</t>
   </si>
   <si>
     <t>Informations décrivant notamment la profession exercée, l'identité d'exercice d'un professionnel et le cadre de son exercice (civil, agent public, etc.).Il peut exister plusieurs exercices professionnels pour une personne à un instant donné.</t>
@@ -1156,7 +1156,7 @@
     <t>Profession exercée ou future profession de l'étudiant.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/profession-vs</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/ValueSet/profession-vs</t>
   </si>
   <si>
     <t>ExerciceProfessionnel.typeProfession</t>
@@ -1165,7 +1165,7 @@
     <t>Indique le type de profession de la personne.Exemples :** Professionnel de santé** Usager de titre** Professionnel secteur social** etc.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/typeProfession-vs</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/ValueSet/typeProfession-vs</t>
   </si>
   <si>
     <t>ExerciceProfessionnel.categorieProfessionnelle</t>
@@ -1201,7 +1201,7 @@
     <t>ExerciceProfessionnel.boiteLettresMSS</t>
   </si>
   <si>
-    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/BoiteLettreMSS
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/BoiteLettreMSS
 </t>
   </si>
   <si>
@@ -1290,7 +1290,7 @@
     <t>ExerciceProfessionnel.NiveauFormation.diplome</t>
   </si>
   <si>
-    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Diplome
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Diplome
 </t>
   </si>
   <si>
@@ -1333,7 +1333,7 @@
     <t>ExerciceProfessionnel.professionnel</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Professionnel)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Professionnel)
 </t>
   </si>
   <si>
@@ -1343,7 +1343,7 @@
     <t>FonctionQualifiee</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/FonctionQualifiee</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/FonctionQualifiee</t>
   </si>
   <si>
     <t>Expérience pratique exigée par le code de la santé publique (art R5124-16) pour exercer certaines fonctions dans l’industrie pharmaceutique et la distribution en gros. Ces dispositions s’appliquent uniquement à la profession de pharmacien.L’expérience pratique est en liaison avec les activités de l’établissement pharmaceutique telles que définies par l’ANSM ou l’ANSES.A ce jour, cinq expériences pratiques sont identifiées dont trois sont imbriquées. L’expérience pratique de "Fabricant" inclut celle d’"Exploitant" qui inclut celle de "Distribution".  Une fonction qualifiée est un type de savoir-faire. La classe FonctionQualifiee est représentée dans le modèle comme une spécialisation de la classe SavoirFaire et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
@@ -1367,13 +1367,13 @@
     <t>Fonction qualifiée.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/fonctionQualifiee-vs</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/ValueSet/fonctionQualifiee-vs</t>
   </si>
   <si>
     <t>FormationSpecialiseeTransversale</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/FormationSpecialiseeTransversale</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/FormationSpecialiseeTransversale</t>
   </si>
   <si>
     <t>La formation spécialisée transversale est une formation venant compléter le cursus de l’interne à partir de la phase d’approfondissement, et lui permet d’acquérir les compétences pour exercer la surspécialité correspondante dans le cadre de sa spécialité.Dans le cadre du modèle, une formation spécialisée transversale est considérée comme un type de diplôme. La classe FormationSpecialiseeTransversale est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
@@ -1403,7 +1403,7 @@
     <t>Horaire</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Horaire</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Horaire</t>
   </si>
   <si>
     <t>La classe Horaire permet de définir les différentes plages d'un agenda d'une entité (jours et heures d'ouverture, période de fermeture, etc.).Synonymes (agendas partagés) : plages de disponibilités et d'indisponibilités</t>
@@ -1493,7 +1493,7 @@
     <t>LangueParlee</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/LangueParlee</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/LangueParlee</t>
   </si>
   <si>
     <t>Langue parlée par une personne ou dans un service.</t>
@@ -1517,7 +1517,7 @@
     <t>OrientationParticuliere</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/OrientationParticuliere</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/OrientationParticuliere</t>
   </si>
   <si>
     <t>Caractérise une orientation d'exercice: acupuncture ou homéopathie.Dans le cadre du modèle, une orientation particulière est un type de savoir-faire. La classe OrientationParticuliere est représentée dans le modèle comme une spécialisation de la classe SavoirFaire et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
@@ -1541,13 +1541,13 @@
     <t>Orientation particulière.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/orientationParticuliere-vs</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/ValueSet/orientationParticuliere-vs</t>
   </si>
   <si>
     <t>PersonnePhysique</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/PersonnePhysique</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/PersonnePhysique</t>
   </si>
   <si>
     <t>Préambule:Les informations de la personne physique telles que le nom de naissance, le prénom, etc. sont utilisées dans d'autres contextes que celui de l'INS. Elles sont donc délibérément disjointes des informations constituant l'identité INS.Une personne physique est un individu titulaire de droits et d'obligations caractérisé par une identité civile.</t>
@@ -1613,13 +1613,13 @@
     <t>Sexe de la personne physique, notamment masculin, féminin, inconnu.Attribut associé aux nomenclatures suivantes : ** CodeSystem-TRE-R249-Sexe : représentation des sexes humains par un code alphabétique** CodeSystem-TRE-R267-SexeProvenanceISO : norme ISO 5218 qui définit la représentation des sexes humains par un code numérique** CodeSystem-TRE-R303-HL7v3AdministrativeGender : reprise de la terminologie HL7 v3 AdministrativeGender** ConceptMap-ASS-A15-SexeProvenanceISO-Sexe : table d'association entre les nomenclatures CodeSystem-TRE-R267-SexeProvenanceISO, CodeSystem-TRE-R249-Sexe</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/sexe-vs</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/ValueSet/sexe-vs</t>
   </si>
   <si>
     <t>PersonnePhysique.langueParlee</t>
   </si>
   <si>
-    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/LangueParlee
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/LangueParlee
 </t>
   </si>
   <si>
@@ -1662,7 +1662,7 @@
     <t>Pays de naissance de la personne.Code officiel géographique (COG) du pays.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/paysNaissance-vs</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/ValueSet/paysNaissance-vs</t>
   </si>
   <si>
     <t>PersonnePhysique.lieuNaissance</t>
@@ -1671,7 +1671,7 @@
     <t>Lieu de naissance de la personne.Code officiel géographique (COG) de la commune (France) ou du pays.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/lieuNaissance-vs</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/ValueSet/lieuNaissance-vs</t>
   </si>
   <si>
     <t>PersonnePhysique.statutEtatCivil</t>
@@ -1701,7 +1701,7 @@
     <t>Pays de nationalité actuelle ou rattachement de la nationalité à un espace de pays conventionné.Attribut associé aux nomenclatures suivantes :**CodeSystem-TRE-R268-PaysProvenanceISO : provient de la norme ISO 3166-1 (code alpha-2) qui définit la représentation des noms de pays par un code à deux lettres**CodeSystem-TRE-R20-Pays : provient du code officiel géographique (COG)**CodeSystem-TRE-R89-RegroupementPays : espace de pays conventionné</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/paysNationalite-vs</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/ValueSet/paysNationalite-vs</t>
   </si>
   <si>
     <t>PersonnePhysique.paysResidence</t>
@@ -1719,7 +1719,7 @@
     <t>Profession et catégorie socio-professionnelle de la personne (PCS). Ce code provient de la nomenclature des professions et catégories socioprofessionnelles (PCS) de l'INSEE.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/professionCategorieSocioProfessionnelle-vs</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/ValueSet/professionCategorieSocioProfessionnelle-vs</t>
   </si>
   <si>
     <t>PersonnePhysique.causeMortalite</t>
@@ -1759,7 +1759,7 @@
     <t>Professionnel</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Professionnel</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Professionnel</t>
   </si>
   <si>
     <t>Données d'identification pérennes d’une personne physique, qui travaille en tant que professionnel (professionnel enregistré dans RPPS ou ADELI), personnel autorisé ou personnel d’établissement, dans les domaines sanitaire, médico-social et social.</t>
@@ -1789,7 +1789,7 @@
     <t>Professionnel.personne</t>
   </si>
   <si>
-    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/PersonnePhysique
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/PersonnePhysique
 </t>
   </si>
   <si>
@@ -1805,7 +1805,7 @@
     <t>Professionnel.adresseCorrespondance</t>
   </si>
   <si>
-    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Adresse
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Adresse
 </t>
   </si>
   <si>
@@ -1827,7 +1827,7 @@
     <t>QualificationPAC</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/QualificationPAC</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/QualificationPAC</t>
   </si>
   <si>
     <t>La qualification de praticien adjoint contractuel autorise à exercer en établissement sans être qualifié ni en médecine générale, ni en spécialité. Cela concerne des médecins à diplôme étranger dont la qualification a été reconnue avant l'instauration de l'autorisation d'exercice, et qui n'ont pas fait de démarche pour obtenir cette autorisation (environ 500 médecins concernés).Une qualification de praticien adjoint contractuel est un type de savoir-faire. La classe QualificationPAC est représentée dans le modèle comme une spécialisation de la classe SavoirFaire et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
@@ -1851,7 +1851,7 @@
     <t>Qualification de praticien adjoint contractuel.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/qualificationPAC-vs</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/ValueSet/qualificationPAC-vs</t>
   </si>
   <si>
     <t>SavoirFaire</t>
@@ -1863,7 +1863,7 @@
     <t>SituationExercice</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/SituationExercice</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/SituationExercice</t>
   </si>
   <si>
     <t>Caractéristiques de l'exercice d’un professionnel pendant une période déterminée et dans une structure déterminée (à l'exception des remplaçants).Synonymes : Activité (RPPS).</t>
@@ -1875,7 +1875,7 @@
     <t>Rôle du professionnel au sein de la structure d’exercice. Par exemple, ** Titulaire de cabinet;** Titulaire d’officine;** Médecin scolaire;** etc.Synonyme : fonction</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/role-vs</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/ValueSet/role-vs</t>
   </si>
   <si>
     <t>SituationExercice.typeRole</t>
@@ -1884,7 +1884,7 @@
     <t>Indique le type de rôle du professionnel au sein de la structure d’exercice.Synonyme : typeFonction</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/typeRole-vs</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/ValueSet/typeRole-vs</t>
   </si>
   <si>
     <t>SituationExercice.modeExercice</t>
@@ -2001,7 +2001,7 @@
     <t>SituationOperationnelle</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/SituationOperationnelle</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/SituationOperationnelle</t>
   </si>
   <si>
     <t>Caractérise les conditions d'exercice du professionnel dans la mise en œuvre cadre de l’offre opérationnelle.</t>
@@ -2031,7 +2031,7 @@
     <t>SituationOperationnelle.precisionHoraire</t>
   </si>
   <si>
-    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Horaire
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Horaire
 </t>
   </si>
   <si>
@@ -2071,7 +2071,7 @@
     <t>Specialite</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Specialite</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Specialite</t>
   </si>
   <si>
     <t>Spécialité médicale ou odontologique, reconnue par une autorité d'enregistrement (Ordre ou SSA), soit sur la base d'un diplôme de spécialité (DES ou DESC de groupe II, CES jusqu'en 1991), soit via une commission de qualification.En France, l'exercice d'une spécialité est exclusif, c'est-à-dire qu'on ne peut exercer qu'une seule spécialité, celle qui fait l'objet d'une qualification par le Conseil de l'ordre. Un médecin titulaire d'un DESC de type II qui s'ajoute à son DES, a donc 2 qualifications possibles. Lorsqu'il s'inscrit au tableau de l'ordre des médecins, il doit déclarer sa spécialité d'exercice. S'il choisit celle de son DESC, il ne peut pas exercer la spécialité de son DES. Toutefois, il peut, dans le futur, choisir le retour à la spécialité originelle portée par le DES. Ainsi, la création en 2004 du DESC de Gériatrie a marqué la naissance de la qualification de spécialiste en gériatrie (la gériatrie étant auparavant un mode d'exercice particulier de la médecine, concernant des généralistes et des spécialistes).Dans le cadre du modèle, une spécialité est un type de savoir-faire. La classe Specialite est représentée dans le modèle comme une spécialisation de la classe SavoirFaire et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
@@ -2095,13 +2095,13 @@
     <t>Spécialité ordinale.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/specialite-vs</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/ValueSet/specialite-vs</t>
   </si>
   <si>
     <t>SurspecialiteTransversale</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/SurspecialiteTransversale</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/SurspecialiteTransversale</t>
   </si>
   <si>
     <t>La surspécialité transversale est le droit d’exercice complémentaire au sein de la spécialité du médecin, donné par une formation spécialisée transversale (FST). La formation spécialisée transversale est une formation venant compléter le cursus de l’interne à partir de la phase d’approfondissement, et lui permet d’acquérir les compétences pour exercer la surspécialité correspondante dans le cadre de sa spécialité.</t>
@@ -2125,13 +2125,13 @@
     <t>Surspécialité acquise par le professionnel en supplément de la spécialité de DES.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/surspecialiteTransversale-vs</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/ValueSet/surspecialiteTransversale-vs</t>
   </si>
   <si>
     <t>Telecommunication</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Telecommunication</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Telecommunication</t>
   </si>
   <si>
     <t>Adresse de télécommunication à laquelle une personne ou une organisation peut être contactée  (téléphone, fax, e-mail, URL, etc.).</t>
